--- a/llm_outputs.xlsx
+++ b/llm_outputs.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyesunyun/Documents/nlp/LLMs_and_SRs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44ED410C-FFCD-CB43-B3BA-4207EC72019C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E303D0EE-52A6-AC41-9B44-65B6542EDC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{9CFD483B-9E79-BE4A-9768-68A98BD65D11}"/>
+    <workbookView xWindow="-51200" yWindow="-3820" windowWidth="38160" windowHeight="28340" activeTab="1" xr2:uid="{9CFD483B-9E79-BE4A-9768-68A98BD65D11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Book3" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Only outputs" sheetId="5" r:id="rId2"/>
+    <sheet name="Codes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Book3!$A$1:$N$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Data!$A$1:$O$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="498">
   <si>
     <t>cochrane_id</t>
   </si>
@@ -420,10 +422,6 @@
 </t>
   </si>
   <si>
-    <t>Title: Catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients
-Abstract: The peritoneal dialysis (PD) catheter is the main vascular access in patients receiving PD. The success of PD depends on the success of catheter insertion. Catheter dysfunction is a common complication of PD, with the main cause being the failure to establish the correct position of the catheter tip in the abdominal cavity. Improper positioning of the catheter can lead to mechanical complications such as dialysate leakage, dialysate outflow obstruction, dialysate leakage at the exit site, and dialysate outflow obstruction, which may in turn lead to ultrafiltration failure. This article aims to review the literature on the insertion techniques used to improve catheter function and clinical outcomes in PD patients.&lt;/s&gt;</t>
-  </si>
-  <si>
     <t>Title: Catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients: a protocol for a systematic review.
 Catheter insertion is an important technique used in dialysis patients in order to ensure long-term success of peritoneal dialysis. The aim of present study is to evaluate different catheterization techniques with respect to primary and secondary outcomes in peritoneal dialysis patients. The review will consider studies which examine various techniques for catheter insertion either as a pre-medication or not. This review compares the use of various catheters under ultrasound guidance, the use of antibiotic prophylaxis and the role of non-needle techniques for catheter insertion in peritoneal dialysis patients. This review will also seek to develop a model of care for peritoneal dialysis patients that involves the use of ultrasound guided catheter insertion, use of antimicrobial prophylaxis and non-needle insertion techniques. This review will be limited to English language studies in humans. MEDLINE, CINAHL, EMBASE, Web of science, PubMed, Scopus, and Cochrane Central for randomized controlled trials (RCTs) will be searched from inception until December 2017. RCTs comparing the different catheter insertion and insertion techniques for peritoneal dialysis will be included in the systematic review. The search outcomes will then be critically assessed for methodological quality, and data will be extracted using a data abstraction tool. Clinical heterogeneity will be assessed in terms of populations, interventions, outcomes, and comparators across studies in this review. Quantitative analysis of intervention effects (quantitative data) on all-cause catheter failure by fixed and random effects models will be considered. Studies which report on short- and long-term complications of catheter insertion and outcomes in terms of patient, health-related quality-of-life and cost variables will be taken into consideration. Subgroup analysis will be undertaken to look at differences with respect to population characteristics, antibiotics, types of catheter insertion, and insertion technique. This review will provide a synthesis of information on catheter insertion to help guide practice and guide further research.Background {#Sec1}
 ==========
@@ -506,14 +504,6 @@
 • A single study investigating effects of calcidiol, an alternative form of vitamin D, showed a protective effect. Further investigation of this form of vitamin D is needed.
 How up to date is this evidence?
 This review updates our previous review. The evidence is up to date to September 2022.</t>
-  </si>
-  <si>
-    <t>Title: Vitamin D for the management of asthma
-Abstract: Vitamin D is a fat-soluble steroid hormone that is involved in calcium homeostasis and bone metabolism.1 Vitamin D deficiency is associated with increased risk of autoimmune diseases and allergies, including asthma.2–4 Vitamin D may also affect the function of the immune system.5
-In a recent meta-analysis,6 vitamin D supplementation significantly reduced asthma exacerbation and increased lung function in adults with asthma. However, the results of a recent trial that used high doses of vitamin D to treat children with asthma were disappointing.7 A study that investigated the role of vitamin D in the prevention of asthma in children found no evidence that vitamin D reduced the risk of asthma in children who were at risk of developing asthma.8
-The role of vitamin D in the prevention of asthma is unclear. A recent systematic review and meta-analysis found that supplementation with vitamin D reduced the risk of asthma in infants at risk of developing asthma.9 A recent Cochrane review found that vitamin D supplementation reduced the risk of asthma and allergies in children,10 although this finding has not been replicated.
-Although vitamin D may have a role in the prevention of asthma, it is unclear whether vitamin D supplementation can be used to treat asthma. The findings of the most recent trial are consistent with the findings of previous trials that used vitamin D supplementation to treat asthma.7 A large, well-designed trial is needed to investigate whether vitamin D supplementation can be used to treat asthma.
-This article is part of a series on Asthma in Adults. See related articles http://arthritis-research.com/content/18/2/41, http://arthritis-research.com/content/18/2/42, http://arthritis-research.com/content/18/2/43, http://arthritis-research.com/content/18/2/44, http://arthritis-research.com/content/18/2/45, http://arthritis-research.com/content/18/2/46, http://arthritis-research.com/content/18/2/47, http://arthritis-research.com/content/18/2/48, http://arthritis-research.com/content/18/2/49, http://arthritis-research.com/content/18/2/50, http://arthritis-research.com/content/18/2/51, http://arthritis-research.com/content/18/2/52, http://arthritis-research.com/content/18/2/53, http://arthritis-research.com/content/18/2/54, http://arthritis-research.com/content/18/2/55, http://arthritis-research.com/content/18/2/56, http://arthritis-research.com/content/18/2/57, http://arthritis-research.com/content/18/2/58, http://arthritis-research.com/content/18/2/59, http://arthritis-research.com/content/18/2/60, http://arthritis-research.com/content/18/2/61, http://arthritis-research.com/content/18/2/62, http://arthritis-research.com/content/18/2/63, http://arthritis-research.com/content/18/2/64, http://arthritis-research.com/content/18/2/65, http://arthritis-research.com/content/18/2/66, http://arthritis-research.com/content/18/2/67, http://arthritis-research.com/content/18/2/68, http://arthritis-research.com/content/18/2/69, http://arthritis-research.com/content/18/2/70, http://arthritis-research.com/content/18/2/71, http://arthritis-research.com/content/18/2/72, http://arthritis-research.com/content/18/2/73, http://arthritis-research.com/content/18/2/74, http://arthritis-research.com/content/18/2/75, http</t>
   </si>
   <si>
     <t>Title: Vitamin D for the management of asthma
@@ -1771,23 +1761,6 @@
 We found all the published trials on this topic up to 31 March 2022. We also found all the trials which have started or are going to be starting soon. The good news is that there is one very large trial on drugs to prevent bleeding in surgery that is already in progress. It is testing tranexamic acid injected before surgery. It plans to recruit 8320 people undergoing a range of surgeries, including surgery on blood vessels, and will report the number of people needing blood transfusions. This will be an important result when the trial is completed, and we hope it will inspire other surgeons to do trials of this sort in future.</t>
   </si>
   <si>
-    <t xml:space="preserve">Title: Drugs to reduce bleeding and transfusion in major open vascular or endovascular surgery: a systematic review and network meta‐analysis
-Abstract: Background 
-Reducing the need for allogeneic blood transfusion in major open vascular or endovascular surgery is important to minimise complications associated with transfusion, such as viral infection and immunosuppression. 
-Aim 
-To assess the effectiveness of drugs used to reduce bleeding and transfusion in major open vascular or endovascular surgery. 
-Design 
-Systematic review and network meta-analysis. 
-Data sources 
-MEDLINE, EMBASE, CENTRAL and Web of Science databases. 
-Study selection 
-Randomised controlled trials of any drugs compared with placebo or no treatment in patients undergoing major open vascular or endovascular surgery. 
-Data extraction 
-Data were extracted independently by two reviewers. 
-Main results 
-15 trials involving 2474 patients were included. The most common surgery was aortic aneurysm repair. The drugs evaluated were aprotinin, tranexamic acid, desmopressin, desmopressin with aprotinin, epsilon aminocaproic acid, aprotinin with epsilon aminocaproic acid, aprotinin with tranexamic acid, aprotinin with desmopressin, aprotinin with epsilon aminocaproic acid and aprotinin with tranexamic acid with epsilon aminocaproic acid. There was no difference in total transfusion (relative risk (RR) 0.94, 95% confidence interval (CI) 0.80 to 1.10, P=0.44), red cell transfusion (RR 0.94, 95% CI 0.79 to 1.12, P=0.52) or blood product transfusion (RR 0.94, 95% CI 0.81 to 1.10, P=0.41) between aprotinin and placebo or no treatment. Tranexamic acid was associated with a reduction in total transfusion (RR 0.83, 95% CI 0.70 to 0.99, P=0.04), red cell transfusion (RR 0.77, 95% CI 0.62 to 0.96, P=0.02) and blood product transfusion (RR 0.80, 95% CI 0.65 to 0.99, P=0.04) compared with placebo or no treatment. There was no difference in total transfusion (RR 0.84, 95% CI 0.68 to 1.03, P=0.10), red cell transfusion (RR 0.85, 95% CI 0.66 to 1.09, P=0.21) or blood product transfusion (RR 0.85, 95% CI 0.67 to 1.07, P=0.17) between desmopressin and placebo or no treatment. Tranexamic acid with desmopressin was associated with a reduction in total transfusion (RR 0.79, 95% CI 0.65 to 0.96, P=0.02) and red cell transfusion (RR 0.72, 95% CI 0.56 to 0.92, P=0.01) compared with placebo or no treatment. Tranexamic acid with epsilon aminocaproic acid was associated with a reduction in total transfusion (RR 0.76, 95% CI 0.61 to 0.95, P=0.02), red cell transfusion (RR 0.71, 95% CI 0.55 to 0.91, P=0.007) and blood product transfusion (RR 0.70, 95% CI 0.55 to 0.89, P=0.004) compared with placebo or no treatment. Tranexamic acid with epsilon aminocaproic acid and aprotinin with epsilon aminocaproic acid were associated with a reduction in total transfusion (RR 0.75, 95% CI 0.60 to 0.93, P=0.01) and blood product transfusion (RR 0.73, </t>
-  </si>
-  <si>
     <t>Title: Drugs to reduce bleeding and transfusion in major open vascular or endovascular surgery: a systematic review and network meta‐analysisi.**■   Alefacept (r‐DNA­IL‐2­Fc Fusion Protein)**Prophylaxis for red cell alloimmunisation in pregnant women undergoing elective caesarean section (FDA)ii.** **Antithrombin (AT­III)**Prevention of venous thromboembolic events following abdominal and pelvic surgery (FDA)iii.** **Recombinant activated factor VII**Treatment of haemophilia A and B, inhibitors and vWDv.** **Recombinant Factor VIIa, NovosevenProphylaxis of and/or treatment of bleeding in haemophilia with Factor VII activity \&lt; 1% (p = 0.001)vi.** **Recombinant Factor VIIa, ReFactoBleed Prevention of bleeding episodes in patients with haemophilia with inhibitors (p = 0.0007) (RCT)Abbreviation: RCT: randomised clinical trial.ii.** Antithrombin III (AT­III)**Prophylaxis for and/or treatment of venous thromboembolic events following abdominal and pelvic surgery (FDA)iii.** Antifibrinolytic (tranexamic acid)**Prevention of excessive surgical bleeding in patients undergoing major surgery of the abdomen and pelvis (FDA)iv.** Anticoagulant (heparin)**Prevention of venous thromboembolism after hip or knee surgery (FDA)v.** Antithrombin**Avoiding thromboembolism and other cardiac events after vascular surgery (FDA)vi.** Antifibrinolytic**Prevention of excessive surgical bleeding after abdominal and pelvic surgery (FDA)Abbreviation: FDA: United States Food &amp; Drug Administration.iii.** Recombinant Human Thrombin (r‐Thr)**Prevention and management of venous thromboembolic events (FDA)Abbreviation: FDA: United States Food &amp; Drug Administration.iv.** **Antifactor Xa**Avoiding thromboembolism and other cardiac events after vascular surgery (FDA)Abbreviation: FDA: United States Food &amp; Drug Administration.v.** **Anticoagulants (heparin)Protect against deep vein thrombosis after major orthopaedic surgery (FDA)vi.** Danaparoid sodium**Treatment of heparin‐induced thrombocytopenia (p \&lt; 0.001)v.** DesmopressinNot for treatment of bleeding in patients with von Willebrand disease (vWD)Abbreviation: vWD: von Willebrand disease.vi.** Antifibrinolytic (tranexamic acid)**Prevention of excessive surgical bleeding in patients undergoing major surgery of the abdomen and pelvis (FDA)vii.** **Anticoagulants (heparin)Avoiding thromboembolism and other cardiac events after vascular surgery (FDA)viii.** Bypassing Factor Di Xigans, NovoparinPrevention of deep vein thrombosis after total hip or knee arthroplastyEdoxaban is an oral factor Xa inhibitor approved in patients with non‐valvular atrial fibrillation to reduce the risk of stroke and systemic embolism (Food and Drug Administration (FDA). It was evaluated for the prevention of venous thromboembolism after total hip or total knee replacement surgery in 3,821 patients who had undergone surgery. Treatment with edoxaban at a low dose with daily administration showed comparable efficacy to subcutaneous enoxaparin, an LMWH, which was administered at a standard dosage without the need for routine coagulation monitoring. The oral direct‐acting factor Xa inhibitor edoxaban was shown to be safe and well tolerated as prophylaxis in patients requiring major orthopaedic surgery and with higher efficacy than enoxaparin (Buller et al., [2015](#bjh16360-bib-0006){ref-type="ref"}; Ruff *et al*, [2015](#bjh16360-bib-0047){ref-type="ref"}).ix.** BivalirudinHeparin‐induced thrombocytopenia (HIT)**Treatment of acute coronary syndrome and percutaneous coronary intervention\
 (Pfizer)Bivalirudin is a direct thrombin inhibitor that does not require antithrombin III for its anticoagulant effects. It is approved by the FDA to prevent ischemic events in the setting of percutaneous coronary intervention for patients with acute coronary syndrome (ACS) who have not yet been given heparin but</t>
   </si>
@@ -1912,87 +1885,6 @@
 Overall, this living systematic review suggests that convalescent plasma may have some potential as a therapy for COVID-19, but more research is needed to determine its effectiveness and safety, as well as the optimal timing and dosing of the therapy.</t>
   </si>
   <si>
-    <t>Insurance medicine</t>
-  </si>
-  <si>
-    <t>Background
-Peritoneal dialysis (PD) relies on the optimal functionality of the flexible plastic PD catheter present within the peritoneal cavity to enable effective treatment. As a result of limited evidence, it is uncertain if the PD catheter's insertion method influences the rate of catheter dysfunction and, thus, the quality of dialysis therapy. Numerous variations of four basic techniques have been adopted in an attempt to improve and maintain PD catheter function. This review evaluates the association between PD catheter insertion technique and associated differences in  PD catheter function and post‐PD catheter insertion complications
-Objectives
-Our aims were to 1) evaluate if a specific technique used for PD catheter insertion has lower rates of PD catheter dysfunction (early and late) and technique failure; and 2) examine if any of the available techniques results in a reduction in post‐procedure complication rates including postoperative haemorrhage, exit‐site infection and peritonitis.
-Search methods
-We searched the Cochrane Kidney and Transplant Register of Studies up to 24 November 2022 through contact with the Information Specialist using search terms relevant to this review. Studies in the Register are identified through searches of CENTRAL, MEDLINE, and EMBASE, conference proceedings, the International Clinical Trials Register (ICTRP) Search Portal and ClinicalTrials.gov.
-Selection criteria
-We included randomised controlled trials (RCTs) examining adults and children undergoing PD catheter insertion. The studies examined any two PD catheter insertion techniques, including laparoscopic, open‐surgical, percutaneous and peritoneoscopic insertion. Primary outcomes of interest were PD catheter function and technique survival. 
-Data collection and analysis
-Two authors independently performed data extraction and assessed the risk of bias for all included studies. Main outcomes in the Summary of Findings tables include primary outcomes ‐ early PD catheter function, long‐term PD catheter function, technique failure and postoperative complications. A random effects model was used to perform meta‐analyses; risk ratios (RRs) were calculated for dichotomous outcomes, and mean differences (MD) were calculated for continuous outcomes, using 95% confidence intervals (CIs) for effect estimates. The certainty of the evidence was evaluated using the GRADE (Grades of Recommendation, Assessment, Development and Evaluation) approach. 
-Main results
-Seventeen studies were included in this review. Nine studies were suitable for inclusion in quantitative meta‐analysis (670 randomised participants). Five studies compared laparoscopic with open PD catheter insertion, and four studies compared a 'medical' insertion technique with open surgical PD catheter insertion: percutaneous (2) and peritoneoscopic (2).
-Random sequence generation was judged to be at low risk of bias in eight studies. Allocation concealment was reported poorly, with only five studies judged to be at low risk of selection bias. Performance bias was judged to be high risk in 10 studies. Attrition bias and reporting bias were judged to be low in 14 and 12 studies, respectively.
-Six studies compared laparoscopic PD catheter insertion with open surgical insertion. Five studies could be meta‐analysed (394 participants). For our primary outcomes, data were either not reported in a format that could be meta‐analysed (early PD catheter function, long‐term catheter function) or not reported at all (technique failure). One death was reported in the laparoscopic group and none in the open surgical group. In low certainty evidence, laparoscopic PD catheter insertion may make little or no difference to the risk of peritonitis (4 studies, 288 participants: RR 0.97, 95% CI 0.63 to 1.48; I² = 7%), PD catheter removal (4 studies, 257 participants: RR 1.15, 95% CI 0.80 to 1.64; I² = 0%), and dialysate leakage (4 studies, 330 participants: RR 1.40, 95% CI 0.49 to 4.02; I² = 0%), but may reduce the risk of haemorrhage (2 studies, 167 participants: RR 1.68, 95% CI 0.28 to 10.31; I² = 33%) and catheter tip migration (4 studies, 333 participants: RR 0.43, 95% CI 0.20 to 0.92; I² = 12%).
-Four studies compared a medical insertion technique with open surgical insertion (276 participants). Technique failure was not reported, and no deaths were reported (2 studies, 64 participants). In low certainty evidence, medical insertion may make little or no difference to early PD catheter function (3 studies, 212 participants: RR 0.73, 95% CI 0.29 to 1.83; I² = 0%), while one study reported long‐term PD function may improve with peritoneoscopic insertion (116 participants: RR 0.59, 95% CI 0.38 to 0.92). Peritoneoscopic catheter insertion may reduce the episodes of early peritonitis (2 studies, 177 participants: RR 0.21, 95% CI 0.06 to 0.71; I² = 0%) and dialysate leakage (2 studies, 177 participants: RR 0.13, 95% CI 0.02 to 0.71; I² = 0%). Medical insertion had uncertain effects on catheter tip migration (2 studies, 90 participants: RR 0.74, 95% CI 0.15 to 3.73; I² = 0%).
-Most of the studies examined were small and of poor quality, increasing the risk of imprecision. There was also a significant risk of bias therefore cautious interpretation of results is advised.
-Authors' conclusions
-The available studies show that the evidence needed to guide clinicians in developing their PD catheter insertion service is lacking. No PD catheter insertion technique had lower rates of PD catheter dysfunction. High‐quality, evidence‐based data are urgently required, utilising multi‐centre RCTs or large cohort studies, in order to provide definitive guidance relating to PD catheter insertion modality.</t>
-  </si>
-  <si>
-    <t>Catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients
-What is the issue?
-Peritoneal dialysis (PD) relies on the insertion of a flexible plastic catheter, which is passed into the peritoneal cavity (space around the abdominal organs) to provide dialysis treatment. This tube must be able to allow the circulation of sterile fluid in and out of the peritoneal cavity several times each day (or overnight) to provide optimum clearance of waste products and water. The technique used to initially place the PD catheter into the peritoneal cavity varies from centre to centre according to local preference and expertise, and hence it is not clear which catheter insertion technique provides the best clinical outcomes for the patient in terms of catheter function, longevity whilst minimising postoperative complications.
-What did we do?
-We searched the Cochrane Kidney and Transplant Specialised Register up to November 2022. Only 17 of the identified studies could be used in this review. A total of 658 participants were included in the analyses from 9 of the included studies. The other eight studies were only suitable for a descriptive review.
-What did we find?
-We found that the studies looking at the PD catheter insertion technique were generally of poor quality, and none examined the long‐term outcomes of the PD catheter in a way which could be analysed. This means that it is still not known which PD catheter insertion technique is the best for patients in terms of the survival of the catheter. Some studies comparing different PD catheter insertion techniques also looked at complications postoperatively. The peritoneoscopic method of insertion resulted in slightly fewer fluid leaks after surgery. Catheters inserted via this technique can be visualised within the abdominal cavity, but no manipulation of the catheter or extra surgical procedure can take place. There was also a suggestion that the PD catheter moved less frequently from its best position in catheters inserted with a laparoscopic technique when compared to open surgical PD catheter insertion.
-Conclusions
-We did not find evidence to show that there was a benefit of one PD catheter insertion technique over another. The studies were all small and of poor quality.</t>
-  </si>
-  <si>
-    <t>Title: Catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients
-Abstract: The peritoneal dialysis (PD) catheter is the most important device for successful PD therapy. A well-functioning PD catheter can provide adequate dialysis, improve patient quality of life, and reduce the risk of death. In the last two decades, there have been several advances in PD catheter design and insertion techniques that have contributed to improved catheter function and clinical outcomes. We discuss the following issues in this article: (1) catheter design; (2) insertion technique; (3) optimal insertion site; (4) catheter positioning; (5) exit-site care; (6) catheter-related infections; (7) dialysate leak; (8) patient satisfaction; and (9) future directions.&lt;/s&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title: Catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients
-  Reference: Title: Effects of Cefazolin on Systemic Immune Responses to Polysorbate 80-Contained Products in Patients with Pre-dialysis Chronic Kidney Disease
-  Reference: Title: Premature Infections - Prevention and Consequences: A Multi-centre Observational Study on Premature Infections in Hemodialysis Patients
-  Reference: Title: Clinical Outcomes and Bacterial Types for Peritoneal Dialysis Patients with Gram-Negative Organisms: A 16-Year Observational Retrospective Data Analysis
-  Reference: Title: Safety and Outcome of Tenckhoff Catheters Torn: A Single-Centre Experience and Review of the Literature
-  Reference: Title: Tenckhoff catheter complications in peritoneal dialysis patients
-  Reference: Title: Primary Catheter Malfunction as a Sign of Severely Altered Small Bowel Function in Children under Continuous Veno-Venous Hemodialysis
-  Reference: Title: A Case Report of a Persistent Fistula Leakage After Catheter Replacement
-  Reference: Title: Peritonitis in Adult Patients After Continuous Peritoneal Dialysis Start Time Analysis
-  Reference: Title: Comparison of Clinical Outcomes in Continuous Veno-Venous Hemodialysis Patients Administered with Low Molecular Weight Heparin or Enoxaparin
-  Reference: Title: Catheter Replacements: Clinical Outcomes and Catheter Function After a Single Peritoneal Dialysis Catheter Replacement
-  Reference: Title: Peritonitis Incidence, Recurrence, and Clinical Outcome in Hemodialysis Patients: A 5-Year Observational Study
-  Reference: Title: Premature Infections in Hemodialysis Patients
-  Other References
-  Names of other guidelines and recommendations
-  Name of the society guideline
-  Award/citation
-  Name of the guideline
-  Author(s)
-  Position on the topic
-  Organization
-  Country
-  Size of the guideline (number of authors)
-  Scope of the guideline
-  Key recommendations
-  Reference(s)
-  ------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------
-![Flowchart of the literature selection process.](nutrients-10-01992-g001){#nutrients-10-01992-f001}
-nutrients-10-01992-t001_Table 1
-###### 
-Summary of the evidence presented in the guideline.
-  Reference                                             Clinical Question                                                                                                                                                                                                                                                                                                                          </t>
-  </si>
-  <si>
-    <t>Sure, here is a review on catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients:
-Peritoneal dialysis (PD) is a form of renal replacement therapy that involves the use of a catheter to deliver a dialysis solution into the peritoneal cavity, where it absorbs waste products and excess fluids from the bloodstream. Catheter insertion is a critical step in the PD process, and the technique used for insertion can affect the success of the therapy.
-This review aims to assess the effectiveness of different catheter insertion techniques for improving catheter function and clinical outcomes in PD patients. The review included 29 randomized controlled trials that compared different catheter insertion techniques, such as open surgery versus laparoscopic insertion, and single versus double-cuffed catheters.
-The results of the review suggest that laparoscopic insertion may be associated with lower rates of catheter dysfunction and exit-site infections compared to open surgery. However, the evidence was limited, and more research is needed to confirm these findings.
-In terms of single versus double-cuffed catheters, the review found no significant differences in catheter survival or infection rates between the two types of catheters. However, the evidence was also limited, and more research is needed to fully assess the benefits and risks of each type of catheter.
-Other factors, such as the experience and skill of the operator, the use of prophylactic antibiotics, and the timing of catheter insertion, may also influence catheter function and clinical outcomes. However, the evidence on these factors was limited, and more research is needed to determine their effects on PD outcomes.
-Overall, this review suggests that laparoscopic catheter insertion may be associated with better outcomes compared to open surgery, and that there may be no significant differences in outcomes between single and double-cuffed catheters. However, the evidence on these factors is limited, and more research is needed to fully assess the effectiveness of different catheter insertion techniques in PD patients.</t>
-  </si>
-  <si>
     <t>CD005562.pub3</t>
   </si>
   <si>
@@ -3108,12 +3000,1824 @@
 The review also found that reconstructive surgery was associated with a higher risk of adverse events, such as wound infection, dehiscence, and flap necrosis, compared to non-surgical treatments. The risk of adverse events was highest in studies involving large flap procedures.
 In conclusion, while the available evidence suggests that reconstructive surgery may be effective for treating pressure ulcers, the quality of evidence is low and the risk of adverse events is significant. Therefore, the decision to use reconstructive surgery should be based on careful consideration of individual patient characteristics, preferences, and risks. Additionally, more high-quality research is needed to establish the optimal timing, type, and technique of reconstructive surgery for pressure ulcers.</t>
   </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>biomedlm</t>
+  </si>
+  <si>
+    <t>chatgpt</t>
+  </si>
+  <si>
+    <t>method does not inlclude recent RCTs</t>
+  </si>
+  <si>
+    <t>instances_found</t>
+  </si>
+  <si>
+    <t>short output (less than 100 words)</t>
+  </si>
+  <si>
+    <t>does not provide conclusions</t>
+  </si>
+  <si>
+    <t>not a systematic review</t>
+  </si>
+  <si>
+    <t>basic introduction only</t>
+  </si>
+  <si>
+    <t>does not provide conclusions; basic introduction only</t>
+  </si>
+  <si>
+    <t>shares similar conclusions to ground truth</t>
+  </si>
+  <si>
+    <t>does not provide conclusions; basic introduction only; short output (less than 100 words)</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; shares similar conclusions to ground truth</t>
+  </si>
+  <si>
+    <t>conclusion matches ground truth only partially</t>
+  </si>
+  <si>
+    <t>abstract of a RCT</t>
+  </si>
+  <si>
+    <t>short output (less than 100 words); does not provide conclusions; basic introduction only</t>
+  </si>
+  <si>
+    <t>outputs p values</t>
+  </si>
+  <si>
+    <t>outputs AUC and ROC numbers</t>
+  </si>
+  <si>
+    <t>outputs numerical values</t>
+  </si>
+  <si>
+    <t>study conducted not recently</t>
+  </si>
+  <si>
+    <t>different conclusion to ground truth</t>
+  </si>
+  <si>
+    <t>not a systematic reivew; abstract of a RCT; outputs numerical values; outputs p values; study conducted not recently; different conclusion to ground truth</t>
+  </si>
+  <si>
+    <t>not a systematic review; abstract of a RCT; outputs numerical values; different conclusion to ground truth; study conducted not recently</t>
+  </si>
+  <si>
+    <t>retrospective observational study</t>
+  </si>
+  <si>
+    <t>not a systematic reivew; study conducted not recently; outputs numerical values; retrospective observational study; outpus p values; different conlusion to ground truth</t>
+  </si>
+  <si>
+    <t>no full sentence given</t>
+  </si>
+  <si>
+    <t>does not provide conclusions; no full sentence given; short output (less than 100 words)</t>
+  </si>
+  <si>
+    <t>basic introduction only; different conclusion to ground truth; short output (less than 100 words)</t>
+  </si>
+  <si>
+    <t>method does not inlclude recent RCTs; mimatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence)</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence)</t>
+  </si>
+  <si>
+    <t>conclusion mismatch (ground truth says no evidence but output says some evidence)</t>
+  </si>
+  <si>
+    <t>incomplete output</t>
+  </si>
+  <si>
+    <t>repeated sentences</t>
+  </si>
+  <si>
+    <t>repeated sentences; conclusion mismatch (ground truth says no evidence but output says some evidence)</t>
+  </si>
+  <si>
+    <t>does not provide conclusions; basic introduction only, outputs numerical values</t>
+  </si>
+  <si>
+    <t>not a systematic reivew; abstract of a RCT; outputs numerical values; outputs p values; shares similar conclusions to ground truth</t>
+  </si>
+  <si>
+    <t>not a systematic review; abstract of a RCT; outputs p values; outputs numerical values; conclusion mismatch (ground truth says no evidence but output says some evidence)</t>
+  </si>
+  <si>
+    <t>not a systematic review; abstract of a RCT; conclusion mismatch (ground truth says no evidence but output says some evidence); outputs p values; outputs numerical values; questionable study design</t>
+  </si>
+  <si>
+    <t>questionable study design</t>
+  </si>
+  <si>
+    <t>not a systematic review; abstract of a RCT; outputs p values; conclusion mismatch (ground truth says no evidence but output says some evidence)</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence); no mention of number of evidence found</t>
+  </si>
+  <si>
+    <t>no mention of number of evidence found</t>
+  </si>
+  <si>
+    <t>same number of evidence found</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; same number of evidence found; conclusion mismatch (ground truth says no evidence but output says some evidence)</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; shares similar conclusions to ground truth; outputs numerical values</t>
+  </si>
+  <si>
+    <t>include more recent studies</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; shares similar conclusions to ground truth; outputs numerical values; include more recent studies</t>
+  </si>
+  <si>
+    <t>conclusion mismatch (ground truth more promisingly saying there is evidence)</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence); include more recent studies</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; include more recent studies; conclusion mismatch (ground truth more promisingly saying there is evidence); outputs numerical values</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence); include more recent studies; outputs numerical values</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; include more recent studies; conclusion matches ground truth only partially (part of conclusion is oppositve of ground truth); outputs numerical values</t>
+  </si>
+  <si>
+    <t>misatch in number of found RCTs</t>
+  </si>
+  <si>
+    <t>no mention of number of evidence found; living systematic review; conclusion mismatch (ground truth says no evidence but output says some evidence); include more recent studies</t>
+  </si>
+  <si>
+    <t>living systematic review</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; shares similar conclusions to ground truth; include more recent studies; outputs numerical values</t>
+  </si>
+  <si>
+    <t>different conclusion to ground truth; mismatch in number of found RCTs</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence); include more recent studies; outputs reference to systematic review</t>
+  </si>
+  <si>
+    <t>outputs reference to systematic review</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence); include more recent studies; outputs numerical values; outputs risk ratio</t>
+  </si>
+  <si>
+    <t>outputs risk ratio</t>
+  </si>
+  <si>
+    <t>conclusion matches ground truth only partially; short output (less than 100 words)</t>
+  </si>
+  <si>
+    <t>not a systematic review; abstract of a RCT; conclusion matches ground truth only partially ; outputs AUC and ROC numbers; outputs p values; outputs numerical values</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion matches ground truth only partially</t>
+  </si>
+  <si>
+    <t>outputs risk ratio; conclusion matches ground truth only partially; outputs numerical values; outputs reference to systematic review</t>
+  </si>
+  <si>
+    <t>conclusion matches ground truth only partially; outputs numerical values; outputs reference to systematic review; outputs standard mean difference</t>
+  </si>
+  <si>
+    <t>outputs standard mean difference</t>
+  </si>
+  <si>
+    <t>outputs authors</t>
+  </si>
+  <si>
+    <t>outputs authors; outputs p values; outputs risk ratio; outputs journal name; outputs numerical values; shares similar conclusions to ground truth</t>
+  </si>
+  <si>
+    <t>outputs journal name</t>
+  </si>
+  <si>
+    <t>outputs odds ratio</t>
+  </si>
+  <si>
+    <t>outputs odds ratio; outputs numerical values;  conclusion mismatch (ground truth says no evidence but output says some evidence); mismatch in number of found RCTs</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence); outputs numerical values; outputs full source reference</t>
+  </si>
+  <si>
+    <t>outputs full source reference</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; shares similar conclusions to ground truth; include more recent studies; outputs numerical values; outputs reference to systematic review</t>
+  </si>
+  <si>
+    <t>mismatch in number of found RCTs; conclusion mismatch (ground truth says no evidence but output says some evidence); outputs numerical values</t>
+  </si>
+  <si>
+    <t>outputs reference to systematic review; mismatch in number of found RCTs; include more recent studies; outputs risk ratio; different conclusion to ground truth</t>
+  </si>
+  <si>
+    <t>outputs citations but no details of references</t>
+  </si>
+  <si>
+    <t>outputs irrelevant information/article after relevant text</t>
+  </si>
+  <si>
+    <t>outputs irrelevant information/article after relevant text; conclusion mismatch (ground truth says no evidence but output says some evidence); mismatch in number of found RCTs; outputs numerical values</t>
+  </si>
+  <si>
+    <t>not a systematic review; abstract of a RCT; outputs irrelevant information/article after relevant text; outputs numerical values; outputs citations but no details of references</t>
+  </si>
+  <si>
+    <t>outputs additional relevant but not directly related information</t>
+  </si>
+  <si>
+    <t>outputs recent years</t>
+  </si>
+  <si>
+    <t>clinical trial information</t>
+  </si>
+  <si>
+    <t>search result with RCT titles</t>
+  </si>
+  <si>
+    <t>outputs clinical notes</t>
+  </si>
+  <si>
+    <t>outputs the section for additional/supplemental data; does not provide conclusions; not a systematic review; outputs irrelevant information/article after relevant text; outputs citations but no details of references; outputs authors</t>
+  </si>
+  <si>
+    <t>outputs the section for additional/supplemental data</t>
+  </si>
+  <si>
+    <t>not a systematic review; clinical trial information; outputs citations but no details of references; outputs recent years; does not provide conclusions; incomplete output</t>
+  </si>
+  <si>
+    <t>not a systematic review; clinical trial information; does not provide conclusions; incomplete output</t>
+  </si>
+  <si>
+    <t>outputs irrelevant information/article after relevant text, abtract of a RCT; short output (less than 100 words); outputs numerical values; incomplete output</t>
+  </si>
+  <si>
+    <t>outputs clinical notes; outputs numerical values; shares similar conclusions to ground truth; outputs irrelevant information/article after relevant text; outputs citations but no details of references; incomplete output</t>
+  </si>
+  <si>
+    <t>outputs numerical values; outputs additional relevant but not directly related information; outputs citations but no details of references; outputs reference to systematic review; conclusion mismatch (ground truth says no evidence but output says some evidence); questionable study design; incomplete output</t>
+  </si>
+  <si>
+    <t>not a systematic review; outputs additional relevant but not directly related information; abstract of a RCT; outputs citations but no details of references; incomplete output</t>
+  </si>
+  <si>
+    <t>outputs urls</t>
+  </si>
+  <si>
+    <t>not a systematic review; clinical trial information; does not provide conclusions; living systematic review; outputs recent years; incomplete output; outputs urls</t>
+  </si>
+  <si>
+    <t>not a systematic review; does not provide conclusions; search result with RCT titles; incomplete output; outputs journal name</t>
+  </si>
+  <si>
+    <t>not a systematic review; does not provide conclusions; short output (less than 100 words); incomplete output; outputs journal name</t>
+  </si>
+  <si>
+    <t>outputs very detailed systematic review process</t>
+  </si>
+  <si>
+    <t>does not provide conclusions; outputs irrelevant information/article after relevant text; insufficient text related to topic</t>
+  </si>
+  <si>
+    <t>insufficient text related to topic</t>
+  </si>
+  <si>
+    <t>outputs authors; outputs journal name; outputs p values; outputs numerical values; incomplete output; outputs additional relevant but not directly related information</t>
+  </si>
+  <si>
+    <t>not a systematic review; outputs peer review of systematic review</t>
+  </si>
+  <si>
+    <t>outputs peer review of systematic review</t>
+  </si>
+  <si>
+    <t>outputs different possible treatments</t>
+  </si>
+  <si>
+    <t>outputs citation</t>
+  </si>
+  <si>
+    <t>not a systematic review; does not provide conclusions; outputs rubric for a paper; incomplete output</t>
+  </si>
+  <si>
+    <t>does not provide conclusions; outputs different possible treatments; outputs citation; outputs p values; incomplete output</t>
+  </si>
+  <si>
+    <t>outputs urls; outputs journal name; outputs authors; outputs additional relevant but not directly related information; outputs the section for additional/supplemental data; incomplete output</t>
+  </si>
+  <si>
+    <t>outputs very detailed systematic review process; shared similar conclusions to ground truth; outputs citations but no details of references; incomplete output</t>
+  </si>
+  <si>
+    <t>does not provide conclusions; outputs very detailed systematic review process; incomplete output</t>
+  </si>
+  <si>
+    <t>outputs rubric for a paper</t>
+  </si>
+  <si>
+    <t>outputs authors; outputs emails; outputs numerical values; conclusion mismatch (ground truth says no evidence but output says some evidence); outputs additional relevant but not directly related information; outputs standard mean difference</t>
+  </si>
+  <si>
+    <t>outputs emails</t>
+  </si>
+  <si>
+    <t>not a systematic review; does not provide conclusion; outputs peer review of systematic review; paper acceptance letter; outputs emails; outputs people names; outputs journal name</t>
+  </si>
+  <si>
+    <t>paper acceptance letter</t>
+  </si>
+  <si>
+    <t>outputs people names</t>
+  </si>
+  <si>
+    <t>not a systematic review; does not provide conclusion; outputs peer review of paper; response to peer review comments</t>
+  </si>
+  <si>
+    <t>outputs peer review of paper</t>
+  </si>
+  <si>
+    <t>response to peer review comments</t>
+  </si>
+  <si>
+    <t>does not provide conclusion; incomplete outputs; outputs irrelevant information/article after relevant text; outputs citations but no details of references</t>
+  </si>
+  <si>
+    <t>outputs journal name; not a systematic review; abstract of a RCT; outputs AUC and ROC numbers; outputs p values; outputs numerical values; shares similar conclusions to ground truth</t>
+  </si>
+  <si>
+    <t>incomplete output; does not provide conclusions; outputs very detailed parts of study</t>
+  </si>
+  <si>
+    <t>outputs very detailed parts of study</t>
+  </si>
+  <si>
+    <t>Title: Drugs to reduce bleeding and transfusion in major open vascular or endovascular surgery: a systematic review and network meta‐analysis
+Abstract: Background: Bleeding and blood transfusion are important complications of major vascular surgery, which are associated with increased morbidity and mortality. We conducted a systematic review and network meta-analysis to assess the efficacy and safety of drugs used to reduce blood loss and blood transfusion requirements in major open vascular and endovascular surgery. 
+Methods: We searched the MEDLINE, Embase, and Cochrane Central Register of Controlled Trials databases from inception to June 2018 for randomised controlled trials (RCTs) of drugs to reduce bleeding and blood transfusion in patients undergoing major vascular surgery. The primary outcomes were total blood loss and blood transfusion. Secondary outcomes were blood loss and blood transfusion in specific time periods, haemodynamic stability, haemodynamic instability, and adverse events. We calculated risk ratios (RRs) with 95% confidence intervals (CIs) using a random-effects model. 
+Findings: We included 22 RCTs with 1503 patients (1050 vascular and 453 endovascular). The drugs compared were tranexamic acid (TXA), aprotinin, epsilon aminocaproic acid (EACA), recombinant factor VIIa (rFVIIa), fibrinogen concentrate, and antifibrinolytics (tranexamic acid plus epsilon aminocaproic acid). Compared with placebo, aprotinin reduced total blood loss by 404 mL (95% CI -618 to -191; p=0·0004), and TXA reduced blood loss in the first 24 hours by 1045 mL (95% CI -1414 to -676; p&lt;0·00001). Aprotinin reduced the number of patients receiving a blood transfusion by 44% (95% CI -56 to -31; p&lt;0·00001), and TXA reduced the number of patients receiving a blood transfusion by 26% (95% CI -38 to -14; p&lt;0·00001). There were no significant differences in other secondary outcomes. There was no evidence of small-study effects. 
+Interpretation: Compared with placebo, aprotinin and TXA reduced blood loss and blood transfusion in patients undergoing major vascular surgery. 
+Funding: National Institute for Health Research Health Technology Assessment (NIHR HTA) programme. 
+Declaration of Interest: L.H. and D.P. have received research grants from CSL Behring and Novo Nordisk, and honoraria for consulting from CSL Behring. 
+Ethical Approval: Not required.&lt;/s&gt;</t>
+  </si>
+  <si>
+    <t>Title: Catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients
+Abstract: Objective 
+To explore the best method for inserting peritoneal dialysis catheter in patients with end-stage renal disease (ESRD). 
+Methods 
+From January 2014 to December 2016, 112 ESRD patients with peritoneal dialysis catheter were enrolled in the study, and they were divided into two groups according to the insertion methods, including 60 patients in the conventional group and 52 patients in the ultrasound-guided group. The primary outcomes were the successful rate of catheter insertion and the incidence of complications. The secondary outcomes were the duration of catheter indwelling, the rate of catheter removal and the rate of peritonitis. 
+Results 
+In the conventional group, the successful rate of catheter insertion was 91.7%(55/60), and the incidence of complications was 15.0%(9/60). In the ultrasound-guided group, the successful rate of catheter insertion was 98.1%(51/52), and the incidence of complications was 3.8%(2/52). The successful rate of catheter insertion was higher in the ultrasound-guided group than in the conventional group (P=0.027), and the incidence of complications was lower in the ultrasound-guided group than in the conventional group (P=0.031). The duration of catheter indwelling was longer in the ultrasound-guided group than in the conventional group (P=0.000). The rate of catheter removal was lower in the ultrasound-guided group than in the conventional group (P=0.000). The rate of peritonitis was lower in the ultrasound-guided group than in the conventional group (P=0.015). 
+Conclusions 
+The ultrasound-guided technique is more suitable for peritoneal dialysis catheter insertion than the conventional technique, and it is a safe and effective method for peritoneal dialysis catheter insertion. 
+Key words: 
+Peritoneal dialysis; Catheter; Insertion technique; Ultrasound-guided&lt;/s&gt;</t>
+  </si>
+  <si>
+    <t>galactica_output_title</t>
+  </si>
+  <si>
+    <t># Antifungal therapies for allergic bronchopulmonary aspergillosis in people with cystic fibrosis
+# Oral azole antifungals
+Antifungal therapy is usually given orally. Fluconazole (400 mg/day), itraconazole (400 mg/day), voriconazole (400 mg/day), posaconazole (400 mg/day) and isavuconazole (300 mg/day) are all available oral azole antifungals.
+# Fluconazole
+Fluconazole is the most commonly used azole antifungal for ABPA. The British Thoracic Society recommends fluconazole for maintenance treatment of ABPA []. The American Thoracic Society also recommends fluconazole as a maintenance treatment for ABPA []. The European Respiratory Society/European Cystic Fibrosis Society/European Society for Paediatric Respiratory Medicine/European Society for Clinical Microbiology and Infectious Diseases (ERS/ECFS/ESPEM/ESCMID) consensus document also recommends fluconazole as a maintenance treatment for ABPA [[START_REF] European Cystic Fibrosis Society Standards of Care: Best Practice guidelines., Smyth[END_REF]]. The European Respiratory Society/European Cystic Fibrosis Society/European Society for Paediatric Respiratory Medicine/European Society for Clinical Microbiology and Infectious Diseases (ERS/ECFS/ESPEM/ESCMID) consensus document also recommends fluconazole as a maintenance treatment for ABPA [[START_REF] European Cystic Fibrosis Society Standards of Care: Best Practice guidelines., Smyth[END_REF]]. The British Thoracic Society also recommends fluconazole as a maintenance treatment for ABPA []. The American Thoracic Society also recommends fluconazole as a maintenance treatment for ABPA []. The European Respiratory Society/European Cystic Fibrosis Society/European Society for Paediatric Respiratory Medicine/European Society for Clinical Microbiology and Infectious Diseases (ERS/ECFS/ESPEM/ESCMID) consensus document also recommends fluconazole as a maintenance treatment for ABPA [[START_REF] European Cystic Fibrosis Society Standards of Care: Best Practice guidelines., Smyth[END_REF]].
+In a randomised, placebo-controlled, double-blind study of 30 adults with CF and ABPA, 20 patients were treated with fluconazole (400 mg/day) and 10 patients were treated with placebo [[START_REF] Randomized controlled trial of fluconazole in patients with cystic fibrosis and allergic bronchopulmonary aspergillosis, Knutsen[END_REF]]. After 12 months of treatment, 13 of 20 patients in the fluconazole group were in clinical remission compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 13 of 20 patients were in clinical remission after 12 months of treatment compared with 1 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 20 of 20 patients were in clinical remission after 12 months of treatment compared with 0 of 10 patients in the placebo group (p = 0.004). In the fluconazole group, 1</t>
+  </si>
+  <si>
+    <t># Treatment of dental and orthodontic complications in thalassaemia
+# Dental caries
+The primary cause of dental disease in patients with thalassaemia is a combination of iron overload and anaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF] The oral iron load may be aggravated by poor oral hygiene, which leads to gingivitis and periodontitis. [START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] Oral iron overload is also an important factor in the pathogenesis of dental caries, as it interferes with the metabolism of sugar and leads to the accumulation of plaque and the formation of dental caries. [START_REF] Dental aspects of thalassaemia., Seow[END_REF] In addition, the poor dentition and poor oral hygiene associated with thalassaemia may result in a high incidence of dental caries. [START_REF] Dental aspects of thalassaemia., Seow[END_REF] 
+# Hypoplasia and delayed eruption
+Dental hypoplasia, delayed eruption, and malocclusion are the most common complications of thalassaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] The delayed eruption of teeth in thalassaemia is due to the deficiency of iron in the bone and the soft tissue, which leads to defective bone formation and the formation of a thin alveolar bone. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] The hypoplastic teeth are a result of a deficiency of iron in the odontoblasts, which leads to defective odontogenesis. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] 
+# Dental caries
+In the presence of thalassaemia, the prevalence of dental caries is high. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] In a study by Al-Khateeb et al, [START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] the prevalence of dental caries was found to be 82% in thalassaemia patients.
+# Periodontal disease
+The periodontal condition of thalassaemia patients has been shown to be poorer than that of the general population. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] The poor oral hygiene associated with thalassaemia is the main cause of this problem. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] The poor oral hygiene may also be due to the consumption of soft, sticky, and spicy foods by patients with thalassaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Treatment of dental and orthodontic complications in thalassaemia
+The dental treatment of thalassaemia patients is difficult because of the poor oral hygiene associated with thalassaemia, the need for frequent blood transfusions, and the high prevalence of dental caries. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] Tooth extractions should be avoided, as they increase the risk of infection, and dental implants may be contraindicated in patients with thalassaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] Dental prophylaxis, scaling, and root planing are usually necessary. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] In cases of dental caries, the patients should be referred to a dentist for appropriate treatment. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF] The use of fluoride toothpaste, a sugar-free diet, and regular dental visits are necessary to improve the dental health of patients with thalassaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Gingivitis and periodontitis
+The incidence of gingivitis and periodontitis in patients with thalassaemia is higher than that in the general population. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] The gingivitis is mainly due to poor oral hygiene. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] The periodontitis may be aggravated by the poor dentition associated with thalassaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Treatment of dental and orthodontic complications in thalassaemia
+The treatment of gingivitis and periodontitis is usually conservative and requires a combination of plaque control and the use of anti-inflammatory agents. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] Periodontal surgery may be required in cases of severe periodontitis. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Dental caries
+The treatment of dental caries in patients with thalassaemia is usually conservative and includes the use of topical fluoride preparations, dietary counseling, and the application of fissure sealants. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] In cases of severe caries, the patients should be referred to a dentist for appropriate treatment. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Gingivitis and periodontitis
+The treatment of gingivitis and periodontitis is usually conservative and includes the use of anti-inflammatory agents, and in cases of severe periodontitis, periodontal surgery may be required. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Orthodontic treatment
+The orthodontic treatment of patients with thalassaemia is usually difficult. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] The oral iron load and the poor dentition associated with thalassaemia may aggravate the difficulties in the orthodontic treatment of patients with thalassaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Treatment of dental and orthodontic complications in thalassaemia
+The orthodontic treatment of patients with thalassaemia should be carried out by an orthodontist who is experienced in the treatment of patients with thalassaemia. [START_REF] Dental aspects of thalassaemia., Seow[END_REF][START_REF] Oral health status of patients with thalassemia major and intermedia., Al-Khateeb[END_REF][START_REF] Oral health status of patients with thalassaemia major and intermedia., Al-Khateeb[END_REF] 
+# Gingivitis and periodontitis
+The treatment of gingivitis and periodontitis is usually conservative and includes the use of anti-inflammatory agents, and in cases of severe periodontitis, periodontal surgery may be required. [START_REF] Dental aspects of</t>
+  </si>
+  <si>
+    <t># Neoadjuvant treatment for stage III and IV cutaneous melanoma
+A total of 25 studies, including 2396 patients, reported the response to neoadjuvant treatment. The overall response rate (ORR) was 32% (95% CI 27–38%) (Figure 4A). The pooled ORR for stage III melanoma was 34% (95% CI 25–43%) and for stage IV melanoma 32% (95% CI 23–41%). The pooled ORR for BRAFV600E mutant melanoma was 38% (95% CI 32–44%) and for BRAF wild‐type melanoma 28% (95% CI 22–35%).
+Figure 4: A, Forest plot showing the overall response rate to neoadjuvant treatment. B, Forest plot showing the overall survival for neoadjuvant treatment
+The overall survival for neoadjuvant treatment was reported in 16 studies including 1271 patients. The overall survival was 76% (95% CI 69–83%) at 1 year, 63% (95% CI 54–72%) at 2 years, and 50% (95% CI 38–61%) at 3 years (Figure 4B).
+# 4 DISCUSSION
+This systematic review and meta‐analysis shows that neoadjuvant therapy is a feasible option for patients with locally advanced melanoma. Neoadjuvant treatment has been shown to be safe with an acceptable toxicity profile, and the treatment resulted in an ORR of 32%. In this meta‐analysis, the pooled ORR for stage III melanoma was 34% and for stage IV melanoma 32%.
+This meta‐analysis was conducted in order to provide an up‐to‐date summary of the available evidence regarding neoadjuvant therapy for locally advanced melanoma. The results are in line with a previous meta‐analysis by Chen et al, who showed an ORR of 32% for neoadjuvant therapy.14 In addition, our study shows a pooled overall survival of 76% at 1 year, 63% at 2 years, and 50% at 3 years. The pooled overall survival for stage III melanoma was 77% at 1 year, 63% at 2 years, and 52% at 3 years, and for stage IV melanoma 75% at 1 year, 59% at 2 years, and 47% at 3 years. The results are also comparable to those of a recently published systematic review and meta‐analysis by Phan et al, which included 15 studies with a total of 360 patients. The ORR was 31% (95% CI 26–37%) and the overall survival was 82% at 1 year, 73% at 2 years, and 62% at 3 years.15
+Although the evidence regarding the use of neoadjuvant therapy for locally advanced melanoma is promising, it is still limited. There are only 25 studies included in this meta‐analysis, and the majority of these are small retrospective studies with a total of 1966 patients. Therefore, more prospective studies are needed to further evaluate the efficacy and safety of neoadjuvant therapy for locally advanced melanoma.
+In addition, the results from this meta‐analysis need to be interpreted in the context of the heterogeneity of the included studies. The studies varied in terms of treatment regimen, the number of cycles of treatment, and the response assessment. The treatment regimens varied between the studies, and some studies used a combination of systemic therapy and local therapy (eg, radiotherapy and surgery). Some studies included patients with locally advanced melanoma, whereas others included patients with stage III or IV melanoma. The heterogeneity of the studies is also reflected in the results, as some studies reported a response rate of 50% or more, whereas others reported a response rate of 20% or less. In addition, the studies included patients with both BRAF mutant and BRAF wild‐type melanoma, and the response rates varied between the different studies.
+In addition, the heterogeneity of the studies is also reflected in the results regarding the overall survival, as some studies reported a survival of 80% at 1 year, whereas others reported a survival of 60% or less. The results from the included studies should therefore be interpreted with caution.
+A major limitation of this meta‐analysis is the fact that most of the studies included in the analysis are retrospective. In addition, the majority of the studies are small studies, with only 2 studies including more than 100 patients. A total of 10 studies included less than 10 patients. The included studies also vary in terms of treatment regimens, number of cycles, and response assessment.
+# 5 CONCLUSION
+In conclusion, this systematic review and meta‐analysis shows that neoadjuvant therapy is a feasible option for patients with locally advanced melanoma. The treatment is safe with an acceptable toxicity profile, and the results show an ORR of 32%. The results should be interpreted with caution due to the heterogeneity of the included studies. More prospective studies are needed to further evaluate the efficacy and safety of neoadjuvant therapy for locally advanced melanoma.
+# CONFLICT OF INTEREST
+None.
+&lt;/s&gt;</t>
+  </si>
+  <si>
+    <t># Catheter insertion techniques for improving catheter function and clinical outcomes in peritoneal dialysis patients
+Catheter insertion techniques may play an important role in improving catheter function and clinical outcomes in peritoneal dialysis (PD) patients. We reviewed the current literature and summarized the existing evidence regarding the effects of catheter insertion techniques on catheter function and clinical outcomes in PD patients.
+# Methods
+We conducted a systematic literature search of PubMed and EMBASE databases from inception to April 2018. The search strategy was: (((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((</t>
+  </si>
+  <si>
+    <t># Vitamin D for the management of asthma
+Vitamin D supplementation may improve the clinical course of asthma. A randomized, placebo-controlled trial of vitamin D supplementation for children with asthma reported a significant improvement in forced expiratory volume in 1 s (FEV[START_SUB]1[END_SUB]) (p = 0.001) and forced vital capacity (FVC) (p = 0.002) in the group receiving 50,000 IU vitamin D3 per week for 1 year.[START_SUP]33[END_SUP] Another randomized, double-blind, placebo-controlled trial in children with asthma reported a significant improvement in FEV[START_SUB]1[END_SUB] in the group receiving 400 IU vitamin D3 per day for 6 months.[START_SUP]34[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in children with asthma reported that 2000 IU vitamin D3 per day for 6 months significantly improved the FEV[START_SUB]1[END_SUB], FVC, and peak expiratory flow rate.[START_SUP]35[END_SUP] In contrast, a randomized, double-blind, placebo-controlled trial of vitamin D supplementation in children with asthma reported no significant difference in FEV[START_SUB]1[END_SUB], FVC, or asthma control between the vitamin D3 and placebo groups.[START_SUP]36[END_SUP] These inconsistent findings may be related to the dose of vitamin D supplementation.[START_SUP]37[END_SUP] The dose of vitamin D supplementation used in the study by Bagnasco et al.[START_SUP]36[END_SUP] was higher than that used in the other studies.[START_SUP]33[END_SUP],[START_SUP]34[END_SUP],[START_SUP]35[END_SUP]
+The effect of vitamin D supplementation on the clinical course of asthma has also been examined in adult patients. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in adults with asthma reported that vitamin D supplementation improved asthma symptoms, reduced the use of inhaled corticosteroids, and increased serum 25(OH)D concentrations.[START_SUP]38[END_SUP] In contrast, a randomized, double-blind, placebo-controlled trial of vitamin D supplementation in adults with asthma reported that vitamin D supplementation did not significantly improve asthma symptoms or lung function.[START_SUP]39[END_SUP] These inconsistent findings may be related to the dose of vitamin D supplementation.[START_SUP]37[END_SUP] The dose of vitamin D supplementation used in the study by Bagnasco et al.[START_SUP]39[END_SUP] was higher than that used in the other studies.[START_SUP]38[END_SUP],[START_SUP]40[END_SUP]
+# Vitamin D and childhood obesity
+Obesity is associated with a higher risk of asthma and allergic diseases.[START_SUP]41[END_SUP],[START_SUP]42[END_SUP] A systematic review of 13 randomized controlled trials reported that vitamin D supplementation was associated with a significant decrease in body weight, body mass index, and waist circumference.[START_SUP]43[END_SUP] Vitamin D deficiency is also associated with childhood obesity.[START_SUP]44[END_SUP],[START_SUP]45[END_SUP] A cross-sectional study of 1126 children aged 11–18 years reported that 25(OH)D concentrations were significantly lower in obese children than in non-obese children.[START_SUP]46[END_SUP] A cross-sectional study of 1013 children aged 7–11 years reported that 25(OH)D concentrations were significantly lower in obese children than in non-obese children.[START_SUP]47[END_SUP] A cross-sectional study of 4026 children aged 6–11 years reported that 25(OH)D concentrations were significantly lower in obese children than in non-obese children.[START_SUP]48[END_SUP] A cross-sectional study of 2046 children aged 6–11 years reported that 25(OH)D concentrations were significantly lower in obese children than in non-obese children.[START_SUP]49[END_SUP] A cross-sectional study of 1112 children aged 6–11 years reported that 25(OH)D concentrations were significantly lower in obese children than in non-obese children.[START_SUP]50[END_SUP]
+A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 32 obese adolescents aged 13–19 years reported that vitamin D supplementation significantly reduced body weight, body mass index, and waist circumference.[START_SUP]51[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 55 obese adolescents aged 13–19 years reported that vitamin D supplementation significantly reduced body weight and body mass index.[START_SUP]52[END_SUP]
+# Vitamin D and asthma and childhood obesity
+Vitamin D supplementation may improve the clinical course of asthma in children with obesity. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 50 children with obesity and asthma reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]53[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 50 children with obesity and asthma reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]54[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with obesity
+Vitamin D supplementation may improve the clinical course of asthma in children with obesity. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 50 children with obesity and asthma reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]53[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 50 children with obesity and asthma reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]54[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with asthma
+Vitamin D supplementation may improve the clinical course of asthma in children with asthma. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]55[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]56[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with asthma and obesity
+Vitamin D supplementation may improve the clinical course of asthma in children with asthma and obesity. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and obesity reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]55[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and obesity reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]56[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with asthma and vitamin D deficiency
+Vitamin D supplementation may improve the clinical course of asthma in children with asthma and vitamin D deficiency. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D deficiency reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]55[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D deficiency reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]56[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with asthma and vitamin D insufficiency
+Vitamin D supplementation may improve the clinical course of asthma in children with asthma and vitamin D insufficiency. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D insufficiency reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]55[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D insufficiency reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]56[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with asthma and vitamin D sufficiency
+Vitamin D supplementation may improve the clinical course of asthma in children with asthma and vitamin D sufficiency. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D sufficiency reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]55[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D sufficiency reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]56[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with asthma and vitamin D insufficiency and obesity
+Vitamin D supplementation may improve the clinical course of asthma in children with asthma and vitamin D insufficiency and obesity. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D insufficiency and obesity reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]55[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D insufficiency and obesity reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]56[END_SUP]
+# Vitamin D and asthma and vitamin D supplementation in children with asthma and vitamin D sufficiency and obesity
+Vitamin D supplementation may improve the clinical course of asthma in children with asthma and vitamin D sufficiency and obesity. A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D sufficiency and obesity reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]55[END_SUP] A randomized, double-blind, placebo-controlled trial of vitamin D supplementation in 35 children with asthma and vitamin D sufficiency and obesity reported that vitamin D supplementation significantly improved asthma symptoms and lung function.[START_SUP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Family‐centred interventions for Indigenous early childhood well‐being by primary healthcare services
+Indigenous early childhood well‐being has been defined as ‘the development of children and their families from conception to age five’ (Australian Institute of Health and Welfare, 2014). Family‐centred approaches are a key strategy to improve child and family well‐being, and are supported by a number of international policies and guidelines (Australian Institute of Health and Welfare, 2014; Department of Health, 2012; Health and Medical Research Fund, 2015; Department of Health and Ageing, 2014). In Australia, the Department of Health and Ageing (2014) has identified the development of family‐centred approaches as a key strategy to improve the well‐being of Indigenous children.
+In Australia, family‐centred care is supported by policies, guidelines and a number of primary healthcare interventions, including the following:
+* The Health Care for Aboriginal and Torres Strait Islander Children: A Framework for Action (2006)
+* The National Aboriginal and Torres Strait Islander Health Plan (2012)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2012–2016 (2012)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2017–2021 (2017)
+* The Health and Wellbeing Framework for Aboriginal and Torres Strait Islander Children (2018)
+* The Health and Wellbeing Framework for Aboriginal and Torres Strait Islander Young People (2018)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2021–2026 (2021)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2027–2032 (2027)
+* The Health and Wellbeing Framework for Aboriginal and Torres Strait Islander Adults (2019)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2033–2038 (2033)
+* The Health and Wellbeing Framework for Aboriginal and Torres Strait Islander Older People (2019)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2039–2044 (2039)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2045–2050 (2045)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2051–2056 (2051)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2057–2062 (2057)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2063–2068 (2063)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2069–2074 (2069)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2075–2080 (2075)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2081–2086 (2081)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2087–2092 (2087)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2093–2098 (2093)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2099–2104 (2099)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2105–2110 (2105)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2111–2116 (2111)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2117–2122 (2117)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2123–2128 (2123)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2129–2134 (2129)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2135–2140 (2135)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2141–2146 (2141)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2147–2152 (2147)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2153–2158 (2153)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2159–2164 (2159)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2165–2170 (2165)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2171–2176 (2171)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2177–2182 (2177)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2183–2188 (2183)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2189–2194 (2189)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2195–2199 (2195)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2200–2205 (2200)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2206–2211 (2206)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2212–2217 (2212)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2218–2223 (2218)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2224–2229 (2224)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2230–2235 (2230)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2236–2241 (2236)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2242–2247 (2242)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2248–2253 (2248)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2254–2259 (2254)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2260–2265 (2260)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2266–2271 (2266)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2272–2277 (2272)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2278–2283 (2278)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2284–2289 (2284)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2290–2295 (2290)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2296–2301 (2296)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2302–2307 (2302)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2308–2313 (2308)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2314–2319 (2314)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2320–2325 (2320)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2326–2331 (2326)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2332–2337 (2332)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2338–2343 (2338)
+* The National Aboriginal and Torres Strait Islander Health Plan: 2344–2349 </t>
+  </si>
+  <si>
+    <t># Single versus multiple visits for endodontic treatment of permanent teeth
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit
+# Multiple visits
+# Single visit</t>
+  </si>
+  <si>
+    <t># Behavioural and cognitive‐behavioural interventions for outwardly directed aggressive behaviour in people with intellectual disabilities
+# Behavioural interventions
+# General principles
+Behavioural interventions involve direct instruction of target behaviours and/or modification of the environment to change target behaviours (Bronfenbrenner &amp; Morris, 2006). In people with intellectual disabilities, behaviour interventions often take the form of differential reinforcement of appropriate behaviour (DRAB), also known as differential reinforcement of appropriate behaviour with access (DRA) (American Association on Mental Retardation, 2008). DRAB is a direct instruction technique, in which an individual with intellectual disabilities is given a stimulus or stimulus combination (a response) that is contingent on appropriate behaviour, and the individual is then given a reward (e.g., access to a preferred stimulus) contingent on that same behaviour. For example, if the person with intellectual disabilities responds by saying ‘I want to go to the toilet’, a staff member will then give the person access to the toilet. The person is then given a token or a small reward (e.g., a pen) for each toilet visit (American Association on Mental Retardation, 2008). This is a type of contingency management (CM) intervention.
+DRAB is a common intervention for people with intellectual disabilities. In a review of the literature, Crespo and colleagues (2013) found that DRAB was effective in reducing challenging behaviour, and that a combination of DRAB and other interventions (e.g., cognitive‐behavioural therapy, applied behaviour analysis) was more effective than DRAB alone. Similarly, a systematic review of the literature found that DRAB was effective in reducing challenging behaviour (American Association on Mental Retardation, 2008).
+# Differential reinforcement of inappropriate behaviour (DRIB)
+Differential reinforcement of inappropriate behaviour (DRIB) is a type of behavioural intervention that involves reinforcing inappropriate behaviour (e.g., verbal aggression) and punishing appropriate behaviour (e.g., self‐care; (American Association on Mental Retardation, 2008). The rationale behind this approach is that appropriate behaviour will be inhibited by the presence of an aversive stimulus (e.g., a bell). If the individual with intellectual disabilities performs the inappropriate behaviour, the aversive stimulus is removed (i.e., the bell is turned off), which allows the appropriate behaviour to be performed (i.e., the individual with intellectual disabilities is allowed to do something that is important to them).
+DRIB is also known as differential reinforcement of inappropriate behaviour with access (DRA) (American Association on Mental Retardation, 2008). DRIB is often used in combination with other interventions (e.g., cognitive‐behavioural therapy, applied behaviour analysis). A review of the literature found that DRIB was effective in reducing challenging behaviour (Crespo et al., 2013).
+# Behavioural interventions for aggressive behaviour in people with intellectual disabilities
+In the behavioural literature, the term ‘aggression’ refers to behaviour that is directed towards an individual with intellectual disabilities or that is aimed at causing the individual to inflict pain or harm themselves (American Association on Mental Retardation, 2008). In the literature on behavioural interventions for aggressive behaviour, ‘aggression’ is often divided into three categories: verbal aggression, physical aggression, and property aggression (American Association on Mental Retardation, 2008). In this review, we have used the term ‘aggression’ to refer to behaviour that is directed towards an individual with intellectual disabilities or that is aimed at causing the individual to inflict pain or harm themselves.
+# Verbal aggression
+Verbal aggression is behaviour directed towards an individual with intellectual disabilities that is accompanied by vocalisations (e.g., shouting, screaming). In a review of the literature, Crespo and colleagues (2013) found that verbal aggression was the most common type of challenging behaviour targeted by interventions for people with intellectual disabilities. In a systematic review of the literature, the authors found that DRAB was effective in reducing verbal aggression in people with intellectual disabilities (American Association on Mental Retardation, 2008).
+# Physical aggression
+Physical aggression is behaviour directed towards an individual with intellectual disabilities that is accompanied by physical actions (e.g., hitting, kicking). In a review of the literature, Crespo and colleagues (2013) found that physical aggression was the second most common type of challenging behaviour targeted by interventions for people with intellectual disabilities. In a systematic review of the literature, the authors found that DRAB was effective in reducing physical aggression in people with intellectual disabilities (American Association on Mental Retardation, 2008).
+# Property aggression
+Property aggression is behaviour directed towards an individual with intellectual disabilities that is accompanied by destruction of property (e.g., destruction of furniture, damaging of clothing). In a review of the literature, Crespo and colleagues (2013) found that property aggression was the third most common type of challenging behaviour targeted by interventions for people with intellectual disabilities. In a systematic review of the literature, the authors found that DRAB was effective in reducing property aggression in people with intellectual disabilities (American Association on Mental Retardation, 2008).
+# Behavioural interventions for property aggression in people with intellectual disabilities
+Behavioural interventions for property aggression in people with intellectual disabilities can be divided into three categories: direct instruction (DI), applied behaviour analysis (ABA), and cognitive‐behavioural therapy (CBT).
+# Direct instruction
+DI is a type of behavioural intervention that involves teaching the individual with intellectual disabilities how to respond to specific events that cause the individual to engage in property aggression (American Association on Mental Retardation, 2008). DI involves teaching the individual with intellectual disabilities how to respond to the cues that trigger property aggression (e.g., when they are in a situation that requires them to do something that is important to them, they should respond appropriately; (American Association on Mental Retardation, 2008). The rationale behind DI is that the individual with intellectual disabilities will be able to perform the appropriate behaviour without having to receive the aversive stimulus (e.g., a bell).
+In a systematic review of the literature, the authors found that DI was effective in reducing property aggression in people with intellectual disabilities (American Association on Mental Retardation, 2008).
+# Applied behaviour analysis
+ABA is a type of behavioural intervention that involves identifying the specific behaviours that cause the individual to engage in property aggression and then teaching the individual with intellectual disabilities how to perform these behaviours in a non‐aversive way (American Association on Mental Retardation, 2008). The rationale behind ABA is that the individual with intellectual disabilities will be able to perform the appropriate behaviour without having to receive the aversive stimulus (e.g., a bell).
+In a systematic review of the literature, the authors found that ABA was effective in reducing property aggression in people with intellectual disabilities (American Association on Mental Retardation, 2008).
+# Cognitive‐behavioural therapy
+CBT is a type of behavioural intervention that involves identifying the specific behaviours that cause the individual to engage in property aggression and then teaching the individual with intellectual disabilities how to respond appropriately to these behaviours (American Association on Mental Retardation, 2008). The rationale behind CBT is that the individual with intellectual disabilities will be able to perform the appropriate behaviour without having to receive the aversive stimulus (e.g., a bell).
+In a systematic review of the literature, the authors found that CBT was effective in reducing property aggression in people with intellectual disabilities (American Association on Mental Retardation, 2008).
+# Behavioural interventions for verbal aggression in people with intellectual disabilities
+Behavioural interventions for verbal aggression in people with intellectual disabilities can be divided into three categories: direct instruction (DI), applied behaviour analysis (ABA), and cognitive‐behavioural therapy (CBT).
+# Direct instruction
+DI is a type of behavioural intervention that involves teaching the individual with intellectual disabilities how to respond to specific events that cause the individual to engage in verbal aggression (American Association on Mental Retardation, 2008). DI involves teaching the individual with intellectual disabilities how to respond to the cues that trigger verbal aggression (e.g., when they are in a situation that requires them to do something that is important to them, they should respond appropriately; (American Association on Mental Retardation, 2008). The rationale behind DI is that the individual with intellectual disabilities will be able to perform the appropriate behaviour without having to receive the aversive stimulus (e.g., a bell).
+In a systematic review of the literature, the authors found that DI was effective in reducing verbal aggression in people with intellectual disabilities (American Association on Mental Retardation, 2008).
+# Applied behaviour analysis
+ABA is a type of behavioural intervention that involves identifying the specific behaviours that cause the individual to engage in verbal aggression and then teaching the individual with intellectual disabilities how to respond appropriately</t>
+  </si>
+  <si>
+    <t># Brain natriuretic peptide and N‐terminal brain natriuretic peptide for the diagnosis of haemodynamically significant patent ductus arteriosus in preterm neonates
+# Prabhu Vadlamudi, Manisha Bhalala, Sreenivas R. Nimmagadda, Rajeshwari V. S. Seshiah, Subhashini B. Nimmagadda, Vijayashankar V. S. Seshiah
+# Department of Pediatrics, Dr. D. Y. Patil Medical College and Research Centre, Pimpri, Pune, India
+Dear Editor,
+The patent ductus arteriosus (PDA) is one of the most common congenital heart defects in neonates, occurring in 2–3% of all live births.1 Early diagnosis and treatment of PDA are of utmost importance for a favourable outcome.2 A high index of suspicion for PDA is needed in the first 24 hours of life. The most widely used screening tool is the assessment of the clinical signs of respiratory distress. A score of &gt;3 on the modified clinical score (MCS) is considered to be suggestive of a haemodynamically significant PDA.2
+In preterm neonates, the use of serum or plasma levels of brain natriuretic peptide (BNP) and N‐terminal brain natriuretic peptide (NT‐proBNP) is also used for the diagnosis of PDA. The aim of our study was to evaluate the efficacy of serum levels of BNP and NT‐proBNP in predicting a haemodynamically significant PDA in preterm neonates.
+The study was conducted in the Department of Pediatrics, Dr. D. Y. Patil Medical College and Research Centre, Pimpri, Pune, India. The study included all neonates with a gestational age &lt;37 weeks and birth weight &lt;2.5 kg, who were admitted to the Neonatal Intensive Care Unit (NICU) for the treatment of a clinically suspected PDA. Neonates with congenital heart disease or other congenital anomalies, those who were intubated or ventilated, those with an open fontanelle, those with clinical signs of infection or septicemia, and those who had received inotropes or inotropes and/or surfactant within the previous 24 hours were excluded from the study.
+After obtaining informed consent from the parents, a detailed history was taken and a thorough physical examination was performed. A clinical score (CS) was calculated as per the modified clinical score (MCS).2 Echocardiography was performed to confirm the diagnosis of PDA and to determine its haemodynamic significance. The diagnosis of a PDA was made if the left atrium to aortic root ratio (LA/Ao) was &gt;1.4 or if the left atrium to left ventricular end‐diastolic dimension ratio (LA/LVEDD) was &gt;1.5. A haemodynamically significant PDA was diagnosed if the maximum velocity across the ductus arteriosus (DA) was &gt;2.5 m/s.3
+Blood samples were collected at the time of diagnosis of PDA and within 24 hours of the initiation of treatment. Serum levels of BNP and NT‐proBNP were estimated using the Elecsys proBNP II (Roche Diagnostics GmbH, Mannheim, Germany) and Elecsys proBNP II (Roche Diagnostics GmbH, Mannheim, Germany) kits, respectively.
+A total of 60 neonates were included in the study. The mean gestational age and birth weight were 29.5 ± 2.8 weeks and 1241 ± 436 g, respectively. The mean clinical score was 6.6 ± 1.6. Echocardiography was performed in all the neonates and the diagnosis of PDA was confirmed in 48 (80%) neonates. The diagnosis of PDA was made on the basis of the left atrium to aortic root ratio (LA/Ao) in 44 (73.3%) neonates and on the basis of the left atrium to left ventricular end‐diastolic dimension ratio (LA/LVEDD) in 4 (6.6%) neonates. A haemodynamically significant PDA was diagnosed in 28 (58.3%) neonates. The mean serum levels of BNP and NT‐proBNP were significantly higher in the neonates with a haemodynamically significant PDA compared with the neonates with a non‐significant PDA (218.7 ± 120.9 vs. 104.5 ± 54.5 pg/mL; P = 0.002 and 427.9 ± 154.9 vs. 214.8 ± 101.3 pg/mL; P = 0.002, respectively).
+The serum levels of BNP and NT‐proBNP were significantly higher in the neonates with a haemodynamically significant PDA. The serum levels of BNP and NT‐proBNP can be used to predict a haemodynamically significant PDA in preterm neonates.
+# Authorship
+PVV: conception and design, acquisition of data, analysis and interpretation of data, drafting the article, final approval of the version to be published, agreement to be accountable for all aspects of the work. MB: conception and design, acquisition of data, analysis and interpretation of data, drafting the article, final approval of the version to be published, agreement to be accountable for all aspects of the work. SN: conception and design, acquisition of data, analysis and interpretation of data, drafting the article, final approval of the version to be published, agreement to be accountable for all aspects of the work. RVS: conception and design, acquisition of data, analysis and interpretation of data, drafting the article, final approval of the version to be published, agreement to be accountable for all aspects of the work. SSBN: conception and design, acquisition of data, analysis and interpretation of data, drafting the article, final approval of the version to be published, agreement to be accountable for all aspects of the work. VVS: conception and design, acquisition of data, analysis and interpretation of data, drafting the article, final approval of the version to be published, agreement to be accountable for all aspects of the work.
+# Conflict of Interest
+None declared.
+&lt;/s&gt;</t>
+  </si>
+  <si>
+    <t># Tranexamic acid for the reduction of bleeding during functional endoscopic sinus surgery
+In this study, we found that tranexamic acid reduced bleeding during FESS. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 2 studies[START_REF] Topical application of tranexamic acid in functional endoscopic sinus surgery: a prospective randomized study, Alimi[END_REF],[START_REF] Topical tranexamic acid in endoscopic sinus surgery, Alimi[END_REF] involving 165 patients and found that tranexamic acid significantly reduced bleeding during FESS.
+# Tranexamic acid for the reduction of bleeding during septoplasty
+The results of the present study are consistent with those of a study by Cinar et al.,[START_REF] The effect of tranexamic acid on postoperative bleeding in septoplasty, Cinar[END_REF] which showed that tranexamic acid reduced bleeding during septoplasty. We also conducted a meta-analysis of 2 studies[START_REF] Tranexamic acid in septoplasty: a double-blind, randomized controlled trial, Dogan[END_REF],[START_REF] The effect of tranexamic acid on postoperative bleeding in septoplasty, Cinar[END_REF] involving 154 patients and found that tranexamic acid significantly reduced bleeding during septoplasty.
+# Tranexamic acid for the reduction of bleeding during nasal bone fracture
+In this study, we found that tranexamic acid reduced bleeding during nasal bone fracture. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 3 studies[START_REF] Topical tranexamic acid in nasal bone fracture repair: a prospective, double-blind, randomized, placebo-controlled trial, Dogan[END_REF],[START_REF] Tranexamic acid reduces bleeding in nasal fracture repair: a randomized controlled trial, Ozturk[END_REF],[START_REF] Topical tranexamic acid reduces bleeding in nasal bone fracture repair: a randomized controlled trial, Ozturk[END_REF] involving 250 patients and found that tranexamic acid significantly reduced bleeding during nasal bone fracture.
+# Tranexamic acid for the reduction of bleeding during septorhinoplasty
+The results of the present study are consistent with those of a study by Eroglu et al.,[START_REF] Tranexamic acid decreases blood loss and transfusion requirements in septorhinoplasty, Eroglu[END_REF] which showed that tranexamic acid reduced bleeding during septorhinoplasty. We also conducted a meta-analysis of 3 studies[START_REF] Tranexamic acid decreases blood loss and transfusion requirements in septorhinoplasty, Eroglu[END_REF],[START_REF] Tranexamic acid in septorhinoplasty: a double-blind, randomized controlled trial, Dogan[END_REF],[START_REF] The effect of tranexamic acid on postoperative bleeding in septorhinoplasty, Cinar[END_REF] involving 250 patients and found that tranexamic acid significantly reduced bleeding during septorhinoplasty.
+# Tranexamic acid for the reduction of bleeding during rhinoplasty
+In this study, we found that tranexamic acid reduced bleeding during rhinoplasty. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 3 studies[START_REF] Topical tranexamic acid in nasal bone fracture repair: a prospective, double-blind, randomized, placebo-controlled trial, Dogan[END_REF],[START_REF] Tranexamic acid in septorhinoplasty: a double-blind, randomized controlled trial, Dogan[END_REF],[START_REF] Topical tranexamic acid reduces bleeding in nasal bone fracture repair: a randomized controlled trial, Ozturk[END_REF] involving 250 patients and found that tranexamic acid significantly reduced bleeding during rhinoplasty.
+# Tranexamic acid for the reduction of bleeding during septoplasty and nasal bone fracture
+In this study, we found that tranexamic acid reduced bleeding during septoplasty and nasal bone fracture. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 2 studies[START_REF] Topical application of tranexamic acid in functional endoscopic sinus surgery: a prospective randomized study, Alimi[END_REF],[START_REF] Topical tranexamic acid in endoscopic sinus surgery, Alimi[END_REF] involving 165 patients and found that tranexamic acid significantly reduced bleeding during septoplasty and nasal bone fracture.
+# Tranexamic acid for the reduction of bleeding during septoplasty and rhinoplasty
+In this study, we found that tranexamic acid reduced bleeding during septoplasty and rhinoplasty. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 2 studies[START_REF] Tranexamic acid decreases blood loss and transfusion requirements in septorhinoplasty, Eroglu[END_REF],[START_REF] The effect of tranexamic acid on postoperative bleeding in septorhinoplasty, Cinar[END_REF] involving 154 patients and found that tranexamic acid significantly reduced bleeding during septoplasty and rhinoplasty.
+# Tranexamic acid for the reduction of bleeding during nasal bone fracture and rhinoplasty
+In this study, we found that tranexamic acid reduced bleeding during nasal bone fracture and rhinoplasty. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 2 studies[START_REF] Topical application of tranexamic acid in functional endoscopic sinus surgery: a prospective randomized study, Alimi[END_REF],[START_REF] Topical tranexamic acid in endoscopic sinus surgery, Alimi[END_REF] involving 165 patients and found that tranexamic acid significantly reduced bleeding during nasal bone fracture and rhinoplasty.
+# Tranexamic acid for the reduction of bleeding during septoplasty, nasal bone fracture, and rhinoplasty
+In this study, we found that tranexamic acid reduced bleeding during septoplasty, nasal bone fracture, and rhinoplasty. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 2 studies[START_REF] Topical application of tranexamic acid in functional endoscopic sinus surgery: a prospective randomized study, Alimi[END_REF],[START_REF] Topical tranexamic acid in endoscopic sinus surgery, Alimi[END_REF] involving 165 patients and found that tranexamic acid significantly reduced bleeding during septoplasty, nasal bone fracture, and rhinoplasty.
+# Tranexamic acid for the reduction of bleeding during septoplasty, nasal bone fracture, and rhinoplasty and FESS
+In this study, we found that tranexamic acid reduced bleeding during septoplasty, nasal bone fracture, and rhinoplasty and FESS. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 2 studies[START_REF] Topical application of tranexamic acid in functional endoscopic sinus surgery: a prospective randomized study, Alimi[END_REF],[START_REF] Topical tranexamic acid in endoscopic sinus surgery, Alimi[END_REF] involving 165 patients and found that tranexamic acid significantly reduced bleeding during septoplasty, nasal bone fracture, and rhinoplasty and FESS.
+# Tranexamic acid for the reduction of bleeding during septoplasty, nasal bone fracture, rhinoplasty, and FESS and septorhinoplasty
+In this study, we found that tranexamic acid reduced bleeding during septoplasty, nasal bone fracture, rhinoplasty, and FESS and septorhinoplasty. In a systematic review of studies involving patients with epistaxis, tranexamic acid was found to be effective for the reduction of bleeding.[START_REF] Topical tranexamic acid for epistaxis: a systematic review, Chan[END_REF] However, the results of our study are contrary to those of the review, in which only a few studies were included. We conducted a meta-analysis of 2 studies[START_REF] Tranexamic acid decreases blood loss and transfusion requirements in septorhinoplasty, Eroglu[END_REF],[START_REF] The effect of tranexamic acid</t>
+  </si>
+  <si>
+    <t># Medication review in hospitalised patients to reduce morbidity and mortality
+# Clinical question
+Can the use of medication review in hospitalised patients improve clinical outcomes?
+# Summary of evidence
+In 2011, the National Institute for Health and Care Excellence (NICE) issued a quality standard on the use of medication review in hospitals []. The quality standard recommends that ‘Medication review is undertaken by a suitably qualified health professional and should be undertaken to assess whether a patient’s medication needs are being met and to make recommendations for change’.
+This quality standard was updated in 2015 [] and a systematic review of the evidence was commissioned by the NICE evidence review group (ERG) to inform the update. The systematic review identified 15 randomised controlled trials of medication review that included more than 2000 patients [].
+The review found that medication review led to significant improvements in several clinical outcomes including: reduction in hospital readmissions; reduced rates of hospital admissions; reduced hospital length of stay; and improved clinical outcomes in patients with chronic kidney disease, diabetes, chronic obstructive pulmonary disease (COPD) and those with polypharmacy. However, there was no evidence of a reduction in all-cause mortality. The review concluded that medication review can improve clinical outcomes in hospitalised patients but further research is needed to determine the impact of medication review on patient and health service outcomes, and to identify which patients are most likely to benefit from medication review.
+The systematic review also highlighted that there was a lack of consistent terminology and definitions used in the studies included in the review. The authors recommended that future studies use standardised terminology and definitions, and that future research focus on evaluating the impact of medication review on patient outcomes and health service outcomes.
+# Impact of medication review on medication-related problems
+# Clinical question
+What is the impact of medication review on the prevalence of medication-related problems?
+# Summary of evidence
+The systematic review identified 20 studies that reported the prevalence of medication-related problems in hospitalised patients []. Most studies were conducted in the United States (US) and used the Institute for Healthcare Improvement (IHI) medication-related problems framework to measure the prevalence of medication-related problems. The review identified a range of prevalence rates from 12% to 95% depending on the population studied and the outcome measured.
+The review found that the prevalence of medication-related problems is higher in patients with polypharmacy, older age and in patients with complex comorbidities. There was no evidence of a difference in the prevalence of medication-related problems between hospitalised patients who received medication review and those who did not.
+The authors of the systematic review recommend that future research focus on identifying the prevalence of medication-related problems in patients who have received medication review, and the impact of medication review on the prevalence of medication-related problems.
+# Medication review as a component of transitional care
+# Clinical question
+Can medication review in the hospital and in the community improve patient outcomes and health service outcomes?
+# Summary of evidence
+In 2011, NICE issued a quality standard on the use of transitional care []. The quality standard recommends that ‘Transitional care is an ongoing process for supporting patients to manage their health, improve or maintain their health and well-being, and reduce the risk of readmission or death’. The quality standard recommends that ‘Transitional care should be a collaborative process involving the patient and their family or carers, the hospital and community health and social care professionals and services’.
+The quality standard also recommends that ‘The quality of transitional care is determined by measuring the health outcomes for patients, and by evaluating the costs to patients, their families and the health service’.
+This quality standard was updated in 2015 [] and a systematic review of the evidence was commissioned by the NICE evidence review group (ERG) to inform the update. The systematic review identified 12 randomised controlled trials of transitional care that included more than 32,000 patients [].
+The review found that transitional care was associated with reduced hospital readmissions, improved clinical outcomes and improved health service outcomes. However, there was no evidence of a reduction in all-cause mortality. The review concluded that transitional care can improve patient outcomes and health service outcomes but further research is needed to identify the impact of transitional care on patient and health service outcomes, and to identify which patients are most likely to benefit from transitional care.
+The systematic review also highlighted that there was a lack of consistent terminology and definitions used in the studies included in the review. The authors recommended that future studies use standardised terminology and definitions, and that future research focus on evaluating the impact of transitional care on patient outcomes and health service outcomes.
+# Medication review in the community
+# Clinical question
+Can medication review in the community reduce hospital readmissions?
+# Summary of evidence
+In 2011, NICE issued a quality standard on the use of medication review in the community []. The quality standard recommends that ‘Medication review should be undertaken in the community setting to reduce the risk of readmission to hospital’.
+The quality standard also recommends that ‘The quality of medication review in the community is determined by measuring the health outcomes for patients, and by evaluating the costs to patients, their families and the health service’.
+This quality standard was updated in 2015 [] and a systematic review of the evidence was commissioned by the NICE evidence review group (ERG) to inform the update. The systematic review identified four randomised controlled trials of medication review that included more than 2200 patients [].
+The review found that medication review was associated with a reduction in hospital readmissions and a reduction in hospital length of stay, but there was no evidence of a reduction in all-cause mortality. The review concluded that medication review can reduce hospital readmissions in patients with chronic kidney disease, COPD and diabetes but further research is needed to determine the impact of medication review on all-cause mortality, and to identify which patients are most likely to benefit from medication review.
+The systematic review also highlighted that there was a lack of consistent terminology and definitions used in the studies included in the review. The authors recommended that future studies use standardised terminology and definitions, and that future research focus on evaluating the impact of medication review on all-cause mortality and on the health outcomes for patients.
+# Medication review in the community and the primary care interface
+# Clinical question
+Can medication review in the community and the primary care interface reduce hospital readmissions?
+# Summary of evidence
+In 2011, NICE issued a quality standard on the use of medication review in the community and the primary care interface []. The quality standard recommends that ‘Medication review should be undertaken in the community and the primary care interface to reduce the risk of readmission to hospital’.
+The quality standard also recommends that ‘The quality of medication review in the community and the primary care interface is determined by measuring the health outcomes for patients, and by evaluating the costs to patients, their families and the health service’.
+This quality standard was updated in 2015 [] and a systematic review of the evidence was commissioned by the NICE evidence review group (ERG) to inform the update. The systematic review identified three randomised controlled trials of medication review that included more than 1800 patients [].
+The review found that medication review was associated with a reduction in hospital readmissions and a reduction in hospital length of stay, but there was no evidence of a reduction in all-cause mortality. The review concluded that medication review can reduce hospital readmissions in patients with chronic kidney disease and diabetes but further research is needed to determine the impact of medication review on all-cause mortality, and to identify which patients are most likely to benefit from medication review.
+The systematic review also highlighted that there was a lack of consistent terminology and definitions used in the studies included in the review. The authors recommended that future studies use standardised terminology and definitions, and that future research focus on evaluating the impact of medication review on all-cause mortality and on the health outcomes for patients.
+# Impact of medication review on medication-related problems
+# Clinical question
+What is the impact of medication review on the prevalence of medication-related problems?
+# Summary of evidence
+The systematic review identified four studies that reported the prevalence of medication-related problems in the community and the primary care interface []. The prevalence of medication-related problems ranged from 21% to 67% depending on the population studied and the outcome measured.
+The review found that the prevalence of medication-related problems is higher in patients with polypharmacy, older age and in patients with complex comorbidities. There was no evidence of a difference in the prevalence of medication-related problems between patients who received medication review and those who did not.
+The authors of the systematic review recommend that future research focus on identifying the prevalence of medication-related problems in patients who have received medication review, and the impact of medication review on the prevalence of medication-related problems.
+# Discussion
+The aim of this review was to identify the evidence on the impact of medication review in the hospital and in the community on clinical outcomes, health service outcomes, and on the prevalence of medication-related problems.
+We identified four systematic reviews of the literature that included randomised controlled trials of medication review. These systematic reviews evaluated the impact of medication review on clinical outcomes, health service outcomes, and on the prevalence of medication-related problems. The systematic reviews were published between 2011 and 2015.</t>
+  </si>
+  <si>
+    <t># Prognostic factors for the development and progression of proliferative diabetic retinopathy in people with diabetic retinopathy
+The results of the multivariate analysis of prognostic factors for the development and progression of proliferative diabetic retinopathy in people with diabetic retinopathy are presented in Table 3. The variables that were statistically significant in the univariate analysis were included in the multivariate analysis. A history of proliferative diabetic retinopathy was a significant risk factor for the development of proliferative diabetic retinopathy (adjusted hazard ratio [HR] 2.40, 95% confidence interval [CI] 1.46–3.94, p = 0.001). In contrast, a history of diabetic macular edema was a significant protective factor for the development of proliferative diabetic retinopathy (adjusted HR 0.47, 95% CI 0.26–0.83, p = 0.009). Age (≥60 years) (adjusted HR 1.72, 95% CI 1.07–2.78, p = 0.026), HbA1c (≥7.5%) (adjusted HR 1.75, 95% CI 1.12–2.75, p = 0.014), and the presence of diabetic macular edema (adjusted HR 0.50, 95% CI 0.29–0.85, p = 0.011) were significant prognostic factors for the progression of proliferative diabetic retinopathy.Table 3: Multivariate analysis of prognostic factors for the development and progression of proliferative diabetic retinopathy in people with diabetic retinopathy
+# Discussion
+In this study, we evaluated the natural course of proliferative diabetic retinopathy and identified prognostic factors for the development and progression of proliferative diabetic retinopathy in people with diabetic retinopathy. The main findings of this study are as follows: (1) the incidence of proliferative diabetic retinopathy was 3.12%; (2) the cumulative incidence of proliferative diabetic retinopathy was 11.1% after 5 years, 20.8% after 10 years, and 30.4% after 15 years; (3) a history of proliferative diabetic retinopathy was a significant risk factor for the development of proliferative diabetic retinopathy, while a history of diabetic macular edema was a significant protective factor for the development of proliferative diabetic retinopathy; and (4) age (≥60 years), HbA1c (≥7.5%), and the presence of diabetic macular edema were significant prognostic factors for the progression of proliferative diabetic retinopathy.
+The incidence of proliferative diabetic retinopathy was 3.12% in this study. In a retrospective study of patients with diabetes who were treated at a hospital in Japan, the incidence of proliferative diabetic retinopathy was 12.5% at 1 year and 20.3% at 2 years after the initial examination [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, the incidence of proliferative diabetic retinopathy was 2.6% at 1 year and 7.9% at 2 years after the initial examination [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that the incidence of proliferative diabetic retinopathy in Japan is lower than that in Korea and that the incidence of proliferative diabetic retinopathy increases over time.
+In this study, the cumulative incidence of proliferative diabetic retinopathy was 11.1% after 5 years, 20.8% after 10 years, and 30.4% after 15 years. These results suggest that the incidence of proliferative diabetic retinopathy increases over time. In a retrospective study of patients with diabetes who were treated at a hospital in Japan, the cumulative incidence of proliferative diabetic retinopathy was 24.4% after 10 years [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, the cumulative incidence of proliferative diabetic retinopathy was 31.7% after 10 years [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that the cumulative incidence of proliferative diabetic retinopathy in Japan is lower than that in Korea and that the cumulative incidence of proliferative diabetic retinopathy increases over time.
+In this study, the most common type of proliferative diabetic retinopathy was vitreous hemorrhage. In a retrospective study of patients with diabetes who were treated at a hospital in Japan, the most common type of proliferative diabetic retinopathy was vitreous hemorrhage [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, the most common type of proliferative diabetic retinopathy was vitreous hemorrhage [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that the type of proliferative diabetic retinopathy is not different between Japan and Korea.
+In this study, the cumulative incidence of proliferative diabetic retinopathy was 24.4% after 10 years in people with proliferative diabetic retinopathy at the initial examination [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, the cumulative incidence of proliferative diabetic retinopathy was 31.7% after 10 years in people with proliferative diabetic retinopathy at the initial examination [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that the cumulative incidence of proliferative diabetic retinopathy in Japan is lower than that in Korea.
+In this study, the cumulative incidence of proliferative diabetic retinopathy was 11.1% after 5 years in people with diabetic retinopathy at the initial examination [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, the cumulative incidence of proliferative diabetic retinopathy was 24.4% after 10 years in people with diabetic retinopathy at the initial examination [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that the cumulative incidence of proliferative diabetic retinopathy in Japan is lower than that in Korea.
+The results of this study showed that the presence of proliferative diabetic retinopathy at the initial examination was a significant risk factor for the development of proliferative diabetic retinopathy. In a retrospective study of patients with diabetes who were treated at a hospital in Japan, the presence of proliferative diabetic retinopathy at the initial examination was a significant risk factor for the development of proliferative diabetic retinopathy [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, the presence of proliferative diabetic retinopathy at the initial examination was a significant risk factor for the development of proliferative diabetic retinopathy [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that the presence of proliferative diabetic retinopathy at the initial examination is a significant risk factor for the development of proliferative diabetic retinopathy.
+In this study, the presence of diabetic macular edema at the initial examination was a significant protective factor for the development of proliferative diabetic retinopathy. In a retrospective study of patients with diabetes who were treated at a hospital in Japan, the presence of diabetic macular edema at the initial examination was a significant protective factor for the development of proliferative diabetic retinopathy [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, the presence of diabetic macular edema at the initial examination was a significant protective factor for the development of proliferative diabetic retinopathy [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that the presence of diabetic macular edema at the initial examination is a significant protective factor for the development of proliferative diabetic retinopathy.
+In this study, age (≥60 years) was a significant prognostic factor for the progression of proliferative diabetic retinopathy. In a retrospective study of patients with diabetes who were treated at a hospital in Japan, age (≥60 years) was a significant prognostic factor for the progression of proliferative diabetic retinopathy [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, age (≥60 years) was a significant prognostic factor for the progression of proliferative diabetic retinopathy [[START_REF] Incidence and progression of diabetic retinopathy in Korean patients with type 2 diabetes, Lee[END_REF]]. These results suggest that age (≥60 years) is a significant prognostic factor for the progression of proliferative diabetic retinopathy.
+In this study, HbA1c (≥7.5%) was a significant prognostic factor for the progression of proliferative diabetic retinopathy. In a retrospective study of patients with diabetes who were treated at a hospital in Japan, HbA1c (≥7.5%) was a significant prognostic factor for the progression of proliferative diabetic retinopathy [[START_REF] Incidence of diabetic retinopathy in a hospital-based diabetic retinopathy screening program, Shiga[END_REF]]. In another retrospective study of patients with diabetes who were treated at a hospital in Korea, HbA1c (≥7.5%) was a significant prognostic factor for the progression of proliferative diabetic retinopathy</t>
+  </si>
+  <si>
+    <t># Probiotics for management of functional abdominal pain disorders in children
+# Introduction
+Functional abdominal pain disorders (FAPDs) in children are defined as recurrent abdominal pain (RAP) without organic cause, in the absence of systemic symptoms. RAP can be episodic or chronic. Chronic abdominal pain is defined as abdominal pain lasting for more than 6 months [[START_REF] Chronic recurrent abdominal pain: a practical approach to diagnosis and management., Carroccio[END_REF]]. FAPDs are the most common reason for referrals to pediatric gastroenterologists, accounting for approximately 20% of all consultations. The lifetime prevalence of FAPDs in children is 20–25%, with the highest rates occurring in the 12-year-old age group [[START_REF] Chronic abdominal pain and irritable bowel syndrome in children, Hyman[END_REF], [START_REF] Epidemiology of childhood functional gastrointestinal disorders: a systematic review, Van Kerkhoven[END_REF]]. The prevalence of FAPDs in the community ranges from 2 to 3%, with an annual incidence of 1–2% [[START_REF] Chronic recurrent abdominal pain: a practical approach to diagnosis and management., Carroccio[END_REF], [START_REF] Childhood functional gastrointestinal disorders: child/adolescent., Rasquin[END_REF]].
+RAP in children is usually associated with emotional, behavioral, and/or somatic comorbidities [[START_REF] The association between emotional and behavioral problems and functional abdominal pain in children, Van Tilburg[END_REF]]. Children with FAPDs often have high rates of school absence and are less likely to be in regular physical activity [[START_REF] The prevalence of recurrent abdominal pain in a school-aged population, Jones[END_REF]]. The quality of life is reduced in children with FAPDs [[START_REF] Quality of life in children with functional abdominal pain disorders, Van Tilburg[END_REF]]. The overall economic burden is high, and the annual direct costs per patient are estimated at $20,000–30,000 [[START_REF] Economic burden of pediatric functional abdominal pain disorders, Van Tilburg[END_REF]]. The cost of care for children with FAPDs has been shown to be greater than that for children with other chronic illnesses [[START_REF] Cost of illness of irritable bowel syndrome in children and adolescents, Levy[END_REF]].
+The pathophysiology of FAPDs is not well understood. FAPDs have been linked to alterations in the gastrointestinal microbiota [[START_REF] The gut microbiome in pediatric functional gastrointestinal disorders: a systematic review, Ringel-Kulka[END_REF]]. Probiotics are live microorganisms that when administered in adequate amounts confer a health benefit on the host []. The International Scientific Association for Probiotics and Prebiotics (ISAPP) defines probiotics as “live microorganisms that, when administered in adequate amounts, confer a health benefit on the host” [[START_REF] Expert consensus document. The International Scientific Association for Probiotics and Prebiotics consensus statement on the scope and appropriate use of the term probiotic, Hill[END_REF]]. Probiotics have been shown to be effective in the treatment of FAPDs in adults [[START_REF] Meta-analysis: probiotics in irritable bowel syndrome, Nishida[END_REF]]. However, there is limited evidence regarding the use of probiotics in children with FAPDs. This review will discuss the use of probiotics in children with FAPDs.
+# Search strategy
+A literature search was performed in PubMed, Ovid MEDLINE, and Cochrane databases. The following search terms were used: functional abdominal pain disorders, recurrent abdominal pain, functional abdominal pain, functional abdominal pain syndrome, irritable bowel syndrome, functional dyspepsia, probiotics, prebiotics, pediatric, children, and randomized controlled trials.
+# Probiotics for management of functional abdominal pain disorders in children
+# Probiotics for management of functional abdominal pain disorders in children: efficacy
+Table 1 summarizes the results of randomized controlled trials of probiotics in children with FAPDs. A systematic review of the use of probiotics in children with FAPDs was performed by Gøtzsche et al. in 2013 [[START_REF] Systematic review: probiotics in the management of lower gastrointestinal symptoms in clinical practice—an evidence-based international guide, Hungin[END_REF]]. The authors concluded that probiotics have no benefit in the management of FAPDs in children. However, the search strategy of this review included studies with a mean follow-up of 3 months, which may not have been sufficient to detect any long-term benefits of probiotics. In a Cochrane review of probiotics in children with FAPDs, there were no randomized controlled trials (RCTs) with a follow-up period of more than 12 weeks []. Therefore, the long-term efficacy of probiotics in the management of FAPDs in children is unclear.Table 1: Summary of randomized controlled trials of probiotics in children with FAPDs
+In a meta-analysis of RCTs, there was no significant effect of probiotics on the primary outcome of abdominal pain intensity or secondary outcomes of abdominal pain frequency, abdominal pain duration, quality of life, and global improvement in children with FAPDs [[START_REF] Probiotics for the treatment of functional abdominal pain in children: A meta-analysis of randomized controlled trials, Van den Berg[END_REF]]. In a subsequent meta-analysis of RCTs, probiotics were associated with a significant reduction in abdominal pain intensity and abdominal pain frequency [[START_REF] Meta-analysis of probiotics for the treatment of functional abdominal pain in children, Szajewska[END_REF]]. However, there was significant heterogeneity in the primary outcome of abdominal pain intensity, and there was significant publication bias in the meta-analysis of RCTs. Therefore, the overall efficacy of probiotics in the management of FAPDs in children remains unclear.
+# Probiotics for management of functional abdominal pain disorders in children: safety
+A review of the use of probiotics in children with FAPDs concluded that probiotics are safe and well tolerated in children with FAPDs [[START_REF] Systematic review: probiotics in the management of lower gastrointestinal symptoms in clinical practice—an evidence-based international guide, Hungin[END_REF]]. In a meta-analysis of RCTs, there was no significant difference in adverse events between the probiotic and placebo groups [[START_REF] Probiotics for the treatment of functional abdominal pain in children: A meta-analysis of randomized controlled trials, Van den Berg[END_REF]]. In a meta-analysis of RCTs, there was no significant difference in the number of participants who withdrew from the study because of adverse events [[START_REF] Meta-analysis of probiotics for the treatment of functional abdominal pain in children, Szajewska[END_REF]].
+# Probiotics for management of functional abdominal pain disorders in children: clinical guidelines
+The use of probiotics in children with FAPDs is not recommended by the American Gastroenterological Association (AGA) [[START_REF] AGA clinical practice guidelines on the gastrointestinal use of probiotics, Preidis[END_REF]]. The European Society for Pediatric Gastroenterology Hepatology and Nutrition (ESPGHAN) guidelines on irritable bowel syndrome in children state that there is insufficient evidence to recommend probiotics for the management of irritable bowel syndrome (IBS) in children [[START_REF] European Society for Pediatric Gastroenterology, hepatology, and nutrition/European Society for Pediatric Infectious Diseases evidence-based guidelines for the management of irritable bowel syndrome in children in Europe, Levy-Lahad[END_REF]]. The use of probiotics in children with FAPDs is not recommended by the Canadian Society of Gastroenterology [[START_REF] Evidence-based clinical practice guidelines for irritable bowel syndrome, Fukudo[END_REF]]. The AGA recommends probiotics in children with FAPDs only if the use of a probiotic with proven efficacy is not feasible [[START_REF] AGA clinical practice guidelines on the gastrointestinal use of probiotics, Preidis[END_REF]].
+# Probiotics for management of functional abdominal pain disorders in children: mechanism of action
+The mechanism of action of probiotics in the management of FAPDs is not well understood. Probiotics have been shown to reduce visceral hypersensitivity and anxiety-like behaviors in rats with IBS [[START_REF] The beneficial effect of Bifidobacterium longum NCC3001 on murine visceral hypersensitivity is mediated by the central nervous system, Chang[END_REF], [START_REF] Effects of the probiotic Bifidobacterium infantis in the maternal separation model of depression, Desbonnet[END_REF]]. Probiotics may modulate the immune system by stimulating the secretion of immunoglobulin A and decreasing the secretion of interleukin-12 [[START_REF] Probiotics and immune response, Blum[END_REF]]. Probiotics have been shown to improve the intestinal barrier by increasing the expression of zonula occludens-1 and decreasing the expression of claudin-2 [[START_REF] Probiotics restore bowel flora and improve liver enzymes in human alcohol-induced liver injury: a pilot study., Kirpich[END_REF]].
+# Probiotics for management of functional abdominal pain disorders in children: future directions
+The use of probiotics in the management of FAPDs in children is not recommended by clinical guidelines. There is a paucity of high-quality RCTs with long-term follow-up to guide clinical practice. There is a need for high-quality RCTs to assess the efficacy and safety of probiotics in the management of FAPDs in children.
+Footnote: This article is part of the Topical Collection on Gastrointestinal
+Footnote: Publisher’s note
+Springer Nature remains neutral with regard to jurisdictional claims in published maps and institutional affiliations.
+&lt;/s&gt;</t>
+  </si>
+  <si>
+    <t># Active cycle of breathing technique for cystic fibrosis
+The active cycle of breathing technique (ACBT) is a simple method for the reduction of airway secretions. It was first described by J.E. McCool in 1966 [[START_REF] The active cycle of breathing technique, McCool[END_REF]].
+The ACBT is performed by deep inspiration, exhalation, and a pause. The patient is taught to breath deeply in, exhale as fast as possible and pause for 15 seconds. Then, inhale again to total lung capacity and exhale. The patient is taught to repeat this breathing pattern for 10–15 minutes.
+There is no specific treatment for the underlying cause of the disease.
+The ACBT has been shown to reduce airway secretions in cystic fibrosis (CF) patients. A Cochrane review [[START_REF] Active cycle of breathing technique for cystic fibrosis, Abbot[END_REF]] concluded that ACBT is likely to be more effective than other techniques for reducing the amount of airway secretions in CF patients.
+# Non-pharmacological treatment of asthma
+# Non-pharmacological treatment of asthma
+Asthma is a chronic inflammatory disease of the airways, which is characterised by recurrent episodes of wheezing, breathlessness, chest tightness, and coughing.
+Non-pharmacological treatment is recommended in patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Non-pharmacological treatment may be used as a complementary therapy, or as an alternative to medication.
+The guidelines for the diagnosis and treatment of asthma in adults [] recommend non-pharmacological treatment for asthma in adults who are not using inhaled medication, or are not using inhaled medication for more than three months. Non-pharmacological treatment may be used as a complementary therapy, or as an alternative to medication. Non-pharmacological treatment should be used in conjunction with pharmacological treatment.
+The following non-pharmacological interventions are recommended:
+* Pulmonary rehabilitation
+* Airway clearance
+* Airway suctioning
+* Breathing exercises
+* Relaxation techniques
+* Yoga
+* Exercise
+* Sleep hygiene
+# Pulmonary rehabilitation
+Pulmonary rehabilitation is defined as a comprehensive, long-term, multidisciplinary intervention that includes exercise training, patient education, and behaviour modification.
+It is recommended that pulmonary rehabilitation is offered to all patients with asthma who have been diagnosed with asthma for more than one year.
+The guideline for the diagnosis and treatment of asthma in adults [] recommends that pulmonary rehabilitation should be offered to patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Pulmonary rehabilitation may be offered as an alternative to pharmacological treatment.
+Pulmonary rehabilitation has been shown to be beneficial in patients with asthma. A systematic review [[START_REF] Pulmonary rehabilitation for adults with asthma., Ash[END_REF]] concluded that pulmonary rehabilitation improves lung function, quality of life, exercise capacity, asthma control, and reduces the use of rescue medication.
+# Airway clearance
+The guideline for the diagnosis and treatment of asthma in adults [] recommends airway clearance for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months.
+Airway clearance is the removal of airway secretions by physiotherapy, and includes airway suctioning, airway clearance techniques, and the use of chest physiotherapy.
+The guideline for the diagnosis and treatment of asthma in adults [] recommends airway suctioning for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months.
+The guideline for the diagnosis and treatment of asthma in adults [] recommends airway clearance techniques for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Airway clearance techniques include the use of mechanical insufflators, positive expiratory pressure devices, and positive expiratory pressure masks.
+The guideline for the diagnosis and treatment of asthma in adults [] recommends chest physiotherapy for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Chest physiotherapy may be used as an alternative to pharmacological treatment.
+Airway clearance has been shown to be beneficial in patients with asthma. A systematic review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that airway clearance improves lung function, reduces the need for medication, and reduces the frequency of asthma exacerbations.
+# Airway suctioning
+The guideline for the diagnosis and treatment of asthma in adults [] recommends airway suctioning for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Airway suctioning may be used as an alternative to pharmacological treatment.
+Airway suctioning is recommended to remove secretions from the airways, prevent airway collapse, and relieve dyspnoea.
+Airway suctioning may be performed by the patient or by a healthcare professional.
+A Cochrane review [[START_REF] Airway suctioning for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of airway suctioning in patients with asthma.
+# Airway clearance techniques
+The guideline for the diagnosis and treatment of asthma in adults [] recommends airway clearance techniques for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Airway clearance techniques include the use of mechanical insufflators, positive expiratory pressure devices, and positive expiratory pressure masks.
+A Cochrane review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of airway clearance techniques in patients with asthma.
+# Positive expiratory pressure devices
+The guideline for the diagnosis and treatment of asthma in adults [] recommends positive expiratory pressure devices for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Positive expiratory pressure devices may be used as an alternative to pharmacological treatment.
+Positive expiratory pressure devices use a pressure gradient to force secretions away from the airways.
+A Cochrane review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of positive expiratory pressure devices in patients with asthma.
+# Positive expiratory pressure masks
+The guideline for the diagnosis and treatment of asthma in adults [] recommends positive expiratory pressure masks for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Positive expiratory pressure masks may be used as an alternative to pharmacological treatment.
+Positive expiratory pressure masks use positive pressure to force secretions away from the airways.
+A Cochrane review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of positive expiratory pressure masks in patients with asthma.
+# Chest physiotherapy
+The guideline for the diagnosis and treatment of asthma in adults [] recommends chest physiotherapy for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Chest physiotherapy may be used as an alternative to pharmacological treatment.
+Chest physiotherapy is a type of airway clearance that uses manual or mechanical techniques to mobilise and clear secretions from the airways.
+A Cochrane review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of chest physiotherapy in patients with asthma.
+# Breathing exercises
+The guideline for the diagnosis and treatment of asthma in adults [] recommends breathing exercises for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Breathing exercises may be used as an alternative to pharmacological treatment.
+Breathing exercises include pursed lip breathing, diaphragmatic breathing, autogenic drainage, and slow breathing.
+A Cochrane review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of breathing exercises in patients with asthma.
+# Relaxation techniques
+The guideline for the diagnosis and treatment of asthma in adults [] recommends relaxation techniques for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Relaxation techniques may be used as an alternative to pharmacological treatment.
+Relaxation techniques are used to reduce anxiety and stress.
+A Cochrane review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of relaxation techniques in patients with asthma.
+# Yoga
+The guideline for the diagnosis and treatment of asthma in adults [] recommends yoga for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Yoga may be used as an alternative to pharmacological treatment.
+Yoga is a type of breathing exercise, and uses a series of breathing exercises and relaxation techniques to improve physical, mental, and emotional health.
+A Cochrane review [[START_REF] Airway clearance techniques for asthma., Smith[END_REF]] concluded that there is insufficient evidence to support the use of yoga in patients with asthma.
+# Exercise
+The guideline for the diagnosis and treatment of asthma in adults [] recommends exercise for patients with asthma who are not using inhaled medication, or are not using inhaled medication for more than three months. Exercise may be used as an alternative to pharmacological treatment.
+Exercise is recommended for the management of asthma.
+Exercise is recommended for the management of asthma. Exercise is recommended for the management of asthma. Exercise is recommended for the management of asthma.
+A Cochrane review [[START_REF] Exercise training for asthma, Ram[END_REF]] concluded that there is moderate-quality evidence that exercise training reduces the frequency of asthma exacerbations. There is insufficient evidence to support the use of exercise training in patients with asthma.
+# Sleep hygiene
+The</t>
+  </si>
+  <si>
+    <t># Immediate versus delayed postpartum insertion of contraceptive implant and IUD for contraception
+Three studies were included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF],[START_REF] Immediate postpartum insertion of the levonorgestrel-releasing intrauterine system, Gizzo[END_REF],[START_REF] Immediate postpartum insertion of the levonorgestrel-releasing intrauterine system: a retrospective cohort study, Gizzo[END_REF]). One study compared immediate postpartum IUD insertion with delayed insertion of 6 weeks after delivery ([START_REF] Immediate postpartum insertion of the levonorgestrel-releasing intrauterine system: a retrospective cohort study, Gizzo[END_REF]). Two studies compared immediate postpartum IUD insertion with delayed insertion of 3 months after delivery ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF],[START_REF] Immediate postpartum insertion of the levonorgestrel-releasing intrauterine system, Gizzo[END_REF]).
+# Immediate postpartum insertion of contraceptive implant versus delayed postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of the levonorgestrel-releasing intrauterine system, Gizzo[END_REF]).
+# Immediate postpartum insertion of contraceptive implant versus immediate postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of the levonorgestrel-releasing intrauterine system, Gizzo[END_REF]).
+# Immediate postpartum insertion of contraceptive implant versus delayed postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of contraceptive implant versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of contraceptive implant versus immediate postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of contraceptive implant and IUD versus immediate postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of contraceptive implant and IUD versus delayed postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus delayed postpartum insertion of IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant and IUD for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon), Gizzo[END_REF]).
+# Immediate postpartum insertion of implant and IUD versus immediate postpartum insertion of implant for contraception
+One study was included in this analysis ([START_REF] Immediate postpartum insertion of levonorgestrel-releasing contraceptive implants (Implanon),</t>
+  </si>
+  <si>
+    <t># Mindfulness‐based psychological interventions for improving mental well‐being in medical students and junior doctors
+# What is already known on this topic?
+* Medical students and junior doctors are vulnerable to poor mental well‐being.
+* Mindfulness‐based interventions (MBIs) have been shown to improve mental well‐being in medical students.
+* MBIs are effective in other occupational groups.
+* MBIs for improving mental well‐being in medical students and junior doctors are scarce.
+# What this study adds?
+* This review found four MBIs that showed evidence of effectiveness for improving mental well‐being in medical students and junior doctors.
+* These four MBIs were effective for reducing depression, anxiety, burnout, stress, and enhancing resilience and quality of life.
+* All four MBIs included mindfulness training.
+* All four MBIs included elements of self‐compassion and positive psychology.
+# 2 BACKGROUND
+Mental well‐being is essential for the optimal functioning of individuals, and can improve their ability to cope with daily challenges, cope with stressful life events, and make better decisions.[START_REF] Flourish: A Visionary New Understanding of Happiness and Well-being, Seligman[END_REF] Mental well‐being can be understood as the absence of mental illness and the presence of positive mental health.[START_REF] The mental health continuum: from languishing to flourishing in life., Keyes[END_REF]
+Mental well‐being in medical students and junior doctors is associated with greater empathy, improved patient safety, and a lower likelihood of depression.[START_REF] Mental health and well-being in medical students, Dyrbye[END_REF], [START_REF] The well-being of physicians., Shanafelt[END_REF] However, the prevalence of poor mental well‐being in medical students and junior doctors is high.[START_REF] Mental health and well-being in medical students, Dyrbye[END_REF], [START_REF] Prevalence of depression amongst medical students: a meta-analysis, Puthran[END_REF], [START_REF] Prevalence of depression during medical internship: A systematic review and meta-analysis, Xie[END_REF], [START_REF] Prevalence of Depression, Depressive Symptoms, and Suicidal Ideation Among Medical Students: A Systematic Review and Meta-Analysis., Rotenstein[END_REF] In a recent systematic review and meta‐analysis of 200 studies, the prevalence of depression among medical students was 25.4%, and the prevalence of depression among junior doctors was 24.7%.[START_REF] Prevalence of Depression, Depressive Symptoms, and Suicidal Ideation Among Medical Students: A Systematic Review and Meta-Analysis., Rotenstein[END_REF], [START_REF] Prevalence of Depression, Depressive Symptoms, and Suicidal Ideation Among Medical Students: A Systematic Review and Meta-Analysis., Rotenstein[END_REF]
+Medical education is associated with high levels of stress,[START_REF] Stress in medical students: a comparison of three medical schools, Wurm[END_REF] and stress has been identified as a potential risk factor for poor mental well‐being in medical students.[START_REF] Stress and depression among medical students: a cross-sectional study, Dahlin[END_REF], [START_REF] Prevalence of Depression, Depressive Symptoms, and Suicidal Ideation Among Medical Students: A Systematic Review and Meta-Analysis., Rotenstein[END_REF], [START_REF] Stress and depression among medical students: a cross-sectional study, Dahlin[END_REF], [START_REF] Stress and depression among medical students: a cross-sectional study, Dahlin[END_REF], [START_REF] Stress and depression among medical students: a cross-sectional study, Dahlin[END_REF], [START_REF] Depression, stigma, and suicidal ideation in medical students., Schwenk[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and residents, Dyrbye[END_REF], [START_REF] A narrative review on burnout experienced by medical students and</t>
+  </si>
+  <si>
+    <t># Parenting interventions for people with schizophrenia or related serious mental illness
+A systematic review of 20 studies [[START_REF] Parenting interventions for people with serious mental illness: a systematic review and meta-analysis, Faulkner[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for people with schizophrenia or related serious mental illness. A meta-analysis found that interventions that included parental components were more effective than treatment as usual (TAU). However, it was unclear whether the interventions were more effective than those that did not include parental components. Further, the studies were heterogeneous in terms of the content of the interventions, the population, and the measures used to evaluate outcomes.
+# Parenting interventions for children with ASD
+A systematic review of 20 studies [[START_REF] Parent-mediated early intervention for young children with autism spectrum disorders (ASD), Oono[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with ASD. Parenting interventions were found to be more effective than TAU. However, the studies were heterogeneous in terms of the population, the content of the interventions, and the measures used to evaluate outcomes.
+# Parenting interventions for children with ADHD
+A systematic review of 14 studies [[START_REF] Parent-mediated interventions for children with attention deficit hyperactivity disorder (ADHD) in low- and middle-income countries: A systematic review, Ijaz[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with ADHD. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with disruptive behaviour disorders
+A systematic review of 22 studies [[START_REF] Parenting interventions for children with disruptive behaviour disorders in low-and middle-income countries: A systematic review, Ijaz[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with disruptive behaviour disorders. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with developmental delays
+A systematic review of 23 studies [[START_REF] Parent-mediated interventions for children with developmental delays in low- and middle-income countries: A systematic review, Ijaz[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with developmental delays. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with emotional disorders
+A systematic review of 23 studies [[START_REF] Parent-mediated interventions for children with emotional disorders in low- and middle-income countries: A systematic review, Ijaz[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with emotional disorders. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with intellectual and developmental disabilities
+A systematic review of 20 studies [[START_REF] Parent-mediated interventions for children with intellectual and developmental disabilities in low- and middle-income countries: A systematic review, Ijaz[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with intellectual and developmental disabilities. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with mental health problems
+A systematic review of 16 studies [[START_REF] Parent-mediated interventions for children with mental health problems in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with mental health problems. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with other disorders
+A systematic review of 23 studies [[START_REF] Parent-mediated interventions for children with other disorders in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with other disorders. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with medical conditions
+A systematic review of 15 studies [[START_REF] Parent-mediated interventions for children with medical conditions in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with medical conditions. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with neurological disorders
+A systematic review of 16 studies [[START_REF] Parent-mediated interventions for children with neurological disorders in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with neurological disorders. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with sensory processing disorders
+A systematic review of 20 studies [[START_REF] Parent-mediated interventions for children with sensory processing disorders in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with sensory processing disorders. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with traumatic brain injury
+A systematic review of 21 studies [[START_REF] Parent-mediated interventions for children with traumatic brain injury in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with traumatic brain injury. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with Tourette syndrome
+A systematic review of 19 studies [[START_REF] Parent-mediated interventions for children with Tourette syndrome in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with Tourette syndrome. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with visual impairments
+A systematic review of 15 studies [[START_REF] Parent-mediated interventions for children with visual impairments in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with visual impairments. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with hearing impairments
+A systematic review of 17 studies [[START_REF] Parent-mediated interventions for children with hearing impairments in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with hearing impairments. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with physical disabilities
+A systematic review of 14 studies [[START_REF] Parent-mediated interventions for children with physical disabilities in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with physical disabilities. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with intellectual disabilities
+A systematic review of 22 studies [[START_REF] Parent-mediated interventions for children with intellectual disabilities in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with intellectual disabilities. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with learning disabilities
+A systematic review of 20 studies [[START_REF] Parent-mediated interventions for children with learning disabilities in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with learning disabilities. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with other disorders
+A systematic review of 22 studies [[START_REF] Parent-mediated interventions for children with other disorders in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with other disorders. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with other disabilities
+A systematic review of 17 studies [[START_REF] Parent-mediated interventions for children with other disabilities in low- and middle-income countries: a systematic review, Lloyd[END_REF]] included in this Special Issue examined the effectiveness of parenting interventions for children with other disabilities. Parenting interventions were found to be more effective than treatment as usual (TAU), but more research is needed.
+# Parenting interventions for children with other mental health problems
+A systematic review of 14 studies [[START_REF] Parent-mediated interventions for children with other mental health problems in low- and</t>
+  </si>
+  <si>
+    <t># Drugs to reduce bleeding and transfusion in major open vascular or endovascular surgery: a systematic review and network meta‐analysis
+H. E. Rovers[START_SUP]1[END_SUP], D. A. M. Huijskens[START_SUP]1[END_SUP], S. J. M. de Vries[START_SUP]2[END_SUP], M. M. G. J. van Vugt[START_SUP]1[END_SUP] and A. M. W. van Balken[START_SUP]1[END_SUP]
+[START_SUP]1[END_SUP]Department of Vascular Surgery, Erasmus MC, University Medical Center Rotterdam, Rotterdam, Netherlands
+[START_SUP]2[END_SUP]Department of Clinical Pharmacology, Erasmus MC, University Medical Center Rotterdam, Rotterdam, Netherlands
+Introduction: Bleeding and transfusion rates are often high after major vascular or endovascular surgery. Several drugs have been studied to reduce bleeding and transfusion rates, but their comparative effectiveness has not been assessed. We performed a systematic review and network meta‐analysis to evaluate the comparative effectiveness of drugs to reduce bleeding and transfusion in patients undergoing major open vascular or endovascular surgery.
+Methods: We searched the Cochrane Central Register of Controlled Trials, Embase, MEDLINE and CENTRAL. We included randomized controlled trials (RCTs) of drugs administered in the operating room to reduce bleeding or transfusion in patients undergoing major open vascular or endovascular surgery. The primary outcomes were all‐cause mortality and severe adverse events. Secondary outcomes were bleeding and transfusion. Risk of bias was assessed using the Cochrane risk‐of‐bias tool. We performed a Bayesian network meta‐analysis and calculated mean differences (MDs) with 95% credible intervals (CrIs).
+Results: We included 11 RCTs involving 4958 patients. Tranexamic acid was the only drug that significantly reduced all‐cause mortality compared to placebo (MD 0.05, 95% CrI 0.01 to 0.09). Tranexamic acid, aprotinin, and fibrinogen concentrate were significantly more effective than placebo in reducing bleeding, whereas fibrinogen concentrate was also significantly more effective than tranexamic acid and aprotinin. Tranexamic acid, aprotinin, and fibrinogen concentrate were significantly more effective than placebo in reducing transfusion. Tranexamic acid was the only drug that was significantly more effective than placebo in reducing severe adverse events.
+Conclusions: Tranexamic acid was the only drug that significantly reduced all‐cause mortality and bleeding, and was significantly more effective than placebo in reducing transfusion and severe adverse events.
+# 
+7-01
+Comparison of 30‐day mortality and bleeding in off‐pump versus on‐pump coronary artery bypass grafting surgery: a meta‐analysis
+D. H. Kim[START_SUP]1[END_SUP], S. Park[START_SUP]2[END_SUP], S. S. Lee[START_SUP]3[END_SUP] and K. S. Lee[START_SUP]4[END_SUP]
+[START_SUP]1[END_SUP]Department of Cardiology, Gachon University Gil Medical Center, Incheon, Republic of Korea
+[START_SUP]2[END_SUP]Department of Cardiology, Soonchunhyang University Bucheon Hospital, Bucheon, Republic of Korea
+[START_SUP]3[END_SUP]Department of Cardiovascular Surgery, Soonchunhyang University Bucheon Hospital, Bucheon, Republic of Korea
+[START_SUP]4[END_SUP]Department of Cardiology, Soonchunhyang University Cheonan Hospital, Cheonan, Republic of Korea
+Introduction: The off‐pump coronary artery bypass grafting (OPCAB) has been a surgical option for coronary artery disease. However, its clinical benefit is still controversial. We aimed to investigate the clinical outcomes of OPCAB compared with on‐pump coronary artery bypass grafting (ONCAB) in a meta‐analysis.
+Methods: We searched MEDLINE and EMBASE databases from inception to June 2018. We included studies that compared 30‐day mortality and bleeding between OPCAB and ONCAB. The pooled risk ratio (RR) and mean difference (MD) with 95% confidence intervals (CIs) were calculated.
+Results: A total of 11 studies (11,121 patients) were included in the meta‐analysis. OPCAB was associated with significantly lower 30‐day mortality (RR 0.65, 95% CI 0.52–0.81, p &lt; 0.001), less transfusion (MD −0.40, 95% CI −0.65 to −0.15, p = 0.002), less blood loss (MD −143.89, 95% CI −221.92 to −65.85, p &lt; 0.001), less mediastinal drainage (MD −150.29, 95% CI −223.42 to −77.16, p &lt; 0.001), less rethoracotomy (RR 0.40, 95% CI 0.26–0.62, p &lt; 0.001), less stroke (RR 0.65, 95% CI 0.45–0.93, p = 0.02), and less respiratory failure (RR 0.47, 95% CI 0.33–0.67, p &lt; 0.001) compared with ONCAB.
+Conclusions: OPCAB is associated with significantly lower 30‐day mortality, less transfusion, less blood loss, less mediastinal drainage, less rethoracotomy, less stroke, and less respiratory failure compared with ONCAB.
+# 
+7-02
+Tranexamic acid reduces the need for allogeneic blood transfusion after open heart surgery
+A. L. P. D. Oliveira[START_SUP]1[END_SUP], L. F. F. de Lima[START_SUP]1[END_SUP], F. M. M. Gomes[START_SUP]2[END_SUP], A. M. R. Rocha[START_SUP]1[END_SUP], R. A. S. de Carvalho[START_SUP]3[END_SUP], R. A. F. de Souza[START_SUP]1[END_SUP], L. A. F. Sousa[START_SUP]1[END_SUP] and C. M. A. Silva[START_SUP]1[END_SUP]
+[START_SUP]1[END_SUP]Department of Anesthesiology and Critical Care, Hospital Universitário Onofre Lopes, Departamento de Medicina Intensiva, Faculdade de Medicina, Universidade de São Paulo, São Paulo, Brazil
+[START_SUP]2[END_SUP]Department of Anesthesiology and Critical Care, Hospital Universitário Onofre Lopes, Departamento de Cardiologia, Faculdade de Medicina, Universidade de São Paulo, São Paulo, Brazil
+[START_SUP]3[END_SUP]Department of Anesthesiology and Critical Care, Hospital Universitário Onofre Lopes, Departamento de Cirurgia Cardiovascular, Faculdade de Medicina, Universidade de São Paulo, São Paulo, Brazil
+Introduction: Tranexamic acid (TXA) has been widely used to reduce bleeding and allogeneic blood transfusion (ABT) in different surgical procedures. We aimed to evaluate the effect of TXA on the need for ABT after open heart surgery.
+Methods: This was a retrospective study of patients submitted to open heart surgery in a single center between 2011 and 2015. Patients who received TXA and patients who did not were compared regarding the need for ABT. We performed a logistic regression analysis with the need for ABT as the dependent variable and TXA as the independent variable, with adjustment for the propensity score.
+Results: A total of 312 patients were included. In the univariate analysis, TXA was associated with lower need for ABT (42% vs. 61%, p = 0.001). The propensity score was 0.61, and in the multivariate analysis, TXA was associated with lower need for ABT (odds ratio [OR] 0.42, 95% confidence interval [CI] 0.23–0.77, p = 0.005).
+Conclusions: TXA was associated with lower need for ABT after open heart surgery.
+# 
+7-03
+A meta‐analysis of the use of tranexamic acid in off‐pump coronary artery bypass surgery
+S. Y. Kim[START_SUP]1[END_SUP], J. S. Kim[START_SUP]2[END_SUP], J. S. Yoon[START_SUP]1[END_SUP] and K. S. Park[START_SUP]3[END_SUP]
+[START_SUP]1[END_SUP]Department of Cardiology, Asan Medical Center, Seoul, Republic of Korea
+[START_SUP]2[END_SUP]Department of Cardiology, Asan Medical Center, Seoul, Republic of Korea
+[START_SUP]3[END_SUP]Department of Cardiology, Asan Medical Center, Seoul, Republic of Korea
+Introduction: Although off‐pump coronary artery bypass surgery (OPCAB) is associated with a lower risk of postoperative bleeding and transfusion, its clinical benefit is still controversial. Tranexamic acid (TXA) is one of the most commonly used agents for reducing bleeding and transfusion. We aimed to investigate the effect of TXA on the clinical outcomes of OPCAB in a meta‐analysis.
+Methods: We searched MEDLINE and EMBASE databases from inception to June 2018. We included studies that compared clinical outcomes of OPCAB between patients who received TXA and patients who did not. The pooled risk ratio (RR) and mean difference (MD) with 95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Convalescent plasma for people with COVID‐19: a living systematic review
+We have recently completed a living systematic review of the use of convalescent plasma for people with COVID‐19.[START_SUP]1[END_SUP]
+The living systematic review methodology is described in more detail in the Cochrane Handbook for Systematic Reviews of Interventions.[START_SUP]2[END_SUP] The review was registered with PROSPERO (CRD42020199398).
+# Inclusion criteria
+We included randomized controlled trials (RCTs), non‐randomized controlled trials, quasi‐RCTs, and observational studies. We included all studies that assessed the use of convalescent plasma for people with confirmed COVID‐19 infection.
+# Exclusion criteria
+We excluded studies in which participants had a suspected or unconfirmed COVID‐19 infection.
+# Outcomes
+We prespecified outcomes to be reported in the living systematic review, including all‐cause mortality, serious adverse events, viral clearance, time to viral clearance, and length of hospital stay. We also prespecified that we would update the review every three months to include new studies.
+# Search strategy
+We searched the Cochrane COVID‐19 Study Register, the Cochrane Central Register of Controlled Trials, MEDLINE, Embase, LILACS, and ClinicalTrials.gov from inception to 26 June 2020. We updated the search on 22 July 2020 and 29 September 2020. The full search strategy is available in Appendix S1.
+# Selection of studies
+Two review authors independently screened titles and abstracts of all citations identified in the search for eligibility. We obtained full texts of all potentially eligible studies and assessed them for eligibility. We resolved disagreements through discussion.
+# Data collection process
+Two review authors independently extracted data from all included studies using a data extraction form. We resolved disagreements through discussion.
+# Risk of bias assessment
+Two review authors independently assessed risk of bias in included RCTs using the Cochrane Risk of Bias tool[START_SUP]3[END_SUP] and in included non‐randomized studies using the Newcastle–Ottawa Scale.[START_SUP]4[END_SUP]
+# Data synthesis
+We conducted a random‐effects meta‐analysis for the outcomes of all‐cause mortality, serious adverse events, and viral clearance, using Review Manager 5.3.[START_SUP]5[END_SUP] We calculated risk ratios (RRs) with 95% confidence intervals (CIs) for dichotomous outcomes and mean differences (MDs) with 95% CIs for continuous outcomes. We did not pool results for the outcomes of time to viral clearance and length of hospital stay because these outcomes were reported as median and range in most studies. We conducted a subgroup analysis of studies that used high‐titer convalescent plasma.
+# Results
+We included 12 studies in the living systematic review, including 11 RCTs and one non‐randomized controlled trial (Figure 1).[START_SUP]6[END_SUP], [START_SUP]7[END_SUP], [START_SUP]8[END_SUP], [START_SUP]9[END_SUP], [START_SUP]10[END_SUP], [START_SUP]11[END_SUP], [START_SUP]12[END_SUP], [START_SUP]13[END_SUP], [START_SUP]14[END_SUP], [START_SUP]15[END_SUP], [START_SUP]16[END_SUP] The characteristics of included studies are shown in Table 1. The studies included a total of 2193 participants, including 1055 participants in the intervention group and 1138 participants in the control group.
+Figure 1: PRISMA flow diagram
+Table 1: Characteristics of included studies
+Data were available from two studies.
+a: Data were available from three studies.
+b: Data were available from three studies.
+c: Data were available from three studies.
+d: Data were available from four studies.
+e: 
+# Risk of bias in included studies
+The risk of bias in the included RCTs is shown in Figure 2. All RCTs were judged to be at high risk of bias due to inadequate generation of the allocation sequence, allocation concealment, and blinding of participants and personnel. The non‐randomized controlled trial was judged to be at high risk of bias due to confounding and incomplete outcome data.
+Figure 2: Risk of bias in included randomized controlled trials
+# Effects of convalescent plasma on all‐cause mortality
+We included five RCTs and one non‐randomized controlled trial that reported all‐cause mortality.[START_SUP]6[END_SUP], [START_SUP]7[END_SUP], [START_SUP]8[END_SUP], [START_SUP]9[END_SUP], [START_SUP]11[END_SUP], [START_SUP]16[END_SUP] All RCTs were judged to be at high risk of bias. One RCT was judged to be at low risk of bias, but was excluded from the meta‐analysis because it was a single‐arm study.[START_SUP]16[END_SUP]
+The overall risk of all‐cause mortality was low (RR 0.59, 95% CI 0.35 to 1.00; Figure 3). There was no significant heterogeneity (I[START_SUP]2[END_SUP] = 0%; Figure 3).
+Figure 3: Forest plot of all‐cause mortality
+# Effects of convalescent plasma on serious adverse events
+We included seven RCTs and one non‐randomized controlled trial that reported serious adverse events.[START_SUP]6[END_SUP], [START_SUP]7[END_SUP], [START_SUP]8[END_SUP], [START_SUP]9[END_SUP], [START_SUP]10[END_SUP], [START_SUP]11[END_SUP], [START_SUP]12[END_SUP] All RCTs were judged to be at high risk of bias.
+The overall risk of serious adverse events was low (RR 0.75, 95% CI 0.37 to 1.51; Figure 4). There was no significant heterogeneity (I[START_SUP]2[END_SUP] = 0%; Figure 4).
+Figure 4: Forest plot of serious adverse events
+# Effects of convalescent plasma on viral clearance
+We included six RCTs and one non‐randomized controlled trial that reported viral clearance.[START_SUP]6[END_SUP], [START_SUP]7[END_SUP], [START_SUP]8[END_SUP], [START_SUP]9[END_SUP], [START_SUP]11[END_SUP], [START_SUP]16[END_SUP] All RCTs were judged to be at high risk of bias. One RCT was judged to be at low risk of bias, but was excluded from the meta‐analysis because it was a single‐arm study.[START_SUP]16[END_SUP]
+The overall risk of viral clearance was high (RR 1.53, 95% CI 1.15 to 2.04; Figure 5). There was significant heterogeneity (I[START_SUP]2[END_SUP] = 78%; Figure 5).
+Figure 5: Forest plot of viral clearance
+# Effects of convalescent plasma on time to viral clearance
+We included five RCTs and one non‐randomized controlled trial that reported time to viral clearance.[START_SUP]6[END_SUP], [START_SUP]7[END_SUP], [START_SUP]8[END_SUP], [START_SUP]9[END_SUP], [START_SUP]11[END_SUP], [START_SUP]16[END_SUP] All RCTs were judged to be at high risk of bias. One RCT was judged to be at low risk of bias, but was excluded from the meta‐analysis because it was a single‐arm study.[START_SUP]16[END_SUP]
+The overall risk of time to viral clearance was low (MD −1.13 days, 95% CI −2.18 to −0.08; Figure 6). There was no significant heterogeneity (I[START_SUP]2[END_SUP] = 0%; Figure 6).
+Figure 6: Forest plot of time to viral clearance
+# Effects of convalescent plasma on length of hospital stay
+We included six RCTs and one non‐randomized controlled trial that reported length of hospital stay.[START_SUP]6[END_SUP], [START_SUP]7[END_SUP], [START_SUP]8[END_SUP], [START_SUP]9[END_SUP], [START_SUP]10[END_SUP], [START_SUP]11[END_SUP] All RCTs were judged to be at high risk of bias. One RCT was judged to be at low risk of bias, but was excluded from the meta‐analysis because it was a single‐arm study.[START_SUP]16[END_SUP]
+The overall risk of length of hospital stay was low (MD −0.41 days, 95% CI −1.18 to 0.37; Figure 7). There was significant heterogeneity (I[START_SUP]2[END_SUP] = 92%; Figure 7).
+Figure 7: Forest plot of length of hospital stay
+# Subgroup analysis of studies using high‐titer convalescent plasma
+We included three RCTs and one non‐randomized controlled trial that used high‐titer convalescent plasma.[START_SUP]7[END_SUP], [START_SUP]9[END_SUP], [START_SUP]11[END_SUP], [START_SUP]12[END_SUP] All RCTs were judged to be at high risk of bias. One RCT was judged to be at low risk of bias, but was excluded from the meta‐analysis because it was a single‐arm study.[START_SUP]12[END_SUP]
+The overall risk of all‐cause mortality was low (RR 0.53, 95% CI 0.24 to 1.16; Figure 8). There was no significant heterogeneity (I[START_SUP]2[END_SUP] = 0%; Figure 8).
+Figure 8: Forest plot of all‐cause mortality in studies using high‐titer convalescent plasma
+The overall risk of serious adverse events was low (RR 0.60, 95% CI 0.19 to 1.94; Figure 9). There was no significant heterogeneity (I[START_SUP]2[END_SUP] = </t>
+  </si>
+  <si>
+    <t># Cognitive stimulation to improve cognitive functioning in people with dementia
+# Cognitive stimulation interventions
+Cognitive stimulation interventions are designed to improve cognitive functioning in people with dementia. This can be achieved by providing them with a range of cognitive tasks or activities that engage their memory, language, reasoning and other cognitive skills [[START_REF] The effects of a computer-based cognitive training program in healthy older adults: A pilot study, González-Palau[END_REF]]. Cognitive stimulation is not a treatment for dementia, but rather a strategy that can be used to delay the onset or slow the progression of dementia [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. Cognitive stimulation has been used to support people with dementia in a variety of settings, including in the home, in day centres and in the community [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]].
+# The effects of cognitive stimulation interventions on cognition
+The effects of cognitive stimulation interventions on cognition have been widely investigated. The majority of the evidence comes from small-scale randomised controlled trials, with a limited number of studies of higher methodological quality. A review of 11 randomised controlled trials concluded that cognitive stimulation can improve cognitive functioning in people with dementia [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. This review also found that cognitive stimulation interventions that include a combination of tasks, activities and activities of daily living are more effective than those that include only tasks or activities of daily living. However, there is also some evidence that cognitive stimulation may not have any effect on cognition in people with dementia. In a recent randomised controlled trial, participants in the cognitive stimulation intervention group did not show any improvement in cognition compared to the control group [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. The authors attributed this finding to the small sample size and the low intensity of the cognitive stimulation intervention [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]].
+# Cognitive stimulation to improve cognitive functioning in people with dementia
+# Cognitive stimulation interventions and other outcomes
+There is also evidence that cognitive stimulation interventions can improve a range of other outcomes in people with dementia. In a review of 11 randomised controlled trials, the authors concluded that cognitive stimulation interventions can improve the quality of life and mood of people with dementia [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. However, this review also found that the quality of the evidence for the effects of cognitive stimulation on these outcomes was low [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. The effects of cognitive stimulation on these outcomes have also been investigated in a few higher quality randomised controlled trials. In a randomised controlled trial, cognitive stimulation was found to improve quality of life in people with dementia, but only when it was provided for longer than 12 weeks [[START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]]. In a randomised controlled trial, cognitive stimulation was found to improve the mood of people with dementia [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF]]. In another randomised controlled trial, cognitive stimulation was found to improve the mood of people with dementia, but only when it was provided for longer than 12 weeks [[START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]]. However, the quality of evidence for the effects of cognitive stimulation on these outcomes was low in these studies [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF], [START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]].
+There is also evidence that cognitive stimulation interventions can improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. In a review of 11 randomised controlled trials, the authors concluded that cognitive stimulation interventions can improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. In a randomised controlled trial, cognitive stimulation was found to improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF]]. In another randomised controlled trial, cognitive stimulation was found to improve the ability of people with dementia to perform activities of daily living, but only when it was provided for longer than 12 weeks [[START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]]. The quality of evidence for the effects of cognitive stimulation on these outcomes was low in these studies [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF], [START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]].
+# Cognitive stimulation to improve cognitive functioning in people with dementia
+# Cognitive stimulation interventions and adverse events
+There is also some evidence that cognitive stimulation interventions can improve the quality of life and mood of people with dementia [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. However, this review also found that the quality of the evidence for the effects of cognitive stimulation on these outcomes was low [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. The effects of cognitive stimulation on these outcomes have also been investigated in a few higher quality randomised controlled trials. In a randomised controlled trial, cognitive stimulation was found to improve quality of life in people with dementia, but only when it was provided for longer than 12 weeks [[START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]]. In a randomised controlled trial, cognitive stimulation was found to improve the mood of people with dementia [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF]]. In another randomised controlled trial, cognitive stimulation was found to improve the mood of people with dementia, but only when it was provided for longer than 12 weeks [[START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]]. However, the quality of evidence for the effects of cognitive stimulation on these outcomes was low in these studies [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF], [START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]].
+# Cognitive stimulation to improve cognitive functioning in people with dementia
+# Cognitive stimulation interventions and adverse events
+There is also some evidence that cognitive stimulation interventions can improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. In a review of 11 randomised controlled trials, the authors concluded that cognitive stimulation interventions can improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. In a randomised controlled trial, cognitive stimulation was found to improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF]]. In another randomised controlled trial, cognitive stimulation was found to improve the ability of people with dementia to perform activities of daily living, but only when it was provided for longer than 12 weeks [[START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]]. The quality of evidence for the effects of cognitive stimulation on these outcomes was low in these studies [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF], [START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]].
+# Cognitive stimulation to improve cognitive functioning in people with dementia
+# Cognitive stimulation interventions and adverse events
+There is also some evidence that cognitive stimulation interventions can improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. In a review of 11 randomised controlled trials, the authors concluded that cognitive stimulation interventions can improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation to improve cognitive functioning in people with dementia., Woods[END_REF]]. In a randomised controlled trial, cognitive stimulation was found to improve the ability of people with dementia to perform activities of daily living [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF]]. In another randomised controlled trial, cognitive stimulation was found to improve the ability of people with dementia to perform activities of daily living, but only when it was provided for longer than 12 weeks [[START_REF] A randomized controlled trial of cognitive stimulation therapy for people with dementia: effects on quality of life, Woods[END_REF]]. The quality of evidence for the effects of cognitive stimulation on these outcomes was low in these studies [[START_REF] Cognitive stimulation for dementia: effects on cognition, mood and behavior in patients with Alzheimer's disease, Orgeta[END_REF], [START_REF] A randomized controlled trial of cognitive</t>
+  </si>
+  <si>
+    <t># Control interventions in randomised trials among people with mental health disorders
+A total of 21 randomised trials (19 unique interventions) were included in the review (Table 2). The majority of studies were conducted in high-income countries (15 studies, 71%), while five studies (24%) were conducted in middle-income countries (three in India and two in Brazil). In total, 15 studies (71%) were published in the last decade. In 15 studies (71%), the interventions were delivered by mental health professionals, while in the remaining six studies (29%), the interventions were delivered by lay health workers. The majority of the studies (18 studies, 86%) were delivered at the individual level, while three studies (14%) were delivered at the group level.
+Table 2: Characteristics of included randomised trials of control interventions among people with mental health disorders
+# Control interventions
+The most common control intervention was a waitlist control (11 studies, 52%). Other common control interventions included usual care (seven studies, 33%) and no treatment (three studies, 14%). The number of sessions of the control interventions ranged from one to 10 sessions.
+# Mental health outcomes
+In total, 15 studies (71%) reported outcomes related to depression, anxiety, stress, or mental well-being, and six studies (29%) reported outcomes related to depression, anxiety, or PTSD. The most common mental health outcome reported was depression (19 studies, 90%), followed by anxiety (14 studies, 67%), stress (13 studies, 62%), and mental well-being (12 studies, 57%). The remaining outcomes reported included suicidal ideation, PTSD, and alcohol use. The most common mental health outcome reported was the depression scale (18 studies, 86%), followed by the anxiety scale (13 studies, 62%), stress scale (12 studies, 57%), and mental well-being scale (10 studies, 48%).
+# Quality assessment
+All 21 studies (100%) were randomised controlled trials (RCTs). In terms of quality, the overall risk of bias of the included studies was low (Figure 2). Of the 21 studies, six studies (29%) had high risk of bias for the blinding of participants and personnel, and five studies (24%) had high risk of bias for the blinding of outcome assessment. The most common reason for high risk of bias was lack of blinding. In terms of attrition bias, three studies (14%) had high risk of bias. The most common reason for high risk of bias was incomplete outcome data.
+Figure 2: Risk of bias assessment
+# Effects of control interventions
+# Depression
+Six studies (33%) reported effects on depression (Table 3). Two studies were conducted in high-income countries and four studies were conducted in middle-income countries. Four studies were delivered by mental health professionals and two studies were delivered by lay health workers. All studies were delivered at the individual level. Two studies (33%) reported significant effects of control interventions on depression compared with the waitlist control. Two studies (33%) reported significant effects of control interventions on depression compared with the usual care. One study (17%) reported significant effects of control interventions on depression compared with no treatment.
+Table 3: Effects of control interventions on depression among people with mental health disorders
+# Anxiety
+Four studies (24%) reported effects on anxiety (Table 4). Two studies were conducted in high-income countries and two studies were conducted in middle-income countries. One study was delivered by mental health professionals and three studies were delivered by lay health workers. All studies were delivered at the individual level. One study (25%) reported significant effects of control interventions on anxiety compared with the waitlist control. One study (25%) reported significant effects of control interventions on anxiety compared with no treatment.
+Table 4: Effects of control interventions on anxiety among people with mental health disorders
+# Stress
+Three studies (14%) reported effects on stress (Table 5). One study was conducted in a high-income country and two studies were conducted in middle-income countries. Two studies were delivered by mental health professionals and one study was delivered by lay health workers. All studies were delivered at the individual level. Two studies (67%) reported significant effects of control interventions on stress compared with the waitlist control. One study (33%) reported significant effects of control interventions on stress compared with no treatment.
+Table 5: Effects of control interventions on stress among people with mental health disorders
+# Mental well-being
+Two studies (11%) reported effects on mental well-being (Table 6). One study was conducted in a high-income country and one study was conducted in a middle-income country. One study was delivered by mental health professionals and one study was delivered by lay health workers. All studies were delivered at the individual level. One study (50%) reported significant effects of control interventions on mental well-being compared with the waitlist control.
+Table 6: Effects of control interventions on mental well-being among people with mental health disorders
+# Suicidal ideation
+One study (5%) reported effects on suicidal ideation (Table 7). This study was conducted in a high-income country and delivered by lay health workers. The study reported significant effects of control interventions on suicidal ideation compared with the waitlist control.
+Table 7: Effects of control interventions on suicidal ideation among people with mental health disorders
+# PTSD
+One study (5%) reported effects on PTSD (Table 8). This study was conducted in a high-income country and delivered by mental health professionals. The study reported significant effects of control interventions on PTSD compared with the waitlist control.
+Table 8: Effects of control interventions on PTSD among people with mental health disorders
+# Alcohol use
+One study (5%) reported effects on alcohol use (Table 9). This study was conducted in a high-income country and delivered by mental health professionals. The study reported significant effects of control interventions on alcohol use compared with the waitlist control.
+Table 9: Effects of control interventions on alcohol use among people with mental health disorders
+# Discussion
+This systematic review found that control interventions, including waitlist controls, usual care, and no treatment, were effective in reducing depression, anxiety, stress, and mental well-being in people with mental health disorders. We found no evidence for the effectiveness of control interventions in reducing suicidal ideation, PTSD, and alcohol use. In addition, the overall risk of bias of the included studies was low.
+To our knowledge, this is the first systematic review to examine the effects of control interventions in randomised trials among people with mental health disorders. The findings of our review are consistent with previous systematic reviews that examined the effects of control interventions in randomised trials among the general population. Previous systematic reviews found that control interventions, including waitlist controls, usual care, and no treatment, were effective in reducing depression, anxiety, and stress in the general population [[START_REF] Waiting list may be a nocebo condition in psychotherapy trials: a contribution from network meta-analysis, Furukawa[END_REF]-[START_REF] A systematic review of wait-list control groups in antidepressant trials, Furukawa[END_REF]].
+The effects of control interventions on mental health may be explained by several factors. First, control interventions, including waitlist controls, usual care, and no treatment, are not placebo interventions. In other words, control interventions are not intended to change the symptoms of mental health disorders but are designed to control for the effects of non-specific factors, such as attention, time, and expectations [[START_REF] Waiting list may be a nocebo condition in psychotherapy trials: a contribution from network meta-analysis, Furukawa[END_REF]]. Second, control interventions are not intended to change the mental health status of people with mental health disorders. Therefore, the control interventions may not be effective in improving mental health outcomes among people with mental health disorders. Third, control interventions are designed to control for the effects of non-specific factors, such as attention, time, and expectations. However, it is possible that non-specific factors may have different effects on people with mental health disorders and the general population. For example, people with mental health disorders may be more susceptible to non-specific factors, such as time and expectations, than people without mental health disorders [[START_REF] The role of expectation in non-specific effects of psychotherapy: The importance of the therapeutic relationship, Bennouna-Greene[END_REF]]. In addition, people with mental health disorders may not receive the same benefits from non-specific factors, such as time and expectations, as people without mental health disorders. For example, people with mental health disorders may not be able to attend all the sessions of the intervention as people without mental health disorders. Fourth, the non-specific factors, such as attention, time, and expectations, may have different effects on people with mental health disorders and the general population. For example, people with mental health disorders may have a different perception of the</t>
+  </si>
+  <si>
+    <t># Stem cell‐based interventions for the prevention and treatment of intraventricular haemorrhage and encephalopathy of prematurity in preterm infants
+# A. S. S. Hadders‐Algra
+# Department of Neonatology, Academic Medical Center, Amsterdam, The Netherlands
+Intraventricular haemorrhage (IVH) and encephalopathy of prematurity (EoP) are the two most common and most devastating complications in preterm infants. The development of these complications is a complex process and is determined by multiple factors, including the vascular and inflammatory responses of the developing brain, the presence of pre‐existing cerebrovascular abnormalities and antenatal and postnatal risk factors. The vascular response to preterm birth is a dynamic process that involves changes in the expression of angiogenic growth factors and their receptors, and alterations in endothelial function. Inflammation and the complement system are important players in the development of IVH and EoP. Pre‐existing cerebrovascular abnormalities, such as abnormal cortical vascularity and arterial tortuosity, may contribute to the development of IVH. Antenatal and postnatal risk factors, such as intrauterine growth restriction, pre‐eclampsia, respiratory distress syndrome and sepsis, are associated with an increased risk of IVH and EoP. The most important risk factors for the development of IVH and EoP are gestational age and birth weight.
+Current clinical management of preterm infants at risk for IVH and EoP includes intensive care and nutritional support, and treatment of respiratory and other complications. There is no consensus on the best treatment to prevent or treat IVH and EoP. Recent studies suggest that stem cell therapy may be a promising treatment to prevent or treat IVH and EoP in preterm infants. Several studies have shown that mesenchymal stem cells (MSCs) reduce the development of IVH and EoP in animal models of preterm birth. MSCs reduce IVH and EoP in preterm rabbits by suppressing inflammation, decreasing apoptosis and decreasing oxidative stress. Furthermore, MSCs may reduce the development of IVH and EoP in preterm lambs by promoting angiogenesis. MSCs are a promising candidate for the prevention and treatment of IVH and EoP in preterm infants. However, the underlying mechanisms of action of MSCs need to be further investigated, and larger studies are needed to determine the optimal timing and dose of MSC therapy for preterm infants.
+# Stem cell‐based interventions for the prevention and treatment of intraventricular haemorrhage and encephalopathy of prematurity in preterm infants
+# B. P. D. M. Smit
+# Department of Pediatrics, University Medical Center Groningen, Groningen, The Netherlands
+Intraventricular haemorrhage (IVH) and encephalopathy of prematurity (EoP) are the two most common and most devastating complications in preterm infants. The development of these complications is a complex process and is determined by multiple factors, including the vascular and inflammatory responses of the developing brain, the presence of pre‐existing cerebrovascular abnormalities and antenatal and postnatal risk factors. The vascular response to preterm birth is a dynamic process that involves changes in the expression of angiogenic growth factors and their receptors, and alterations in endothelial function. Inflammation and the complement system are important players in the development of IVH and EoP. Pre‐existing cerebrovascular abnormalities, such as abnormal cortical vascularity and arterial tortuosity, may contribute to the development of IVH. Antenatal and postnatal risk factors, such as intrauterine growth restriction, pre‐eclampsia, respiratory distress syndrome and sepsis, are associated with an increased risk of IVH and EoP. The most important risk factors for the development of IVH and EoP are gestational age and birth weight.
+Current clinical management of preterm infants at risk for IVH and EoP includes intensive care and nutritional support, and treatment of respiratory and other complications. There is no consensus on the best treatment to prevent or treat IVH and EoP. Recent studies suggest that stem cell therapy may be a promising treatment to prevent or treat IVH and EoP in preterm infants. Several studies have shown that mesenchymal stem cells (MSCs) reduce the development of IVH and EoP in animal models of preterm birth. MSCs reduce IVH and EoP in preterm rabbits by suppressing inflammation, decreasing apoptosis and decreasing oxidative stress. Furthermore, MSCs may reduce the development of IVH and EoP in preterm lambs by promoting angiogenesis. MSCs are a promising candidate for the prevention and treatment of IVH and EoP in preterm infants. However, the underlying mechanisms of action of MSCs need to be further investigated, and larger studies are needed to determine the optimal timing and dose of MSC therapy for preterm infants.
+# Stem cell‐based interventions for the prevention and treatment of intraventricular haemorrhage and encephalopathy of prematurity in preterm infants
+# C. M. L. van Tilburg
+# Department of Pediatrics, Academic Medical Center, Amsterdam, The Netherlands
+Intraventricular haemorrhage (IVH) and encephalopathy of prematurity (EoP) are the two most common and most devastating complications in preterm infants. The development of these complications is a complex process and is determined by multiple factors, including the vascular and inflammatory responses of the developing brain, the presence of pre‐existing cerebrovascular abnormalities and antenatal and postnatal risk factors. The vascular response to preterm birth is a dynamic process that involves changes in the expression of angiogenic growth factors and their receptors, and alterations in endothelial function. Inflammation and the complement system are important players in the development of IVH and EoP. Pre‐existing cerebrovascular abnormalities, such as abnormal cortical vascularity and arterial tortuosity, may contribute to the development of IVH. Antenatal and postnatal risk factors, such as intrauterine growth restriction, pre‐eclampsia, respiratory distress syndrome and sepsis, are associated with an increased risk of IVH and EoP. The most important risk factors for the development of IVH and EoP are gestational age and birth weight.
+Current clinical management of preterm infants at risk for IVH and EoP includes intensive care and nutritional support, and treatment of respiratory and other complications. There is no consensus on the best treatment to prevent or treat IVH and EoP. Recent studies suggest that stem cell therapy may be a promising treatment to prevent or treat IVH and EoP in preterm infants. Several studies have shown that mesenchymal stem cells (MSCs) reduce the development of IVH and EoP in animal models of preterm birth. MSCs reduce IVH and EoP in preterm rabbits by suppressing inflammation, decreasing apoptosis and decreasing oxidative stress. Furthermore, MSCs may reduce the development of IVH and EoP in preterm lambs by promoting angiogenesis. MSCs are a promising candidate for the prevention and treatment of IVH and EoP in preterm infants. However, the underlying mechanisms of action of MSCs need to be further investigated, and larger studies are needed to determine the optimal timing and dose of MSC therapy for preterm infants.
+# Stem cell‐based interventions for the prevention and treatment of intraventricular haemorrhage and encephalopathy of prematurity in preterm infants
+# D. H. G. M. F. Dorlinga
+# Department of Neonatology, Academic Medical Center, Amsterdam, The Netherlands
+Intraventricular haemorrhage (IVH) and encephalopathy of prematurity (EoP) are the two most common and most devastating complications in preterm infants. The development of these complications is a complex process and is determined by multiple factors, including the vascular and inflammatory responses of the developing brain, the presence of pre‐existing cerebrovascular abnormalities and antenatal and postnatal risk factors. The vascular response to preterm birth is a dynamic process that involves changes in the expression of angiogenic growth factors and their receptors, and alterations in endothelial function. Inflammation and the complement system are important players in the development of IVH and EoP. Pre‐existing cerebrovascular abnormalities, such as abnormal cortical vascularity and arterial tortuosity, may contribute to the development of IVH. Antenatal and postnatal risk factors, such as intrauterine growth restriction, pre‐eclampsia, respiratory distress syndrome and sepsis, are associated with an increased risk of IVH and EoP. The most important risk factors for the development of IVH and EoP are gestational age and birth weight.
+Current clinical management of preterm infants at risk for IVH and EoP includes intensive care and nutritional support, and treatment of respiratory and other complications. There is no consensus on the best treatment to prevent or treat IVH and EoP. Recent studies suggest that stem cell therapy may be a promising treatment to prevent or treat IVH and EoP in preterm infants. Several studies have shown that mesenchymal stem cells (MSCs) reduce the development of IVH and EoP in animal models of preterm birth. MSCs reduce IVH and EoP in preterm rabbits by suppressing inflammation, decreasing apoptosis and decreasing oxidative stress. Furthermore, MSCs may reduce the development of IVH and EoP in preterm lambs by promoting angiogenesis. MSCs are a promising candidate for the prevention and treatment of IVH and EoP in preterm infants. However, the underlying mechanisms of action of MSCs need to be further investigated, and larger studies are needed to determine the optimal timing and dose of MSC therapy for preterm infants.
+# Stem cell‐based interventions for the prevention and treatment of intraventricular haemorrhage and encephalopathy of prematurity in preterm infants
+# E. A. S. van der Marel
+# Department of Neonatology, Academic Medical Center, Amsterdam, The Netherlands
+Intraventricular haemorrhage (IVH) and encephalopathy of prematurity (EoP) are the two most common and most devastating complications in preterm infants. The development of these complications is a complex process and is determined by multiple factors, including the vascular and inflammatory responses of the developing brain, the presence of pre‐existing cerebrovascular abnormalities and antenatal and postnatal risk factors. The vascular response to preterm birth is a dynamic process that involves changes in the expression of angiogenic growth factors and their receptors, and alterations in endothelial</t>
+  </si>
+  <si>
+    <t># Methods for informing people with amyotrophic lateral sclerosis/motor neuron disease of their diagnosis
+# Key questions
+What methods are used to inform people with amyotrophic lateral sclerosis/motor neuron disease of their diagnosis?
+# Findings
+This review found 13 articles that described methods for informing people with amyotrophic lateral sclerosis/motor neuron disease of their diagnosis. Methods included written information, video information, telephone calls, e-mails, and in-person consultations.
+# Meaning
+These findings suggest that people with amyotrophic lateral sclerosis/motor neuron disease can be informed of their diagnosis using a variety of methods.
+# Importance
+People with amyotrophic lateral sclerosis/motor neuron disease (ALS/MND) often have difficulty understanding the implications of their diagnosis and how to manage their condition.
+# Objective
+To examine methods used to inform people with ALS/MND of their diagnosis.
+# Design, Setting, and Participants
+This systematic review was conducted in accordance with the Preferred Reporting Items for Systematic Reviews and Meta-analyses guidelines and was registered in PROSPERO (CRD42019136854). We searched MEDLINE, Embase, and PsycINFO databases from database inception through July 1, 2019.
+# Main Outcomes and Measures
+The primary outcome was the method used to inform people with ALS/MND of their diagnosis. Secondary outcomes were whether information was provided in a timely manner and the extent to which informed consent was obtained.
+# Results
+We identified 13 articles that described methods used to inform people with ALS/MND of their diagnosis. These methods included written information, video information, telephone calls, e-mails, and in-person consultations.
+# Conclusions and Relevance
+This review suggests that people with ALS/MND can be informed of their diagnosis using a variety of methods.
+This systematic review provides an overview of the methods used to inform people with amyotrophic lateral sclerosis/motor neuron disease of their diagnosis.
+# Introduction
+Amyotrophic lateral sclerosis (ALS) is a fatal neurodegenerative disease that affects motor neurons in the brain and spinal cord.[START_REF] Amyotrophic lateral sclerosis, Rowland[END_REF],[START_REF] Amyotrophic lateral sclerosis, Rowland[END_REF],[START_REF] Amyotrophic lateral sclerosis., Mitchell[END_REF] Motor neuron disease (MND) refers to the collective term for ALS and primary lateral sclerosis, a similar neurodegenerative disease that affects motor neurons in the brain.[START_SUP]4[END_SUP] People with ALS/MND experience a gradual decline in muscle strength and coordination that can lead to death, typically within 3 to 5 years after diagnosis.[START_REF] Amyotrophic lateral sclerosis, Rowland[END_REF],[START_REF] Amyotrophic lateral sclerosis, Rowland[END_REF],[START_REF] Amyotrophic lateral sclerosis., Mitchell[END_REF],[START_REF] Amyotrophic lateral sclerosis: moving towards a new classification system, Al-Chalabi[END_REF]
+People with ALS/MND face a variety of challenges, including a lack of knowledge about the disease and the implications of the diagnosis, difficulties with communication, and concerns about stigma and social isolation.[START_REF] Communication in amyotrophic lateral sclerosis: a systematic review of issues, interventions, and outcomes, Beukelman[END_REF],[START_REF] Communication with persons with amyotrophic lateral sclerosis and their caregivers: a review of the literature, Ashworth[END_REF],[START_REF] A systematic review of communication issues for people with amyotrophic lateral sclerosis/motor neuron disease and their caregivers, Mak[END_REF],[START_REF] Communication needs of patients with amyotrophic lateral sclerosis: a systematic review, Giebel[END_REF],[START_REF] A review of quality of life issues in amyotrophic lateral sclerosis, Strong[END_REF],[START_REF] Living with amyotrophic lateral sclerosis: a phenomenological study, Lulé[END_REF],[START_REF] Experiences of stigma in amyotrophic lateral sclerosis and effects on quality of life, Goldstein[END_REF],[START_REF] Experiences of stigma in ALS, Coyne[END_REF],[START_REF] Experiences of stigma in ALS, Coyne[END_REF],[START_REF] Experiences of stigma in ALS, Coyne[END_REF],[START_REF] Amyotrophic lateral sclerosis and stigma, Lulé[END_REF],[START_REF] A review of the literature on stigma and amyotrophic lateral sclerosis, Hogden[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of stigma in ALS, Coyne[END_REF],[START_REF] The experience of</t>
+  </si>
+  <si>
+    <t># Surgical versus non‐surgical interventions for treating patellar dislocation
+The results of the meta‐analysis showed that the rate of redislocation in the surgical group was lower than that in the non‐surgical group, with a significant difference (RR = 0.23, 95% CI: 0.09–0.58, p = 0.002) (Figure 5).
+FIGURE 5: Comparison of redislocation rate between surgical and non‐surgical interventions
+# Surgical versus non‐surgical interventions for treating recurrent patellar dislocation
+The results of the meta‐analysis showed that the rate of redislocation in the surgical group was lower than that in the non‐surgical group, with a significant difference (RR = 0.21, 95% CI: 0.09–0.50, p = 0.001) (Figure 6).
+FIGURE 6: Comparison of redislocation rate between surgical and non‐surgical interventions
+# Discussion
+The patella is a sesamoid bone that lies between the femur and tibia in the knee joint, and it is located in the superior lateral patellar tendon. Patellar dislocation is a common and serious injury of the knee joint, and it is often accompanied by severe pain, limited range of motion, and even dysfunction.[START_REF] A comparison of the clinical outcomes of medial patellofemoral ligament reconstruction and medial patellotibial ligament reconstruction for recurrent patellar dislocation, Li[END_REF] The etiology of patellar dislocation includes soft tissue injury, patella malalignment, and patella dysplasia.[START_REF] Epidemiology of acute patellar dislocation in children and adolescents: a 20-year population-based study, Huttunen[END_REF]
+The patella is a sesamoid bone that lies between the femur and tibia in the knee joint, and it is located in the superior lateral patellar tendon. The patellar ligament consists of the medial patellofemoral ligament (MPFL), the lateral patellofemoral ligament (LPFL), and the patellar retinaculum (PR).[START_REF] A comparison of the clinical outcomes of medial patellofemoral ligament reconstruction and medial patellotibial ligament reconstruction for recurrent patellar dislocation, Li[END_REF] The MPFL is the main ligament that connects the patella to the femur, and it can prevent the patella from lateral dislocation.[START_REF] A comparison of the clinical outcomes of medial patellofemoral ligament reconstruction and medial patellotibial ligament reconstruction for recurrent patellar dislocation, Li[END_REF]
+In the current study, 24 RCTs involving 2334 patients with patellar dislocation were included, and the meta‐analysis results showed that the rate of redislocation in the surgical group was lower than that in the non‐surgical group, with a significant difference. This finding is consistent with those of previous studies.[START_REF] Comparison of medial patellofemoral ligament reconstruction with or without additional tibial tubercle transfer in recurrent patellar dislocation: a systematic review and meta-analysis, Zhang[END_REF], [START_REF] Surgical versus conservative interventions for treating patellar dislocation, Zhang[END_REF], [START_REF] Medial patellofemoral ligament reconstruction versus medial patellotibial ligament reconstruction for recurrent patellar dislocation: a systematic review and meta-analysis, Zhang[END_REF], [START_REF] Surgical versus non-surgical interventions for treating patellar dislocation, Zhang[END_REF] However, the results of the meta‐analysis showed that there was no significant difference in the rate of redislocation between the two groups, which is inconsistent with the results of previous studies.[START_REF] Medial patellofemoral ligament reconstruction versus medial patellotibial ligament reconstruction for recurrent patellar dislocation: a systematic review and meta-analysis, Zhang[END_REF], [START_REF] Surgical versus non-surgical interventions for treating patellar dislocation, Zhang[END_REF] This difference may be due to the fact that the surgical methods used in the previous studies were not uniform, and the surgical methods included in the current study were all patellar dislocation repair surgery. The results of the current study showed that there was no significant difference in the rate of redislocation between the two groups. The reason may be that most of the studies included in the current study did not have a long‐term follow‐up period, and the follow‐up period of some studies was less than 1 year.
+The current study has several limitations. First, the surgical methods included in the current study were all patellar dislocation repair surgery, and the types of surgical methods were not uniform. Second, the follow‐up time of the included studies was not long enough, and the follow‐up time of some studies was less than 1 year. Third, some studies did not report the specific time of patellar dislocation. Therefore, more RCTs with a longer follow‐up time are needed to verify the results of the current study.
+# Conclusion
+In conclusion, the results of the current study suggest that surgical intervention is superior to non‐surgical intervention in terms of redislocation rate, and it is an effective treatment for patellar dislocation. However, due to the limitations of the current study, further research is needed to verify the results of the current study.
+# Conflict of Interest
+The authors declare that they have no conflict of interest.
+&lt;/s&gt;</t>
+  </si>
+  <si>
+    <t># Topical clonidine for neuropathic pain in adults
+# Summary of evidence
+The systematic review included 26 trials, of which 19 were RCTs (1004 participants). One trial was of low risk of bias and the other 18 trials were of unclear risk of bias.
+The meta-analysis found that topical clonidine significantly reduced the pain intensity of neuropathic pain (SMD −0.29, 95% CI −0.44 to −0.14, p &lt; 0.0001).
+The quality of evidence was rated as low for this outcome, due to risk of bias, imprecision and inconsistency.
+# Topical clonidine for diabetic peripheral neuropathy
+# Summary of evidence
+The systematic review included one RCT (50 participants), of which 30 participants received topical clonidine and 20 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of diabetic peripheral neuropathy (SMD −0.33, 95% CI −1.11 to 0.44, p = 0.41).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for postherpetic neuralgia
+# Summary of evidence
+The systematic review included one RCT (10 participants), of which 6 participants received topical clonidine and 4 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of postherpetic neuralgia (SMD −0.11, 95% CI −1.34 to 1.12, p = 0.85).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for fibromyalgia
+# Summary of evidence
+The systematic review included one RCT (32 participants), of which 16 participants received topical clonidine and 16 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of fibromyalgia (SMD −0.26, 95% CI −0.73 to 0.21, p = 0.27).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for trigeminal neuralgia
+# Summary of evidence
+The systematic review included two RCTs (48 participants), of which 24 participants received topical clonidine and 24 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of trigeminal neuralgia (SMD −0.25, 95% CI −0.58 to 0.08, p = 0.13).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for other neuropathic pain
+# Summary of evidence
+The systematic review included two RCTs (36 participants), of which 18 participants received topical clonidine and 18 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of other neuropathic pain (SMD −0.22, 95% CI −0.59 to 0.16, p = 0.23).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for non-neuropathic pain
+# Summary of evidence
+The systematic review included 13 RCTs, of which 10 were RCTs (703 participants). One trial was of low risk of bias and the other 10 trials were of unclear risk of bias.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of non-neuropathic pain (SMD −0.12, 95% CI −0.27 to 0.03, p = 0.12).
+The quality of evidence was rated as low for this outcome, due to risk of bias, imprecision and inconsistency.
+# Topical clonidine for myofascial pain
+# Summary of evidence
+The systematic review included two RCTs (18 participants), of which 10 participants received topical clonidine and 8 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of myofascial pain (SMD −0.14, 95% CI −0.53 to 0.25, p = 0.47).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for chronic musculoskeletal pain
+# Summary of evidence
+The systematic review included three RCTs (41 participants), of which 22 participants received topical clonidine and 19 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of chronic musculoskeletal pain (SMD −0.11, 95% CI −0.42 to 0.20, p = 0.45).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for other pain
+# Summary of evidence
+The systematic review included two RCTs (16 participants), of which 10 participants received topical clonidine and 6 participants received placebo.
+The meta-analysis found no significant effect of topical clonidine on the pain intensity of other pain (SMD −0.11, 95% CI −0.37 to 0.15, p = 0.38).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Adverse effects
+# Topical clonidine for neuropathic pain in adults
+# Summary of evidence
+The systematic review included 26 trials, of which 19 were RCTs (1004 participants). One trial was of low risk of bias and the other 18 trials were of unclear risk of bias.
+Topical clonidine was associated with a significantly increased risk of adverse events (RR 1.65, 95% CI 1.32 to 2.06, p &lt; 0.0001).
+The quality of evidence was rated as moderate for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for diabetic peripheral neuropathy
+# Summary of evidence
+The systematic review included one RCT (50 participants), of which 30 participants received topical clonidine and 20 participants received placebo.
+Topical clonidine was associated with a significantly increased risk of adverse events (RR 2.50, 95% CI 1.10 to 5.70, p = 0.03).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for postherpetic neuralgia
+# Summary of evidence
+The systematic review included one RCT (10 participants), of which 6 participants received topical clonidine and 4 participants received placebo.
+Topical clonidine was associated with a significantly increased risk of adverse events (RR 3.33, 95% CI 1.04 to 10.67, p = 0.04).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for fibromyalgia
+# Summary of evidence
+The systematic review included one RCT (32 participants), of which 16 participants received topical clonidine and 16 participants received placebo.
+Topical clonidine was associated with a significantly increased risk of adverse events (RR 1.75, 95% CI 1.12 to 2.74, p = 0.01).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for trigeminal neuralgia
+# Summary of evidence
+The systematic review included two RCTs (48 participants), of which 24 participants received topical clonidine and 24 participants received placebo.
+Topical clonidine was associated with a significantly increased risk of adverse events (RR 2.00, 95% CI 1.03 to 3.88, p = 0.04).
+The quality of evidence was rated as very low for this outcome, due to risk of bias and imprecision.
+# Topical clonidine for other neuropathic pain
+# Summary of evidence
+The systematic review included two RCTs (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Antenatal dietary supplementation with myo‐inositol for preventing gestational diabetes
+# S. S. O’Brien[START_SUP]1[END_SUP], D. D. Clifton[START_SUP]1[END_SUP], S. J. Morrison[START_SUP]2[END_SUP], M. A. Crowther[START_SUP]3[END_SUP], A. L. Crowther[START_SUP]3[END_SUP], K. J. Murphy[START_SUP]4[END_SUP], D. M. Crowther[START_SUP]5[END_SUP], E. A. Dunne[START_SUP]1[END_SUP], K. R. Boyle[START_SUP]1[END_SUP], E. A. Dunne[START_SUP]1[END_SUP], R. D. Miller[START_SUP]1[END_SUP], E. A. Dunne[START_SUP]1[END_SUP], S. A. J. O’Brien[START_SUP]1[END_SUP]
+# [START_SUP]1[END_SUP]School of Medicine, University of Western Australia, Perth, Australia; [START_SUP]2[END_SUP]School of Medicine, University of Otago, Dunedin, New Zealand; [START_SUP]3[END_SUP]Mater Mothers’ Hospital, University of Adelaide, Adelaide, Australia; [START_SUP]4[END_SUP]Department of Obstetrics and Gynaecology, Royal Women’s Hospital, Adelaide, Australia; [START_SUP]5[END_SUP]Department of Obstetrics and Gynaecology, Royal Women’s Hospital, Adelaide, Australia
+# Correspondence: S. S. O’Brien
+Background: Gestational diabetes mellitus (GDM) is associated with an increased risk of adverse maternal and neonatal outcomes. Myo‐inositol is an insulin‐sensitising nutrient and may reduce the risk of GDM. We conducted a randomised, placebo‐controlled trial to investigate the effect of antenatal myo‐inositol supplementation on GDM.
+Methods: We conducted a multicentre, double‐blind, placebo‐controlled trial of 1452 pregnant women between 24 and 28 weeks of gestation. Women were randomised to receive either myo‐inositol (1 g/day) or a placebo for 24 weeks. The primary outcome was the development of GDM. Secondary outcomes included pregnancy complications, neonatal anthropometry and glycaemic control.
+Results: We enrolled 1452 women and 1397 completed the study. The incidence of GDM was 20.4% in the myo‐inositol group and 22.1% in the placebo group (odds ratio [OR] 0.89; 95% confidence interval [CI] 0.66, 1.20; P = 0.44). There were no differences in pregnancy complications, neonatal anthropometry or glycaemic control. Women in the myo‐inositol group had a lower rate of pre‐eclampsia (OR 0.61; 95% CI 0.38, 0.99; P = 0.04).
+Conclusions: In this large, randomised trial, antenatal myo‐inositol supplementation did not reduce the risk of GDM. There were no adverse effects of myo‐inositol on pregnancy outcomes. However, myo‐inositol supplementation was associated with a lower rate of pre‐eclampsia.
+Trial registration: The trial was registered with the Australian New Zealand Clinical Trials Registry (ACTRN12614001038885).
+# A205
+# Pregnancy outcomes of 136 women with polycystic ovary syndrome
+# T. T. Yildiz, S. Yilmaz, E. Aydemir, M. O. Erim, H. O. Aksoy
+# Department of Obstetrics and Gynecology, Faculty of Medicine, Atatürk University, Erzurum, Turkey
+# Correspondence: T. T. Yildiz
+Background: Polycystic ovary syndrome (PCOS) is the most common endocrine disorder in women of reproductive age. It is characterized by hyperandrogenism, chronic anovulation and polycystic ovaries. The incidence of PCOS ranges from 6% to 10% in the general population. The aim of this study was to investigate the pregnancy outcomes of women with PCOS.
+Methods: This study included 136 women with PCOS who were diagnosed with the Rotterdam criteria. The patients were examined in the first trimester and the pregnancy outcomes were evaluated in the third trimester.
+Results: The mean age of the patients was 27.6±5.1 years. The mean body mass index was 26.2±5.4 kg/m[START_SUP]2[END_SUP]. The mean gestational age at delivery was 38.8±1.4 weeks. A total of 92 (67.4%) women had term deliveries and 44 (32.6%) women had preterm deliveries. The mean birth weight was 3038.9±453.8 g. There were 46 (33.9%) low birth weight babies and 90 (66.1%) normal birth weight babies. There were 58 (42.4%) macrosomic babies and 78 (57.6%) normal birth weight babies. There were 20 (14.7%) preterm premature rupture of membranes (PPROM) cases. The mean gestational age at PPROM was 32.8±3.5 weeks. The mean birth weight of the PPROM babies was 2762.0±592.2 g. There were 23 (16.8%) congenital malformations and 33 (24.1%) small for gestational age (SGA) babies. The mean birth weight of the babies with congenital malformations was 2964.4±642.4 g. The mean birth weight of the babies with SGA was 2542.5±373.9 g. There were 3 (2.2%) neonatal intensive care unit (NICU) admissions. The mean gestational age at NICU admission was 33.3±1.8 weeks. There were 14 (10.2%) babies with congenital malformations who were admitted to NICU.
+Conclusions: PCOS is a common disorder in women of reproductive age. Pregnancy outcomes of women with PCOS are similar to those of the general population.
+# A206
+# Maternal and neonatal outcomes of pregnancies complicated by obesity
+# L. B. Vianna[START_SUP]1[END_SUP], E. M. S. da Silva[START_SUP]2[END_SUP], C. M. P. de Oliveira[START_SUP]3[END_SUP], R. L. L. Santos[START_SUP]4[END_SUP], J. S. P. da Silva[START_SUP]5[END_SUP], A. R. de Lima[START_SUP]6[END_SUP], C. C. F. da Silva[START_SUP]7[END_SUP], A. M. R. de Lima[START_SUP]8[END_SUP], A. M. R. de Lima[START_SUP]8[END_SUP], E. M. S. da Silva[START_SUP]2[END_SUP], R. L. L. Santos[START_SUP]4[END_SUP], C. M. P. de Oliveira[START_SUP]3[END_SUP], A. R. de Lima[START_SUP]6[END_SUP], C. C. F. da Silva[START_SUP]7[END_SUP], J. S. P. da Silva[START_SUP]5[END_SUP]
+# [START_SUP]1[END_SUP]Department of Obstetrics and Gynecology, Federal University of Sergipe, Aracaju, Brazil; [START_SUP]2[END_SUP]Department of Obstetrics and Gynecology, University Hospital of the Federal University of Sergipe, Aracaju, Brazil; [START_SUP]3[END_SUP]Department of Gynecology and Obstetrics, Hospital de Base do Pará, Recife, Brazil; [START_SUP]4[END_SUP]Department of Obstetrics and Gynecology, University Hospital of the Federal University of Ceará, Fortaleza, Brazil; [START_SUP]5[END_SUP]Department of Obstetrics and Gynecology, University Hospital of the Federal University of Ceará, Fortaleza, Brazil; [START_SUP]6[END_SUP]Department of Obstetrics and Gynecology, University Hospital of the Federal University of Ceará, Fortaleza, Brazil; [START_SUP]7[END_SUP]Department of Gynecology and Obstetrics, University Hospital of the Federal University of Rio Grande do Norte, Natal, Brazil; [START_SUP]8[END_SUP]Department of Obstetrics and Gynecology, University Hospital of the Federal University of Ceará, Fortaleza, Brazil
+# Correspondence: L. B. Vianna
+Background: Obesity is a public health problem. Its incidence has increased in the last decades and is associated with an increased risk of maternal and fetal complications.
+Objective: To evaluate maternal and neonatal outcomes in pregnancies complicated by obesity.
+Methods: A prospective cohort study with pregnant women admitted to 5 different public maternity hospitals in Brazil, between June 2017 and May 2018. The pregnant women were included in the study when they had a body mass index (BMI) of ≥30 kg/m[START_SUP]2[END_SUP]. Maternal and neonatal outcomes were evaluated and compared to those of pregnant women with BMI &lt;30 kg/m[START_SUP]2[END_SUP].
+Results: Of the 1500 pregnant women included in the study, 20.6% (n = 308) were classified as obese (BMI ≥30 kg/m[START_SUP]2[END_SUP]). The mean age of the pregnant women was 28.4 ± 5.1 years. There were no differences in the mean age between the obese and non‐obese groups (P = 0.513). The mean gestational age at delivery was 38.8 ± 1.4 weeks. The mean birth weight was </t>
+  </si>
+  <si>
+    <t># Education support services for improving school engagement and academic performance of children and adolescents with a chronic health condition
+# Background
+The World Health Organization (WHO) defines a child as anyone between the ages of 0 and 14 years []. The United Nations (UN) further divides children into three groups: pre-school age children (0–5 years), primary school age children (6–11 years), and secondary school age children (12–18 years) []. The UN also notes that children who are in school are a valuable resource to their communities and have the potential to improve their socio-economic status []. It is important to ensure that children with a chronic health condition (CHC), such as a chronic medical condition or disability, are included in their schools, so that they can fully participate in their education.
+Children with a CHC are at increased risk of not being included in school [[START_REF] Children with a chronic condition: challenges living, challenges treating, Sawyer[END_REF]–[START_REF] Participation of children with chronic conditions in school: social and emotional aspects, Verrotti[END_REF]]. The lack of inclusion can have a negative impact on their educational progress [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF]]. For example, children with a CHC may experience anxiety and stress, which can result in poor academic performance [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF], [START_REF] The impact of school functioning on health-related quality of life in children with a chronic illness, Klassen[END_REF]]. Poor academic performance can lead to reduced quality of life [[START_REF] The impact of school functioning on health-related quality of life in children with a chronic illness, Klassen[END_REF]]. Poor academic performance also has a negative impact on the health of children with a CHC [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF]]. The presence of a CHC can increase the risk of developing a secondary health condition, which can lead to further complications and poorer quality of life [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF]]. In addition, children with a CHC may not be able to access other health care services (e.g., mental health services) because they are not able to attend school [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF]]. This may increase their risk of developing a secondary health condition [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF]].
+School engagement is a concept that has been used in the education literature to describe a child’s involvement in school [[START_REF] School Engagement: Potential of the Concept, State of the Evidence, Fredricks[END_REF]]. It can be defined as “the quality of a child’s relationships with his or her peers, teachers, and parents” [[START_REF] School Engagement: Potential of the Concept, State of the Evidence, Fredricks[END_REF]]. School engagement is an important concept because it can have a positive impact on children’s academic performance and well-being [[START_REF] School Engagement: Potential of the Concept, State of the Evidence, Fredricks[END_REF]]. Children who are highly engaged in school tend to be more successful in school, and they are less likely to drop out of school or experience poor academic performance [[START_REF] School Engagement: Potential of the Concept, State of the Evidence, Fredricks[END_REF]]. In addition, school engagement has a positive impact on children’s physical and mental health [[START_REF] School Engagement: Potential of the Concept, State of the Evidence, Fredricks[END_REF]]. School engagement is also important because it is a strong predictor of academic performance in children with a CHC [[START_REF] School engagement and school dropout: a literature review, Azevedo[END_REF]]. Children who are highly engaged in school tend to have higher academic performance [[START_REF] School engagement and school dropout: a literature review, Azevedo[END_REF]].
+There is a lack of research on school engagement in children with a CHC. However, the research that does exist indicates that children with a CHC have lower levels of school engagement than children without a CHC [[START_REF] Participation of children with chronic conditions in school: social and emotional aspects, Verrotti[END_REF], [START_REF] The relationship between school engagement and self-esteem in children with and without chronic health conditions, Sawyer[END_REF], [START_REF] Social participation and school engagement in children and adolescents with and without chronic physical conditions, Verloigne[END_REF]]. Children with a CHC also tend to experience lower levels of peer engagement than children without a CHC [[START_REF] Social participation and school engagement in children and adolescents with and without chronic physical conditions, Verloigne[END_REF]]. In addition, children with a CHC experience lower levels of teacher engagement than children without a CHC [[START_REF] Participation of children with chronic conditions in school: social and emotional aspects, Verrotti[END_REF], [START_REF] Social participation and school engagement in children and adolescents with and without chronic physical conditions, Verloigne[END_REF]]. Children with a CHC also experience lower levels of parent engagement than children without a CHC [[START_REF] Social participation and school engagement in children and adolescents with and without chronic physical conditions, Verloigne[END_REF]].
+The lack of research on school engagement in children with a CHC is concerning because children with a CHC tend to have lower levels of school engagement than children without a CHC [[START_REF] Participation of children with chronic conditions in school: social and emotional aspects, Verrotti[END_REF], [START_REF] The relationship between school engagement and self-esteem in children with and without chronic health conditions, Sawyer[END_REF], [START_REF] Social participation and school engagement in children and adolescents with and without chronic physical conditions, Verloigne[END_REF]]. There is also a lack of research on the effect of interventions to improve school engagement in children with a CHC. The few studies that have been conducted on the effect of interventions to improve school engagement in children with a CHC have focused on improving peer and teacher engagement [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF], [START_REF] The relationship between school engagement and self-esteem in children with and without chronic health conditions, Sawyer[END_REF]]. The research on the effect of interventions to improve parent engagement in children with a CHC is even more limited. In addition, most of the research on the effect of interventions to improve school engagement in children with a CHC has focused on school-based interventions [[START_REF] The school and children with chronic conditions: A scoping review, McBrien[END_REF], [START_REF] The relationship between school engagement and self-esteem in children with and without chronic health conditions, Sawyer[END_REF]]. This may be because children with a CHC are more likely to be at risk of not being included in school, and school-based interventions are a way of supporting children with a CHC to be included in school.
+This scoping review was undertaken to identify and map the available literature on school engagement in children and adolescents with a CHC and to explore the evidence on the effect of education support services for improving school engagement and academic performance of children and adolescents with a CHC. The findings from this scoping review can inform the development of future research and education support services for improving school engagement and academic performance of children and adolescents with a CHC.
+# Methods
+This scoping review was undertaken to identify and map the available literature on school engagement in children and adolescents with a CHC and to explore the evidence on the effect of education support services for improving school engagement and academic performance of children and adolescents with a CHC. The scoping review was undertaken in accordance with the Joanna Briggs Institute methodology for scoping reviews [[START_REF] Chapter 11: Scoping reviews, Peters[END_REF]]. The protocol for this scoping review was registered on the Open Science Framework (OSF) platform (https://osf.io/54wz2).
+# Inclusion and exclusion criteria
+This scoping review included peer-reviewed and grey literature on school engagement in children and adolescents with a CHC and the effect of education support services for improving school engagement and academic performance of children and adolescents with a CHC. The scoping review included studies published in the English language between January 2000 and December 2020.
+The population of interest in this scoping review included children and adolescents with a CHC. The definition of a CHC was based on the definition of the WHO, which states that a CHC is a “long-term physical, mental, or social condition” []. Studies that focused on children and adolescents with a specific chronic medical condition, such as type 1 diabetes, were included in this scoping review. Studies that focused on children and adolescents with a disability were also included in this scoping review.
+The concept of interest in this scoping review was school engagement. School engagement was defined as “the quality of a child’s relationships with his or her peers, teachers, and parents” [[START_REF] School Engagement: Potential of the Concept, State of the Evidence, Fredricks[END_REF]]. The definition of school engagement was based on the definition of school engagement from the education literature [[START_REF] School Engagement: Potential of the Concept, State of the Evidence, Fredricks[END_REF]]. The concept of interest in this scoping review also included the effect of education support services for improving school engagement and academic performance of children and adolescents with a CHC. The definition of education support services for improving school engagement and academic performance of children and adolescents with a CHC was based on the definition of education support services from the WHO, which states that education support services are “services that can be provided by school staff or other professionals to children and adolescents with</t>
+  </si>
+  <si>
+    <t># Day 5 versus day 3 embryo biopsy for preimplantation genetic testing for monogenic/single gene defects
+A single blastocyst biopsy was performed at day 5 and day 3 (day 3B) and tested for monogenic/single gene defects in 24 patients with a previous PGT-A failure and in 25 patients with a previous PGT-M failure. A total of 218 blastocysts were biopsied at day 5 and 220 blastocysts at day 3B. The mean number of blastomeres analysed was 12.8 (range 11–14) at day 5 and 8.4 (range 7–10) at day 3B. All patients were transferred with a single blastocyst on day 5 or day 3B, according to the day of biopsy.
+The results of this analysis are shown in Table 1. For PGT-A, the rates of euploid blastocysts at day 5 (58.2%) and day 3B (61.9%) were similar (P = 0.61). For PGT-M, the rates of Mosaic embryos at day 5 (41.8%) and day 3B (42.9%) were also similar (P = 0.93). In 24 patients with a previous PGT-A failure, 20 blastocysts were transferred. In this group, a total of 13 patients (54.2%) had a biochemical pregnancy, 10 (45.8%) had a clinical pregnancy and 8 (33.3%) had a live birth. In 25 patients with a previous PGT-M failure, 21 blastocysts were transferred. In this group, a total of 13 patients (52%) had a biochemical pregnancy, 11 (44%) had a clinical pregnancy and 9 (36%) had a live birth. The rates of clinical pregnancy and live birth were similar in the two groups (P = 0.76).Table 1: Biopsy at day 5 versus day 3 for preimplantation genetic testing for monogenic/single gene defects
+# Discussion
+The results of this study show that the rates of euploid blastocysts were similar after blastocyst biopsy at day 5 and day 3. In the majority of cases, embryos with a normal chromosomal complement were transferred, which is a very important consideration in patients undergoing PGT for monogenic/single gene defects. In addition, the clinical pregnancy and live birth rates were similar after blastocyst biopsy at day 5 and day 3. The data also show that a higher proportion of blastocysts with Mosaicism were observed after blastocyst biopsy at day 3. In these patients, a normal chromosomal complement was found in the trophectoderm, suggesting that the biopsy at day 3 may have removed a portion of the inner cell mass, which may have been the Mosaicism.
+Several studies have analysed the differences in the results of embryo biopsy performed at different developmental stages [[START_REF] Cleavage stage versus blastocyst stage embryo transfer in assisted reproductive technology, Glujovsky[END_REF], [START_REF] Blastocyst biopsy with comprehensive chromosome screening and fresh embryo transfer significantly increases in vitro fertilization implantation and delivery rates: a randomized controlled trial., Scott[END_REF], [START_REF] Cleavage-stage biopsy significantly impairs human embryonic implantation potential while blastocyst biopsy does not: a randomized and paired clinical trial., Scott[END_REF], [START_REF] Blastocyst biopsy for PGT-A: is day 3 a better time than day 5?, Magli[END_REF], [START_REF] Day 3 versus day 5 embryo transfer: a randomized controlled trial, Wong[END_REF]]. In 2009, Scott et al. showed that blastocyst biopsy significantly increased the implantation and delivery rates of patients undergoing IVF [[START_REF] Blastocyst biopsy with comprehensive chromosome screening and fresh embryo transfer significantly increases in vitro fertilization implantation and delivery rates: a randomized controlled trial., Scott[END_REF]]. In 2010, Scott et al. demonstrated that the implantation potential of embryos biopsied at the cleavage stage was significantly lower than that of embryos biopsied at the blastocyst stage [[START_REF] Cleavage-stage biopsy significantly impairs human embryonic implantation potential while blastocyst biopsy does not: a randomized and paired clinical trial., Scott[END_REF]]. However, Magli et al. showed that blastocyst biopsy was as effective as cleavage-stage biopsy for PGT-A [[START_REF] Blastocyst biopsy for PGT-A: is day 3 a better time than day 5?, Magli[END_REF]]. In 2012, Wong et al. showed that embryo biopsy at day 3 was as effective as embryo biopsy at day 5 for PGT-A [[START_REF] Day 3 versus day 5 embryo transfer: a randomized controlled trial, Wong[END_REF]]. In 2015, Glujovsky et al. showed that embryo biopsy at day 3 was not inferior to embryo biopsy at day 5 for PGT-A [[START_REF] Cleavage stage versus blastocyst stage embryo transfer in assisted reproductive technology, Glujovsky[END_REF]]. In 2017, Greco et al. demonstrated that the blastocyst stage was associated with a higher rate of euploid blastocysts for PGT-A [[START_REF] Blastocyst biopsy versus cleavage stage biopsy for preimplantation genetic testing: a systematic review and meta-analysis., Greco[END_REF]].
+In the present study, the rates of euploid blastocysts were similar after blastocyst biopsy at day 5 and day 3. The rate of Mosaic embryos was higher after blastocyst biopsy at day 3. This may have been because the trophectoderm was removed at day 3, which may have resulted in the removal of a portion of the inner cell mass. This was confirmed by the observation that the implantation potential of Mosaic embryos was higher than that of euploid embryos [[START_REF] Clinical application of comprehensive chromosomal screening at the blastocyst stage, Schoolcraft[END_REF]]. In the present study, we also showed that the rates of clinical pregnancy and live birth were similar after blastocyst biopsy at day 5 and day 3. These data are in agreement with the data reported by Glujovsky et al., who demonstrated that the clinical pregnancy and live birth rates were similar after blastocyst biopsy at day 5 and day 3 [[START_REF] Cleavage stage versus blastocyst stage embryo transfer in assisted reproductive technology, Glujovsky[END_REF]].
+In 2017, Greco et al. showed that the blastocyst stage was associated with a higher rate of euploid blastocysts for PGT-A [[START_REF] Blastocyst biopsy versus cleavage stage biopsy for preimplantation genetic testing: a systematic review and meta-analysis., Greco[END_REF]]. However, the rates of clinical pregnancy and live birth were not different after blastocyst biopsy at day 5 and day 3 [[START_REF] Blastocyst biopsy versus cleavage stage biopsy for preimplantation genetic testing: a systematic review and meta-analysis., Greco[END_REF]]. In the present study, we also demonstrated that the rates of euploid blastocysts were similar after blastocyst biopsy at day 5 and day 3. The rate of Mosaic embryos was higher after blastocyst biopsy at day 3. However, in our study, the implantation potential of Mosaic embryos was higher than that of euploid embryos [[START_REF] Clinical application of comprehensive chromosomal screening at the blastocyst stage, Schoolcraft[END_REF]]. In addition, the rates of clinical pregnancy and live birth were similar after blastocyst biopsy at day 5 and day 3.
+In 2014, Scott et al. showed that blastocyst biopsy significantly increased the implantation and delivery rates of patients undergoing IVF [[START_REF] Blastocyst biopsy with comprehensive chromosome screening and fresh embryo transfer significantly increases in vitro fertilization implantation and delivery rates: a randomized controlled trial., Scott[END_REF]]. However, in 2018, Magli et al. demonstrated that blastocyst biopsy was as effective as cleavage-stage biopsy for PGT-A [[START_REF] Blastocyst biopsy for PGT-A: is day 3 a better time than day 5?, Magli[END_REF]]. In 2018, Glujovsky et al. showed that embryo biopsy at day 3 was not inferior to embryo biopsy at day 5 for PGT-A [[START_REF] Cleavage stage versus blastocyst stage embryo transfer in assisted reproductive technology, Glujovsky[END_REF]]. In 2019, Wong et al. showed that embryo biopsy at day 3 was as effective as embryo biopsy at day 5 for PGT-A [[START_REF] Day 3 versus day 5 embryo transfer: a randomized controlled trial, Wong[END_REF]].
+In the present study, the rates of euploid blastocysts were similar after blastocyst biopsy at day 5 and day 3. In the majority of cases, embryos with a normal chromosomal complement were transferred, which is a very important consideration in patients undergoing PGT for monogenic/single gene defects. In addition, the clinical pregnancy and live birth rates were similar after blastocyst biopsy at day 5 and day 3. The data also show that a higher proportion of blastocysts with Mosaicism were observed after blastocyst biopsy at day 3. In these patients, a normal chromosomal complement was found in the trophectoderm, suggesting that the biopsy at day 3 may have removed a portion of the inner cell mass, which may have been the Mosaicism.
+In 2015, Glujovsky et al. showed that embryo biopsy at day 3 was not inferior to embryo biopsy at day 5 for PGT-A [[START_REF] Cleavage stage versus blastocyst stage embryo transfer</t>
+  </si>
+  <si>
+    <t># Calcium and vitamin D for increasing bone mineral density in premenopausal women
+There is increasing evidence that vitamin D and calcium supplementation, particularly in older women, may increase bone mineral density (BMD) and reduce the risk of fractures. However, the results of studies on the effect of calcium and vitamin D supplementation on bone health in premenopausal women have been inconsistent.
+The Women’s Health Initiative (WHI) study, a large randomised controlled trial (RCT), investigated the effect of calcium and vitamin D supplementation on the risk of fractures in postmenopausal women. The study enrolled 161,808 women aged 50 to 79 years who were followed up for 13.4 years. Women were randomly assigned to receive either 1000 mg elemental calcium plus 400 IU vitamin D daily or placebo. The results of this study showed that calcium and vitamin D supplementation did not significantly affect the risk of fractures in postmenopausal women [[START_REF] Calcium plus vitamin D supplementation and the risk of fractures., Jackson[END_REF]].
+The largest RCT, the WHI-OS (Women’s Health Initiative-Observational Study), which included 93,676 postmenopausal women who had a BMD measurement, found that the use of calcium and vitamin D supplements was associated with a lower risk of fracture [[START_REF] Calcium plus vitamin D supplementation and the risk of fractures., Jackson[END_REF]]. However, in the WHI-OS, the association between calcium and vitamin D supplementation and BMD was not statistically significant [[START_REF] Calcium plus vitamin D supplementation and the risk of fractures., Jackson[END_REF]].
+In contrast, a large cohort study, the Osteoporotic Fractures in Men (MrOS) study, reported that the use of calcium and vitamin D supplements was associated with an increased risk of hip fracture in men [[START_REF] Calcium and vitamin D supplementation and risk of fractures: an updated meta-analysis from the National Osteoporosis Foundation, Weaver[END_REF]]. However, the effect of calcium and vitamin D supplementation on BMD was not statistically significant [[START_REF] Calcium and vitamin D supplementation and risk of fractures: an updated meta-analysis from the National Osteoporosis Foundation, Weaver[END_REF]].
+The results of two systematic reviews, which included 25 RCTs with 15,139 women and 32 RCTs with 25,456 women, showed that calcium and vitamin D supplementation did not significantly affect the risk of fracture [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]]. However, the results of a meta-analysis of nine RCTs, which included 12,116 women, showed that calcium and vitamin D supplementation increased the BMD in postmenopausal women [[START_REF] Calcium and vitamin D supplementation and bone mineral density in postmenopausal women: a systematic review and meta-analysis., Marin-Plaza[END_REF]].
+A systematic review, which included 10 cohort studies with 130,000 women, reported that calcium and vitamin D supplementation was associated with a reduced risk of hip fracture in older women [[START_REF] Use of calcium or calcium in combination with vitamin D supplementation to prevent fractures and bone loss in people aged 50 years and older: a meta-analysis, Tang[END_REF]]. However, the effect of calcium and vitamin D supplementation on BMD was not statistically significant [[START_REF] Use of calcium or calcium in combination with vitamin D supplementation to prevent fractures and bone loss in people aged 50 years and older: a meta-analysis, Tang[END_REF]].
+The results of two meta-analyses of cohort studies, which included 14,356 and 22,050 women, showed that calcium and vitamin D supplementation was associated with a lower risk of fracture in older women [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]]. However, the effect of calcium and vitamin D supplementation on BMD was not statistically significant [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]].
+The results of two meta-analyses of cohort studies, which included 26,764 and 35,213 women, showed that calcium and vitamin D supplementation was associated with a reduced risk of fracture in older women [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]]. However, the effect of calcium and vitamin D supplementation on BMD was not statistically significant [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]].
+# Calcium and vitamin D for increasing bone mineral density in men
+The results of a meta-analysis of cohort studies, which included 26,764 and 35,213 women, showed that calcium and vitamin D supplementation was associated with a reduced risk of fracture in older women [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]]. However, the effect of calcium and vitamin D supplementation on BMD was not statistically significant [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]].
+The results of a meta-analysis of 25 RCTs, which included 22,373 men, showed that calcium and vitamin D supplementation did not significantly affect the risk of fracture [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]]. However, the results of a meta-analysis of eight RCTs, which included 6682 men, showed that calcium and vitamin D supplementation was associated with an increased BMD in older men [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]].
+# Calcium and vitamin D for increasing bone mineral density in children
+There is increasing evidence that vitamin D and calcium supplementation may increase BMD and reduce the risk of fractures in children.
+The results of a meta-analysis of cohort studies, which included 16,742 children, showed that calcium and vitamin D supplementation was associated with a reduced risk of fracture [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]]. However, the effect of calcium and vitamin D supplementation on BMD was not statistically significant [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]].
+The results of a meta-analysis of 16 RCTs, which included 14,518 children, showed that calcium and vitamin D supplementation did not significantly affect the risk of fracture [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]]. However, the results of a meta-analysis of four RCTs, which included 2921 children, showed that calcium and vitamin D supplementation was associated with an increased BMD in children [[START_REF] Effect of calcium or calcium plus vitamin D supplementation on bone mineral density in women aged 50–59 years: a systematic review and meta-analysis, Zhao[END_REF], [START_REF] Effects of vitamin D and calcium supplementation od pancreatic cancer risk and survival: a randomized controlled trial, Zhao[END_REF]].
+# Calcium and vitamin D for increasing bone mineral density in menopausal women
+The results of a meta-analysis of 16 RCTs, which included 14,518 men</t>
+  </si>
+  <si>
+    <t># Baclofen for alcohol use disorder
+Baclofen is a γ-aminobutyric acid (GABA) B agonist, a neurotransmitter that has been shown to reduce alcohol consumption in rodents [[START_REF] Baclofen reduces ethanol consumption in high-ethanol-preferring sP rats, Dyr[END_REF], [START_REF] Baclofen and naltrexone: comparison of effects on alcohol drinking and seeking in high-drinking rats, Gremel[END_REF]]. In humans, baclofen has been shown to decrease alcohol craving [[START_REF] Baclofen for alcohol use disorder: a randomized, double-blind, placebo-controlled trial, Aardoom[END_REF]] and reduce the desire to drink alcohol [[START_REF] The effects of baclofen on craving, mood, and consumption of alcohol in patients with alcohol dependence, Krupitsky[END_REF]]. These effects are likely mediated by the GABA-B receptor in the mesolimbic pathway, which is thought to mediate alcohol craving [[START_REF] Neurocircuitry targets in ethanol reward and dependence., Koob[END_REF]]. In 2018, baclofen was approved by the FDA for the treatment of alcohol use disorder (AUD), which is a common and severe psychiatric disorder characterized by the inability to stop or control alcohol use []. Baclofen is available as an oral tablet or an extended-release (ER) formulation for oral administration. The recommended dosage of baclofen for AUD is 10–20 mg/day. Baclofen has a short half-life, with a peak plasma concentration of approximately 20–40 h after administration [[START_REF] Baclofen, Taylor[END_REF]]. In patients with AUD, the typical daily dosage is 10–20 mg, which is equivalent to a peak plasma concentration of approximately 500–1000 ng/mL [[START_REF] Baclofen, Taylor[END_REF]]. The recommended duration of treatment is 3 months. The primary side effects of baclofen include nausea, vomiting, and diarrhea. Baclofen is contraindicated in patients with glaucoma, hepatic encephalopathy, or seizures [[START_REF] Baclofen, Taylor[END_REF]].
+# Baclofen for the treatment of alcohol use disorder: efficacy and safety
+Baclofen has been studied for the treatment of AUD for more than 20 years, with 14 randomized controlled trials (RCTs) reported in the literature (Table 1).Table 1: Randomized controlled trials of baclofen for alcohol use disorder
+# Efficacy
+In 2018, the FDA approved baclofen for the treatment of AUD, based on a randomized, double-blind, placebo-controlled trial (RCT) of 100 patients with AUD, in which 60 patients received baclofen (10–20 mg/day) and 40 patients received placebo [[START_REF] Baclofen for alcohol use disorder: a randomized, double-blind, placebo-controlled trial, Aardoom[END_REF]]. Baclofen significantly reduced the number of drinks per day (mean difference = − 1.3 drinks per day, 95% confidence interval [CI] = − 2.1 to − 0.5) and the number of days drinking per month (mean difference = − 0.5 days per month, 95% CI = − 0.9 to − 0.1) compared with placebo [[START_REF] Baclofen for alcohol use disorder: a randomized, double-blind, placebo-controlled trial, Aardoom[END_REF]]. Baclofen also improved the alcohol craving score, which was assessed using the Alcohol Craving Questionnaire-Revised (ACQ-R) (mean difference = − 0.8 points, 95% CI = − 1.2 to − 0.4). In addition, there were no differences in the overall rate of adverse events between the baclofen and placebo groups [[START_REF] Baclofen for alcohol use disorder: a randomized, double-blind, placebo-controlled trial, Aardoom[END_REF]]. The FDA-approved dose of baclofen is 10–20 mg/day, which is equivalent to a peak plasma concentration of approximately 500–1000 ng/mL [[START_REF] Baclofen, Taylor[END_REF]].
+Several additional RCTs have demonstrated the efficacy of baclofen for the treatment of AUD (Table 1). A placebo-controlled RCT of 33 patients with AUD demonstrated that baclofen (10–20 mg/day) significantly reduced the number of drinks per day (mean difference = − 1.9 drinks per day, 95% CI = − 3.3 to − 0.5) and the number of days drinking per month (mean difference = − 1.3 days per month, 95% CI = − 2.1 to − 0.5) compared with placebo [[START_REF] Efficacy and safety of baclofen for maintenance of alcohol abstinence in alcohol-dependent patients with liver cirrhosis: randomised, double-blind controlled study., Addolorato[END_REF]]. Baclofen (10–20 mg/day) also significantly improved the ACQ-R score (mean difference = − 0.8 points, 95% CI = − 1.4 to − 0.2) [[START_REF] Efficacy and safety of baclofen for maintenance of alcohol abstinence in alcohol-dependent patients with liver cirrhosis: randomised, double-blind controlled study., Addolorato[END_REF]]. Another RCT of 102 patients with AUD showed that baclofen (10–20 mg/day) significantly reduced the number of drinks per day (mean difference = − 1.9 drinks per day, 95% CI = − 3.3 to − 0.5), the number of days drinking per month (mean difference = − 1.2 days per month, 95% CI = − 1.9 to − 0.4), and the ACQ-R score (mean difference = − 0.9 points, 95% CI = − 1.6 to − 0.2) compared with placebo [[START_REF] Baclofen for the treatment of alcohol dependence: a randomized, double-blind, placebo-controlled trial, Garbutt[END_REF]]. In addition, a RCT of 61 patients with AUD demonstrated that baclofen (10–20 mg/day) significantly reduced the number of drinks per day (mean difference = − 1.4 drinks per day, 95% CI = − 2.6 to − 0.2), the number of days drinking per month (mean difference = − 0.9 days per month, 95% CI = − 1.7 to − 0.1), and the ACQ-R score (mean difference = − 0.7 points, 95% CI = − 1.2 to − 0.1) compared with placebo [[START_REF] Efficacy and safety of baclofen for alcohol dependence: a randomized, double-blind, placebo-controlled trial, Garbutt[END_REF]]. A double-blind, randomized, crossover trial of 31 patients with AUD demonstrated that baclofen (10–20 mg/day) significantly reduced the number of drinks per day (mean difference = − 1.9 drinks per day, 95% CI = − 3.3 to − 0.5), the number of days drinking per month (mean difference = − 1.2 days per month, 95% CI = − 1.9 to − 0.4), and the ACQ-R score (mean difference = − 0.8 points, 95% CI = − 1.4 to − 0.2) compared with placebo [[START_REF] Effects of baclofen on craving and alcohol consumption in patients with alcohol dependence: A randomized, double-blind, placebo-controlled trial, Petrakis[END_REF]]. Another RCT of 30 patients with AUD showed that baclofen (10–20 mg/day) significantly reduced the number of drinks per day (mean difference = − 1.5 drinks per day, 95% CI = − 2.7 to − 0.4), the number of days drinking per month (mean difference = − 0.8 days per month, 95% CI = − 1.4 to − 0.1), and the ACQ-R score (mean difference = − 0.8 points, 95% CI = − 1.3 to − 0.3) compared with placebo [[START_REF] Effects of baclofen on craving and alcohol consumption in patients with alcohol dependence: A randomized, double-blind, placebo-controlled trial, Petrakis[END_REF]]. A placebo-controlled RCT of 158 patients with AUD demonstrated that baclofen (10–20 mg/day) significantly reduced the number of drinks per day (mean difference = − 2.1 drinks per day, 95% CI = − 3.3 to − 0.9) and the number of days drinking per month (mean difference = − 1.0 days per month, 95% CI = − 1.7 to − 0.3) compared with placebo [[START_REF] Efficacy of baclofen for maintenance of alcohol</t>
+  </si>
+  <si>
+    <t># Acupuncture for treating overactive bladder in adults
+# Introduction
+Overactive bladder (OAB) is a symptom complex of urinary urgency, usually with frequency and nocturia, with or without urge incontinence, in the absence of urinary tract infection or other obvious pathology [[START_REF] An international urogynecological association (IUGA)/international continence society (ICS) joint report on the terminology for female pelvic floor dysfunction, Haylen[END_REF]]. OAB has been reported in 10% of women and 3% of men [[START_REF] Prevalence of overactive bladder and other lower urinary tract symptoms: results of the EPIC study., Irwin[END_REF]]. OAB is associated with significant morbidity, reduced quality of life, and significant healthcare costs [[START_REF] Economic aspects of overactive bladder: the Danish burden of incontinence study (DANBIO), Milsom[END_REF]]. It is a major healthcare problem in many countries.
+The current pharmacological treatment of OAB includes antimuscarinic agents, beta-3 adrenoceptor agonists, and alpha-blockers [[START_REF] Clinical guideline for overactive bladder syndrome, Yamaguchi[END_REF]]. In clinical practice, these drugs are used for the treatment of OAB, although their efficacy has been questioned [[START_REF] A randomized trial of the efficacy and tolerability of solifenacin in Japanese patients with overactive bladder: a 12-week, open-label, multicentre study, Inoue[END_REF], [START_REF] Effect of mirabegron on overactive bladder symptoms in Japanese patients: a 12-week, open-label, multicentre study, Kajiwara[END_REF]]. Furthermore, long-term treatment with these drugs is often associated with adverse effects [[START_REF] Effect of antimuscarinic therapy on sexual function in women with overactive bladder: a randomized controlled trial, Cardozo[END_REF], [START_REF] Effect of beta-3 adrenoceptor agonist therapy on male sexual function in patients with overactive bladder: a randomized controlled trial, Cardozo[END_REF]]. Therefore, other therapies are needed to treat OAB.
+Acupuncture is a traditional Chinese medicine (TCM) technique that has been used for treating OAB for more than 2000 years. Acupuncture is used to treat OAB by stimulating specific acupoints [[START_REF] Clinical study on acupuncture for treatment of overactive bladder, Wang[END_REF]]. The acupoints used in acupuncture for treating OAB have been investigated by many clinical trials [[START_REF] Acupuncture for the treatment of overactive bladder: a systematic review and meta-analysis, Lee[END_REF]]. These trials demonstrated that acupuncture is effective for treating OAB, although its efficacy has been questioned [[START_REF] Acupuncture for the treatment of overactive bladder: a systematic review and meta-analysis, Lee[END_REF]].
+In this study, we performed a systematic review of randomized controlled trials (RCTs) to assess the efficacy and safety of acupuncture for treating OAB in adults.
+# Methods
+# Data sources and search strategy
+We searched for RCTs published before August 2014 that compared acupuncture with other treatments for treating OAB in adults using the following databases: PubMed, EMBASE, the Cochrane Central Register of Controlled Trials (CENTRAL), China National Knowledge Infrastructure (CNKI), Chinese Scientific Journals Database (VIP), Wanfang Database, and Chinese Biomedical Literature Database (CBM). The search terms were “overactive bladder”, “urinary incontinence”, “acupuncture”, “acupoint”, “acupressure”, and “moxibustion”. The search strategies were adapted for each database.
+# Inclusion criteria
+The included studies were RCTs that met the following criteria: (1) the study participants were adults with OAB, and (2) the study compared acupuncture with other treatments for treating OAB.
+# Exclusion criteria
+The excluded studies were (1) non-RCTs, (2) non-clinical studies, (3) duplicate publications, (4) non-English or Chinese studies, and (5) studies with incomplete data.
+# Study selection
+Two investigators (Q.J. and Y.Y.) independently screened the titles and abstracts of the studies retrieved by the search strategy. If the studies met the inclusion criteria, they were retrieved for full-text assessment. The two investigators (Q.J. and Y.Y.) independently assessed the eligibility of the studies retrieved for full-text assessment and determined the final list of studies included in the systematic review. Disagreements between the two investigators were resolved by discussion or consultation with a third investigator (X.H.).
+# Data extraction and quality assessment
+Two investigators (Q.J. and Y.Y.) independently extracted the data from the included studies. The data extracted included the first author’s name, publication year, study design, sample size, participant characteristics, intervention, outcome measures, adverse events, and results.
+The quality of the included studies was assessed by two investigators (Q.J. and Y.Y.) independently using the Jadad scale [[START_REF] Assessing the quality of reports of randomized clinical trials: is blinding necessary?, Jadad[END_REF]]. The Jadad scale consists of three items: (1) randomization (0–2 points), (2) blinding (0–2 points), and (3) dropouts and withdrawals (0–1 point). A score of 1 or 2 was considered to indicate high quality.
+# Data synthesis and analysis
+For dichotomous outcomes, the pooled risk ratios (RRs) with 95% confidence intervals (CIs) were calculated. For continuous outcomes, the pooled mean differences (MDs) with 95% CIs were calculated. We used the chi-squared test and I[START_SUP]2[END_SUP] statistic to assess the heterogeneity among the included studies. A fixed-effects model was used if the I[START_SUP]2[END_SUP] statistic was less than 50%; otherwise, a random-effects model was used. Publication bias was evaluated using a funnel plot. A sensitivity analysis was performed to investigate the stability of the results. All analyses were performed using RevMan 5.3 software (The Cochrane Collaboration, Oxford, UK).
+# Results
+# Study selection
+We identified 2697 potentially relevant articles, of which 2628 were excluded after the titles and abstracts were screened. We retrieved the full text of the remaining 69 studies, of which 45 were excluded for the following reasons: (1) no RCT design (n = 24), (2) non-clinical study (n = 8), (3) non-acupuncture intervention (n = 6), (4) duplicate publication (n = 3), and (5) no OAB diagnosis (n = 6). Finally, 24 studies [[START_REF] Clinical study on acupuncture for treatment of overactive bladder, Wang[END_REF], [START_REF] Clinical observation on treatment of 60 cases of overactive bladder by electroacupuncture, Wang[END_REF]–[START_REF] Observation on therapeutic effect of electroacupuncture for 30 cases of overactive bladder, Huang[END_REF]] were included in the systematic review. The study selection process is shown in Fig. 1.Fig. 1: Flow diagram of study selection
+# Study characteristics
+The characteristics of the included studies are shown in Table 1. The 24 studies included a total of 2398 participants, of whom 1245 received acupuncture treatment and 1153 received other treatments. The studies were published between 1998 and 2014. The sample size of the studies ranged from 40 to 240 participants. All of the studies were conducted in China. The mean age of the participants ranged from 42.3 to 65.0 years. The duration of the studies ranged from 4 to 12 weeks. The acupuncture interventions were performed in the form of electroacupuncture (EA), auricular acupuncture (AA), and warm acupuncture (WA). The treatment duration ranged from 15 to 60 min. The other treatments included medication, bladder training, pelvic floor muscle training (PFMT), bladder training combined with EA, and PFMT combined with EA.Table 1: Characteristics of the included studies
+# Quality assessment
+The results of the quality assessment are shown in Table 2. The included studies were randomized, but the methods used to generate the random sequence were not reported in seven studies [[START_REF] Clinical observation on treatment of 60 cases of overactive bladder by electroacupuncture, Wang[END_REF], [START_REF] Clinical observation on the treatment of 40 cases of overactive bladder by electroacupuncture combined with medicine, Zhou[END_REF], [START_REF] Clinical observation on treatment of 60 cases of overactive bladder by electroacupuncture combined with medicine, Wang[END_REF], [START_REF] Clinical observation on treatment of 30 cases of overactive bladder by electroacupuncture combined with medicine, Chen[END_REF], [START_REF] Observation on therapeutic effect of electroacupuncture for 30 cases of overactive bladder, Huang[END_REF], [START_REF] Clinical observation on treatment of 30 cases of overactive bladder by electroacupuncture combined with medicine, Huang[END_REF], [START_REF] Observation on therapeutic effect of electroacupuncture for 30 cases of overactive bladder, Huang[END_REF]]. The participants and investigators were not blinded in three studies [[START_REF] Clinical observation on treatment</t>
+  </si>
+  <si>
+    <t># Reconstructive surgery for treating pressure ulcers
+A number of studies have been conducted on the use of various reconstructive techniques in the treatment of PU. The purpose of these studies is to evaluate the efficacy of different reconstructive techniques in the treatment of PUs.
+# Flap surgery
+A study was conducted on 120 patients with PUs, who were randomly divided into two groups. The first group was treated with flap surgery, and the second group was treated with traditional methods. After treatment, the clinical efficacy was evaluated. It was found that the total effective rate of flap surgery was significantly higher than that of traditional methods (95.83% vs. 71.67%) [[START_REF] Comparison of the clinical efficacy of flap surgery and traditional treatment in treating pressure ulcers, Wang[END_REF]].
+In another study, 24 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 11 patients [[START_REF] The clinical efficacy of flap surgery in treating pressure ulcers, Sun[END_REF]].
+A clinical study was conducted on 68 patients with stage III PU. Patients were randomly divided into two groups. The first group was treated with free flap surgery, and the second group was treated with traditional methods. After treatment, the clinical efficacy was evaluated. It was found that the total effective rate of flap surgery was significantly higher than that of traditional methods (91.30% vs. 71.88%) [[START_REF] Clinical efficacy of free flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 48 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 29 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 20 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 11 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 42 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 29 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 30 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 21 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 42 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 29 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer was completely healed in 19 patients [[START_REF] Clinical efficacy of flap surgery in the treatment of pressure ulcers, Liu[END_REF]].
+In another study, 32 patients with stage III PU were treated with flap surgery. It was found that the average ulcer area was significantly reduced after treatment, and the ulcer</t>
+  </si>
+  <si>
+    <t>galactica_output_hashtag</t>
+  </si>
+  <si>
+    <t>galactica_title</t>
+  </si>
+  <si>
+    <t>galactica_hashtag</t>
+  </si>
+  <si>
+    <t>Title: Vitamin D for the management of asthma
+Abstract: Abstract Vitamin D is a steroid hormone which regulates calcium and phosphate metabolism. The vitamin D endocrine system has been identified as a potent modulator of the immune system. This has led to interest in the possible role of vitamin D in the pathogenesis of asthma and in the use of vitamin D as a therapeutic agent. Vitamin D has been shown to regulate the production of the anti-inflammatory cytokine, interleukin (IL)-10, in human peripheral blood mononuclear cells (PBMCs) and to down-regulate the expression of the IL-4 gene in human CD4 + T-cells. In animal models of asthma, vitamin D has been shown to suppress inflammation and reduce airway hyperresponsiveness (AHR). Vitamin D deficiency is common in patients with asthma. The vitamin D status of patients with asthma is associated with disease severity, asthma control, and exacerbations. Vitamin D supplementation has been shown to improve asthma control in adults and children, and to reduce asthma exacerbations in children. The evidence suggests that vitamin D supplementation is a safe and effective therapeutic option for the management of asthma.&lt;/s&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3121,16 +4825,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3138,18 +4855,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA9D08E"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3198,8 +4935,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{AB240949-9866-B144-92E6-122FA0A1ECF3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="15">
-    <queryTableFields count="14">
+  <queryTableRefresh nextId="16">
+    <queryTableFields count="15">
       <queryTableField id="1" name="cochrane_id" tableColumnId="1"/>
       <queryTableField id="2" name="title" tableColumnId="2"/>
       <queryTableField id="3" name="year" tableColumnId="3"/>
@@ -3212,6 +4949,7 @@
       <queryTableField id="10" name="abstract" tableColumnId="10"/>
       <queryTableField id="11" name="plain_language_summary" tableColumnId="11"/>
       <queryTableField id="12" name="galactica_output" tableColumnId="12"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="15"/>
       <queryTableField id="13" name="biomedlm_output" tableColumnId="13"/>
       <queryTableField id="14" name="chatgpt_output" tableColumnId="14"/>
     </queryTableFields>
@@ -3220,23 +4958,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2198A9-0A14-144B-8F34-AB01F75FE068}" name="llm_outputs" displayName="llm_outputs" ref="A1:N34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N34" xr:uid="{7C2198A9-0A14-144B-8F34-AB01F75FE068}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C70320F1-5E73-B649-BC04-069AF6B3F52E}" uniqueName="1" name="cochrane_id" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{587F58F2-F125-BD47-A70D-6B9A6804DBB8}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2198A9-0A14-144B-8F34-AB01F75FE068}" name="llm_outputs" displayName="llm_outputs" ref="A1:O33" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O33" xr:uid="{7C2198A9-0A14-144B-8F34-AB01F75FE068}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{C70320F1-5E73-B649-BC04-069AF6B3F52E}" uniqueName="1" name="cochrane_id" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{587F58F2-F125-BD47-A70D-6B9A6804DBB8}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{26F49476-2FF9-A046-BDB9-5DFA7095799A}" uniqueName="3" name="year" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{B719E0E5-ADBB-9B4D-86B6-59C5F315E5F4}" uniqueName="4" name="month" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B719E0E5-ADBB-9B4D-86B6-59C5F315E5F4}" uniqueName="4" name="month" queryTableFieldId="4" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{94CB118C-301D-FE44-80FF-383B0849DF12}" uniqueName="5" name="day" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{05027E2F-16E0-3A44-A813-52B86554F88F}" uniqueName="6" name="version" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{C3CC90E9-6B1E-A94D-935C-246292CBA3A9}" uniqueName="7" name="url" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{B4E1ED76-BFF5-5841-902A-C2FFF2E80042}" uniqueName="8" name="cochrane_review_group_code" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{7E38B34C-7A6B-B745-9D83-C9995A10906C}" uniqueName="9" name="cochrane_review_topic" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{91CF4D95-DD3B-4347-BC35-AB194117BC66}" uniqueName="10" name="abstract" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{134F04B5-21B0-CD43-AA95-56AF9979E655}" uniqueName="11" name="plain_language_summary" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{304EBCC4-8A96-D646-841C-12CE5B0F507C}" uniqueName="12" name="galactica_output" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{D13621F4-4AEE-814E-ACDA-BA9F74B67685}" uniqueName="13" name="biomedlm_output" queryTableFieldId="13" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{19813BDB-5D66-F948-A152-4ACD262E1B4E}" uniqueName="14" name="chatgpt_output" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{C3CC90E9-6B1E-A94D-935C-246292CBA3A9}" uniqueName="7" name="url" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B4E1ED76-BFF5-5841-902A-C2FFF2E80042}" uniqueName="8" name="cochrane_review_group_code" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{7E38B34C-7A6B-B745-9D83-C9995A10906C}" uniqueName="9" name="cochrane_review_topic" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{91CF4D95-DD3B-4347-BC35-AB194117BC66}" uniqueName="10" name="abstract" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{134F04B5-21B0-CD43-AA95-56AF9979E655}" uniqueName="11" name="plain_language_summary" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{304EBCC4-8A96-D646-841C-12CE5B0F507C}" uniqueName="12" name="galactica_output_title" queryTableFieldId="12" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{CCC785D4-FB94-EF4D-85FE-04033613A9A7}" uniqueName="15" name="galactica_output_hashtag" queryTableFieldId="15"/>
+    <tableColumn id="13" xr3:uid="{D13621F4-4AEE-814E-ACDA-BA9F74B67685}" uniqueName="13" name="biomedlm_output" queryTableFieldId="13" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{19813BDB-5D66-F948-A152-4ACD262E1B4E}" uniqueName="14" name="chatgpt_output" queryTableFieldId="14" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E3776CBF-3127-4248-989F-5860D881A3E3}" name="Table4" displayName="Table4" ref="A1:C1048573" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2E4486B0-31C7-AF42-89DD-71FDF1180728}" name="galactica_output"/>
+    <tableColumn id="2" xr3:uid="{67283A4C-A178-F046-8F38-B0D59296CF11}" name="model"/>
+    <tableColumn id="3" xr3:uid="{7D9C8323-596B-6C4D-85F7-320D57130C78}" name="codes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{764E27B2-3E59-0D4B-A690-26558C697F95}" name="Table5" displayName="Table5" ref="A1:B1048575" totalsRowShown="0">
+  <autoFilter ref="A1:B1048575" xr:uid="{764E27B2-3E59-0D4B-A690-26558C697F95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B53">
+    <sortCondition descending="1" ref="B1:B1048575"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{542BDA7D-E760-0A48-A0D9-5DA08F811A72}" name="codes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EB202074-DA95-4144-B2E1-2B73510D074F}" name="instances_found"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3539,10 +5303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C2D05B-89AD-214C-8E41-35A321CE01D1}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3556,10 +5320,12 @@
     <col min="7" max="7" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3594,26 +5360,29 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="M1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
@@ -3622,42 +5391,45 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
@@ -3666,42 +5438,45 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>463</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="E4">
@@ -3710,42 +5485,45 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>464</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
@@ -3754,42 +5532,45 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M5" t="s">
+        <v>465</v>
+      </c>
+      <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
@@ -3798,43 +5579,46 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="M6" t="s">
+        <v>466</v>
+      </c>
+      <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="B7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
+      <c r="D7" t="s">
+        <v>66</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -3842,43 +5626,46 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" t="s">
+        <v>467</v>
+      </c>
+      <c r="N7" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="B8" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C8">
         <v>2022</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
+      <c r="D8" t="s">
+        <v>66</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -3886,42 +5673,45 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>468</v>
+      </c>
+      <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="B9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C9">
         <v>2023</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
@@ -3930,43 +5720,46 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" t="s">
+        <v>469</v>
+      </c>
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="B10" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
+      <c r="D10" t="s">
+        <v>66</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -3974,42 +5767,45 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" t="s">
+        <v>470</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="B11" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C11">
         <v>2023</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
@@ -4018,42 +5814,45 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" t="s">
+        <v>471</v>
+      </c>
+      <c r="N11" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="O11" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>115</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="B12" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C12">
         <v>2023</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
       <c r="E12">
@@ -4062,42 +5861,45 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" t="s">
         <v>120</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" t="s">
+        <v>472</v>
+      </c>
+      <c r="N12" t="s">
         <v>123</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="O12" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>125</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="B13" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C13">
         <v>2023</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
@@ -4106,42 +5908,45 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" t="s">
+        <v>473</v>
+      </c>
+      <c r="N13" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="O13" t="s">
         <v>134</v>
       </c>
-      <c r="M13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>135</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="B14" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C14">
         <v>2023</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
@@ -4150,42 +5955,45 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" t="s">
+        <v>474</v>
+      </c>
+      <c r="N14" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="O14" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="B15" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C15">
         <v>2023</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
@@ -4194,43 +6002,46 @@
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" t="s">
+        <v>475</v>
+      </c>
+      <c r="N15" t="s">
         <v>152</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="O15" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="B16" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>158</v>
+      <c r="D16" t="s">
+        <v>156</v>
       </c>
       <c r="E16">
         <v>27</v>
@@ -4238,43 +6049,46 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" t="s">
+        <v>476</v>
+      </c>
+      <c r="N16" t="s">
         <v>163</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="O16" t="s">
         <v>164</v>
       </c>
-      <c r="M16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>165</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="B17" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C17">
         <v>2021</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
+      <c r="D17" t="s">
+        <v>66</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -4282,43 +6096,46 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" t="s">
         <v>171</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="M17" t="s">
+        <v>477</v>
+      </c>
+      <c r="N17" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="O17" t="s">
         <v>174</v>
       </c>
-      <c r="M17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>175</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="B18" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>158</v>
+      <c r="D18" t="s">
+        <v>156</v>
       </c>
       <c r="E18">
         <v>19</v>
@@ -4326,42 +6143,45 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" t="s">
         <v>181</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" t="s">
         <v>182</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" t="s">
+        <v>478</v>
+      </c>
+      <c r="N18" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="O18" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>185</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="B19" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C19">
         <v>2023</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
@@ -4370,42 +6190,45 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" t="s">
         <v>190</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" t="s">
         <v>191</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M19" t="s">
+        <v>479</v>
+      </c>
+      <c r="N19" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="O19" t="s">
         <v>193</v>
       </c>
-      <c r="L19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>194</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="B20" t="s">
         <v>195</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C20">
         <v>2023</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
@@ -4414,645 +6237,2416 @@
       <c r="F20">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
         <v>199</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="K20" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="M20" t="s">
+        <v>480</v>
+      </c>
+      <c r="N20" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="O20" t="s">
         <v>203</v>
       </c>
-      <c r="L20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>204</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="B21" t="s">
         <v>205</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C21">
         <v>2023</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s">
+        <v>481</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="s">
+        <v>482</v>
+      </c>
+      <c r="N22" t="s">
+        <v>222</v>
+      </c>
+      <c r="O22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23">
+        <v>2023</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
-        <v>22</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22">
-        <v>2023</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>31</v>
-      </c>
-      <c r="F22">
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" t="s">
         <v>227</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>228</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>229</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
+        <v>483</v>
+      </c>
+      <c r="N23" t="s">
         <v>231</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>234</v>
       </c>
       <c r="C24">
         <v>2023</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
         <v>235</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="I24" t="s">
         <v>237</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="J24" t="s">
         <v>238</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="K24" t="s">
         <v>239</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" t="s">
+        <v>484</v>
+      </c>
+      <c r="N24" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="O24" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>243</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
       </c>
       <c r="C25">
         <v>2023</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s">
+        <v>485</v>
+      </c>
+      <c r="N25" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" t="s">
+        <v>486</v>
+      </c>
+      <c r="N26" t="s">
+        <v>262</v>
+      </c>
+      <c r="O26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27">
+        <v>2023</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>22</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26">
-        <v>2023</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" t="s">
         <v>266</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" t="s">
         <v>267</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="I27" t="s">
         <v>268</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="J27" t="s">
         <v>269</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="K27" t="s">
         <v>270</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="L27" t="s">
         <v>271</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" t="s">
+        <v>487</v>
+      </c>
+      <c r="N27" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="O27" t="s">
         <v>273</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>274</v>
+      </c>
+      <c r="B28" t="s">
+        <v>275</v>
       </c>
       <c r="C28">
         <v>2023</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>27</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
         <v>276</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" t="s">
         <v>277</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="I28" t="s">
         <v>278</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="J28" t="s">
         <v>279</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="K28" t="s">
         <v>280</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="L28" t="s">
         <v>281</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" t="s">
+        <v>488</v>
+      </c>
+      <c r="N28" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="O28" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>284</v>
       </c>
+      <c r="B29" t="s">
+        <v>285</v>
+      </c>
       <c r="C29">
-        <v>2023</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>2022</v>
+      </c>
+      <c r="D29" t="s">
+        <v>286</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="G29" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="H29" t="s">
         <v>288</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="I29" t="s">
         <v>289</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="J29" t="s">
         <v>290</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="K29" t="s">
         <v>291</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="L29" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="M29" t="s">
+        <v>489</v>
+      </c>
+      <c r="N29" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="O29" t="s">
         <v>294</v>
       </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
       <c r="C30">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>295</v>
+        <v>2023</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" t="s">
         <v>297</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="H30" t="s">
         <v>298</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="I30" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="J30" t="s">
         <v>300</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="K30" t="s">
         <v>301</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="L30" t="s">
         <v>302</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" t="s">
+        <v>490</v>
+      </c>
+      <c r="N30" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="O30" t="s">
         <v>304</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>305</v>
+      </c>
+      <c r="B31" t="s">
+        <v>306</v>
       </c>
       <c r="C31">
         <v>2023</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>37</v>
       </c>
       <c r="E31">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I31" t="s">
+        <v>309</v>
+      </c>
+      <c r="J31" t="s">
+        <v>310</v>
+      </c>
+      <c r="K31" t="s">
+        <v>311</v>
+      </c>
+      <c r="L31" t="s">
+        <v>312</v>
+      </c>
+      <c r="M31" t="s">
+        <v>491</v>
+      </c>
+      <c r="N31" t="s">
+        <v>313</v>
+      </c>
+      <c r="O31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32">
+        <v>2022</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32">
-        <v>2023</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32">
-        <v>13</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" t="s">
         <v>317</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" t="s">
         <v>318</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="I32" t="s">
         <v>319</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="J32" t="s">
         <v>320</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="K32" t="s">
         <v>321</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="L32" t="s">
         <v>322</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="M32" t="s">
+        <v>492</v>
+      </c>
+      <c r="N32" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="O32" t="s">
         <v>324</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>325</v>
+      </c>
+      <c r="B33" t="s">
+        <v>326</v>
       </c>
       <c r="C33">
         <v>2022</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>16</v>
+      <c r="D33" t="s">
+        <v>156</v>
       </c>
       <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>327</v>
+      </c>
+      <c r="H33" t="s">
+        <v>328</v>
+      </c>
+      <c r="I33" t="s">
+        <v>328</v>
+      </c>
+      <c r="J33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K33" t="s">
+        <v>330</v>
+      </c>
+      <c r="L33" t="s">
+        <v>331</v>
+      </c>
+      <c r="M33" t="s">
+        <v>493</v>
+      </c>
+      <c r="N33" t="s">
+        <v>332</v>
+      </c>
+      <c r="O33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4359DC71-59C4-3B4E-B128-2506ED569E5D}">
+  <dimension ref="A1:C129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="99.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>495</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F33">
+      <c r="B34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>336</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" t="s">
+        <v>336</v>
+      </c>
+      <c r="C55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" t="s">
+        <v>336</v>
+      </c>
+      <c r="C56" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" t="s">
+        <v>336</v>
+      </c>
+      <c r="C57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" t="s">
+        <v>336</v>
+      </c>
+      <c r="C60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>323</v>
+      </c>
+      <c r="B64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65" t="s">
+        <v>336</v>
+      </c>
+      <c r="C65" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>337</v>
+      </c>
+      <c r="C68" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>337</v>
+      </c>
+      <c r="C69" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>337</v>
+      </c>
+      <c r="C70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" t="s">
+        <v>337</v>
+      </c>
+      <c r="C78" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
+        <v>337</v>
+      </c>
+      <c r="C79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+      <c r="C80" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" t="s">
+        <v>337</v>
+      </c>
+      <c r="C82" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" t="s">
+        <v>337</v>
+      </c>
+      <c r="C85" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" t="s">
+        <v>337</v>
+      </c>
+      <c r="C86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" t="s">
+        <v>337</v>
+      </c>
+      <c r="C89" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>337</v>
+      </c>
+      <c r="C93" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" t="s">
+        <v>337</v>
+      </c>
+      <c r="C95" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" t="s">
+        <v>337</v>
+      </c>
+      <c r="C97" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>462</v>
+      </c>
+      <c r="B98" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>463</v>
+      </c>
+      <c r="B99" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>464</v>
+      </c>
+      <c r="B100" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>465</v>
+      </c>
+      <c r="B101" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>466</v>
+      </c>
+      <c r="B102" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>467</v>
+      </c>
+      <c r="B103" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>468</v>
+      </c>
+      <c r="B104" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>469</v>
+      </c>
+      <c r="B105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>470</v>
+      </c>
+      <c r="B106" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>471</v>
+      </c>
+      <c r="B107" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>472</v>
+      </c>
+      <c r="B108" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>473</v>
+      </c>
+      <c r="B109" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>474</v>
+      </c>
+      <c r="B110" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>475</v>
+      </c>
+      <c r="B111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>476</v>
+      </c>
+      <c r="B112" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>477</v>
+      </c>
+      <c r="B113" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>478</v>
+      </c>
+      <c r="B114" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>479</v>
+      </c>
+      <c r="B115" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>480</v>
+      </c>
+      <c r="B116" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>481</v>
+      </c>
+      <c r="B117" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>482</v>
+      </c>
+      <c r="B118" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>483</v>
+      </c>
+      <c r="B119" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>484</v>
+      </c>
+      <c r="B120" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>485</v>
+      </c>
+      <c r="B121" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>486</v>
+      </c>
+      <c r="B122" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>487</v>
+      </c>
+      <c r="B123" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>488</v>
+      </c>
+      <c r="B124" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>489</v>
+      </c>
+      <c r="B125" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>490</v>
+      </c>
+      <c r="B126" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>491</v>
+      </c>
+      <c r="B127" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>492</v>
+      </c>
+      <c r="B128" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>493</v>
+      </c>
+      <c r="B129" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72EABFF-6803-5B4F-86B3-BE59B4F012A5}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C34">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34">
-        <v>13</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J34" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>342</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
